--- a/DDAf_2021_Liste_des_indicateurs.xlsx
+++ b/DDAf_2021_Liste_des_indicateurs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="661">
   <si>
     <t>Liste des indicateurs, descriptions et détails</t>
   </si>
@@ -301,7 +301,7 @@
     <t>Estimation de la Division de la population du Département des affaires économiques et sociales des Nations Unies. Les populations urbaines au 1er Juillet de l'année indiquée. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Urbanization Prospects produites sur une période de cinq ans. Pour plus d'information, voir :</t>
   </si>
   <si>
-    <t>Perspectives de l'urbanisation mondiale: la révision de 2018, ONU</t>
+    <t>..</t>
   </si>
   <si>
     <t>PopRural</t>
@@ -319,7 +319,7 @@
     <t>Population vivant dans des agglomérations urbaines de 300,000 à un million d'habitants (milliers)</t>
   </si>
   <si>
-    <t>Calculs de l'auteur basés sur World Urbanization Prospects: The 2018 Revision, du Département des affaires économiques et sociales des Nations Unies (UNDESA). 
+    <t>Calculs de l'auteur basés sur World Urbanization Prospects: The 2019 Revision, du Département des affaires économiques et sociales des Nations Unies (UNDESA). 
 La somme des estimations de population pour des villes entre 300,000 et un million d'habitants. Les populations sont au 1er Juillet de l'année indiquée. Les chiffres sont communiqués par l'UNDESA sur une base quinquennale, une interpolation est donc utilisée pour produire des chiffres annuels.</t>
   </si>
   <si>
@@ -332,7 +332,7 @@
     <t>Nombre d'agglomérations urbaines de 300 000 à un million d'habitants</t>
   </si>
   <si>
-    <t>Le nombre de villes dans les World Urbanization Prospects: The 2018 Revision, du Département des affaires économiques et sociales des Nations Unies (UNDESA), ayant 300,000 et un million d'habitants.</t>
+    <t>Le nombre de villes dans les World Urbanization Prospects: The 2019 Revision, du Département des affaires économiques et sociales des Nations Unies (UNDESA), ayant 300,000 et un million d'habitants.</t>
   </si>
   <si>
     <t>Nombre</t>
@@ -344,7 +344,7 @@
     <t>Population vivant dans des agglomérations urbaines de plus d'un million d'habitants (milliers)</t>
   </si>
   <si>
-    <t>Calculs de l'auteur basés sur World Urbanization Prospects: The 2018 Revision, du Département des affaires économiques et sociales des Nations Unies (UNDESA). 
+    <t>Calculs de l'auteur basés sur World Urbanization Prospects: The 2019 Revision, du Département des affaires économiques et sociales des Nations Unies (UNDESA). 
 La somme des estimations de population pour des villes individuelles de plus d'un million d'habitants. Les populations sont reportées au 1er Juillet de l'année indiquée. Les chiffres sont communiqués par l'UNDESA sur une base quinquennale, une interpolation est donc utilisée pour produire des chiffres annuels.</t>
   </si>
   <si>
@@ -354,7 +354,7 @@
     <t>Nombre d'agglomérations urbaines de plus d'un million d'habitants</t>
   </si>
   <si>
-    <t>Le nombre de villes dans les World Urbanization Prospects: The 2018 Revision, du Département des affaires économiques et sociales des Nations Unies (UNDESA), ayant au moins 1 million d'habitants.</t>
+    <t>Le nombre de villes dans les World Urbanization Prospects: The 2019 Revision, du Département des affaires économiques et sociales des Nations Unies (UNDESA), ayant au moins 1 million d'habitants.</t>
   </si>
   <si>
     <t>OldDepRatio</t>
@@ -490,9 +490,6 @@
   </si>
   <si>
     <t>2000-2040</t>
-  </si>
-  <si>
-    <t>Explorateur de données sur le capital humain du Centre Wittgenstein, 2018</t>
   </si>
   <si>
     <t>WittMedPrim15PL</t>
@@ -662,7 +659,7 @@
     <t>Rente pétroliere (% du PIB)</t>
   </si>
   <si>
-    <t>Données de la Banque Mondiale.  La rente pétrolière représente la différence entre la valeur de la production de pétrole brut aux prix régionaux et le coût total de la production. Les estimations des rentes tirées des ressources naturelles sont calculées en faisant la différence entre le prix d’un produit de base et son coût moyen de production. Ceci est effectué en estimant le prix unitaire de certains produits et en soustrayant les estimations des coûts unitaires moyens d'extraction ou de récolte (en prenant compte un rendement du capital normal). Ces rentes unitaires sont ensuite multipliées par les quantités physiques que les pays extraient ou récoltent pour déterminer les rentes de chaque produit exprimées en pourcentage du produit intérieur brut (PIB). Estimations du personnel de la Banque Mondiale basées sur les sources et les méthodes décrites dans 'The Changing Wealth of Nations 2018: Building a Sustainable Future' (Lange et al 2018).</t>
+    <t>Données de la Banque Mondiale.  La rente pétrolière représente la différence entre la valeur de la production de pétrole brut aux prix régionaux et le coût total de la production. Les estimations des rentes tirées des ressources naturelles sont calculées en faisant la différence entre le prix d’un produit de base et son coût moyen de production. Ceci est effectué en estimant le prix unitaire de certains produits et en soustrayant les estimations des coûts unitaires moyens d'extraction ou de récolte (en prenant compte un rendement du capital normal). Ces rentes unitaires sont ensuite multipliées par les quantités physiques que les pays extraient ou récoltent pour déterminer les rentes de chaque produit exprimées en pourcentage du produit intérieur brut (PIB). Estimations du personnel de la Banque Mondiale basées sur les sources et les méthodes décrites dans 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019).</t>
   </si>
   <si>
     <t>MinRent</t>
@@ -671,7 +668,7 @@
     <t>Rente tirée des minéraux (% du PIB)</t>
   </si>
   <si>
-    <t>A partir des indicateurs du développement mondial de la Banque mondiale. Selon la documentation de la Banque mondiale : La rente pétrolière représente la différence entre la valeur de la production de pétrole brut aux prix régionaux et le coût total de la production.  Les estimations des rentes tirées des ressources naturelles sont calculées en faisant la différence entre le prix d’un produit de base et son coût moyen de production. Ceci est effectué en estimant le prix unitaire de certains produits et en soustrayant les estimations des coûts unitaires moyens d'extraction ou de récolte (en prenant compte un rendement du capital normal). Ces rentes unitaires sont ensuite multipliées par les quantités physiques que les pays extraient ou récoltent pour déterminer les rentes de chaque produit exprimées en pourcentage du produit intérieur brut (PIB).  Estimations faites par le personnel de la Banque Mondiale basées sur les sources et les méthodes décrites dans 'The Changing Wealth of Nations 2018: Building a Sustainable Future' (Lange et al 2018). Pour plus d'informations, voir :</t>
+    <t>A partir des indicateurs du développement mondial de la Banque mondiale. Selon la documentation de la Banque mondiale : La rente pétrolière représente la différence entre la valeur de la production de pétrole brut aux prix régionaux et le coût total de la production.  Les estimations des rentes tirées des ressources naturelles sont calculées en faisant la différence entre le prix d’un produit de base et son coût moyen de production. Ceci est effectué en estimant le prix unitaire de certains produits et en soustrayant les estimations des coûts unitaires moyens d'extraction ou de récolte (en prenant compte un rendement du capital normal). Ces rentes unitaires sont ensuite multipliées par les quantités physiques que les pays extraient ou récoltent pour déterminer les rentes de chaque produit exprimées en pourcentage du produit intérieur brut (PIB).  Estimations faites par le personnel de la Banque Mondiale basées sur les sources et les méthodes décrites dans 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019). Pour plus d'informations, voir :</t>
   </si>
   <si>
     <t>TotNRRent</t>
@@ -680,7 +677,7 @@
     <t>Rente tirée des ressources naturelles totales (% du PIB)</t>
   </si>
   <si>
-    <t>A partir des indicateurs du développement mondial de la Banque mondiale. Selon la documentation de la Banque mondiale : Les rentes des minéraux correspondent à la différence entre la valeur de la production d'un stock de minéraux aux prix mondiaux et leurs coûts totaux de production. Les minéraux considérés sont l’étain, l’or, le plomb, le zinc, le fer, le cuivre, le nickel, l’argent, la bauxite et le phosphate.  Estimations faites par le personnel de la Banque Mondiale en se basant sur les sources et les méthodes décrites dans 'The Changing Wealth of Nations 2018: Building a Sustainable Future' (Lange et al 2018).  Les estimations des rentes tireés des ressources naturelles sont calculées en faisant la différence entre le prix d’un produit et son coût moyen de production. Ceci est effectué en estimant le prix unitaire de certains produits et en soustrayant les estimations des coûts unitaires moyens d'extraction ou de récolte (en prenant compte un rendement du capital normal). Ces rentes unitaires sont ensuite multipliées par les quantités physiques que les pays extraient ou récoltent pour déterminer les rentes de chaque produit exprimées en pourcentage du produit intérieur brut (PIB). Pour plus d'informations, voir :</t>
+    <t>A partir des indicateurs du développement mondial de la Banque mondiale. Selon la documentation de la Banque mondiale : Les rentes des minéraux correspondent à la différence entre la valeur de la production d'un stock de minéraux aux prix mondiaux et leurs coûts totaux de production. Les minéraux considérés sont l’étain, l’or, le plomb, le zinc, le fer, le cuivre, le nickel, l’argent, la bauxite et le phosphate.  Estimations faites par le personnel de la Banque Mondiale en se basant sur les sources et les méthodes décrites dans 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019).  Les estimations des rentes tireés des ressources naturelles sont calculées en faisant la différence entre le prix d’un produit et son coût moyen de production. Ceci est effectué en estimant le prix unitaire de certains produits et en soustrayant les estimations des coûts unitaires moyens d'extraction ou de récolte (en prenant compte un rendement du capital normal). Ces rentes unitaires sont ensuite multipliées par les quantités physiques que les pays extraient ou récoltent pour déterminer les rentes de chaque produit exprimées en pourcentage du produit intérieur brut (PIB). Pour plus d'informations, voir :</t>
   </si>
   <si>
     <t>AgrFrPerGDP</t>
@@ -905,22 +902,19 @@
     <t>Indicateur Institutions Sociales et Égalité Femmes-Hommes (SIGI)</t>
   </si>
   <si>
-    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Les institutions sociales discriminatoires sont définies comme les lois, attitudes et pratiques formelles et informelles qui restreignent l’accès des femmes et des filles aux droits, à la justice et à l’autonomisation. Celles-ci sont capturées dans une approche multiforme par les variables du SIGI qui combinent des données qualitatives et quantitatives, en tenant compte de la discrimination de jure et de facto des institutions sociales, à travers des informations sur les lois, les attitudes et les pratiques. Les variables couvrent toutes les étapes de la vie d’une femme afin de montrer comment des institutions sociales discriminatoires peuvent s’enchevêtrer et les lier dans des cycles de pauvreté et de déresponsabilisation. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2018. Pour plus d'informations, voir :</t>
+    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Les institutions sociales discriminatoires sont définies comme les lois, attitudes et pratiques formelles et informelles qui restreignent l’accès des femmes et des filles aux droits, à la justice et à l’autonomisation. Celles-ci sont capturées dans une approche multiforme par les variables du SIGI qui combinent des données qualitatives et quantitatives, en tenant compte de la discrimination de jure et de facto des institutions sociales, à travers des informations sur les lois, les attitudes et les pratiques. Les variables couvrent toutes les étapes de la vie d’une femme afin de montrer comment des institutions sociales discriminatoires peuvent s’enchevêtrer et les lier dans des cycles de pauvreté et de déresponsabilisation. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir :</t>
   </si>
   <si>
     <t>2015-2019</t>
   </si>
   <si>
-    <t>Indicateur Institutions Sociales et Égalité Femmes-Hommes, Centre de développement de l'OCDE (mise à jour avec la nouvelle méthodologie, décembre 2018)</t>
-  </si>
-  <si>
     <t>SIGIFAM</t>
   </si>
   <si>
     <t>Discriminations au sein de la famille (sous-indice SIGI)</t>
   </si>
   <si>
-    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "discriminations au sein de la famille" regroupe les institutions sociales qui limitent le pouvoir de décision des femmes et sous-estiment leur statut au sein du ménage et de la famille. Ces lois, normes et pratiques sociales formelles et informelles coexistent dans différents types de systèmes juridiques, notamment le droit civil ou le droit commun, le droit coutumier et le droit religieux, et couvrent des domaines tels que le mariage, l'autorité parentale, les responsabilités du ménage, le divorce et les droits successoraux. Le pouvoir de décision des femmes et leur statut au sein de la famille déterminent à la fois leur capacité de choisir leur propre voie de développement et le bien-être de leur famille. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2018. Pour plus d'informations, voir :</t>
+    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "discriminations au sein de la famille" regroupe les institutions sociales qui limitent le pouvoir de décision des femmes et sous-estiment leur statut au sein du ménage et de la famille. Ces lois, normes et pratiques sociales formelles et informelles coexistent dans différents types de systèmes juridiques, notamment le droit civil ou le droit commun, le droit coutumier et le droit religieux, et couvrent des domaines tels que le mariage, l'autorité parentale, les responsabilités du ménage, le divorce et les droits successoraux. Le pouvoir de décision des femmes et leur statut au sein de la famille déterminent à la fois leur capacité de choisir leur propre voie de développement et le bien-être de leur famille. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir :</t>
   </si>
   <si>
     <t>SIGIPHYS</t>
@@ -929,7 +923,7 @@
     <t>Atteintes à l'intégrité physique (sous-indice SIGI)</t>
   </si>
   <si>
-    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "atteintes à l'intégrité physique" regroupe les institutions sociales qui limitent le contrôle des femmes et des filles sur leur corps, augmentent la vulnérabilité des femmes et normalisent les attitudes à l’égard de la violence sexiste. Cela inclut les lois, normes et pratiques formelles et informelles qui ne protègent pas l’intégrité physique et l’autonomie de la reproduction des femmes et qui permettent la violence et les mutilations génitales féminines. L’intégrité physique limitée en raison de la violence sexiste et du manque d’autonomie en matière de procréation a de graves répercussions sur les résultats en matière de santé des femmes et de leurs enfants et sur les indicateurs de développement économique et social en accroissant la vulnérabilité des femmes à la pauvreté. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2018. Pour plus d'informations, voir :</t>
+    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "atteintes à l'intégrité physique" regroupe les institutions sociales qui limitent le contrôle des femmes et des filles sur leur corps, augmentent la vulnérabilité des femmes et normalisent les attitudes à l’égard de la violence sexiste. Cela inclut les lois, normes et pratiques formelles et informelles qui ne protègent pas l’intégrité physique et l’autonomie de la reproduction des femmes et qui permettent la violence et les mutilations génitales féminines. L’intégrité physique limitée en raison de la violence sexiste et du manque d’autonomie en matière de procréation a de graves répercussions sur les résultats en matière de santé des femmes et de leurs enfants et sur les indicateurs de développement économique et social en accroissant la vulnérabilité des femmes à la pauvreté. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir :</t>
   </si>
   <si>
     <t>SIGIRES</t>
@@ -938,7 +932,7 @@
     <t>Accès restreint aux ressources productives et financières (sous-indice SIGI)</t>
   </si>
   <si>
-    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "accès restreint aux ressources productives et financières" rend compte de l’accès restreint des femmes à des ressources et avoirs essentiels, productifs et économiques, ainsi que de leur contrôle. Cela inclut les lois discriminatoires, qui nient aux femmes le droit de posséder, de contrôler ou d’utiliser des terres et des avoirs autres que la terre, de travailler décemment et d’obtenir des services financiers; pratiques coutumières discriminatoires en matière de propriété ou de décision concernant la terre, les biens du ménage et d’autres actifs; pratiques ou attitudes discriminatoires à l’égard du travail formel des femmes; et les normes sociales dictant que la propriété des femmes ou leur accès au crédit devraient être négociés par les hommes. Des droits précaires ou précaires sur la terre, les biens non fonciers et les services financiers réduisent les possibilités de revenus pour les femmes, réduisent le pouvoir décisionnel des femmes au sein du ménage, augmentent l'insécurité alimentaire des femmes et de leurs familles et rendent les femmes et les familles plus vulnérables la pauvreté. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2018. Pour plus d'informations, voir :</t>
+    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "accès restreint aux ressources productives et financières" rend compte de l’accès restreint des femmes à des ressources et avoirs essentiels, productifs et économiques, ainsi que de leur contrôle. Cela inclut les lois discriminatoires, qui nient aux femmes le droit de posséder, de contrôler ou d’utiliser des terres et des avoirs autres que la terre, de travailler décemment et d’obtenir des services financiers; pratiques coutumières discriminatoires en matière de propriété ou de décision concernant la terre, les biens du ménage et d’autres actifs; pratiques ou attitudes discriminatoires à l’égard du travail formel des femmes; et les normes sociales dictant que la propriété des femmes ou leur accès au crédit devraient être négociés par les hommes. Des droits précaires ou précaires sur la terre, les biens non fonciers et les services financiers réduisent les possibilités de revenus pour les femmes, réduisent le pouvoir décisionnel des femmes au sein du ménage, augmentent l'insécurité alimentaire des femmes et de leurs familles et rendent les femmes et les familles plus vulnérables la pauvreté. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir :</t>
   </si>
   <si>
     <t>SIGICIV</t>
@@ -947,7 +941,7 @@
     <t>Atteintes aux libertés civiles (sous-indice SIGI)</t>
   </si>
   <si>
-    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "atteintes aux libertés civiles" reprend les lois et pratiques discriminatoires qui restreignent l’accès des femmes à l’espace public, leur voix politique et leur participation à tous les aspects de la vie publique. Cela inclut un manque de liberté de mouvement, l'incapacité de voter ou de se présenter aux élections, et des attitudes négatives à l'égard des femmes en tant que personnalités publiques ou en tant que dirigeantes. Ce sous-indice met en évidence l’importance de la participation des femmes aux actions communautaires et à la prise de décision publique pour une gamme de résultats de développement tels que la gouvernance, la santé et l’éducation. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2018. Pour plus d'informations, voir :</t>
+    <t>L'Indice institutions sociales et égalité homme-femme (SIGI) et ses sous-indices sont compris entre 0 et 100, 0 indiquant des niveaux de discrimination très faibles et 100 indiquant des niveaux de discrimination très élevés. Le sous-indice "atteintes aux libertés civiles" reprend les lois et pratiques discriminatoires qui restreignent l’accès des femmes à l’espace public, leur voix politique et leur participation à tous les aspects de la vie publique. Cela inclut un manque de liberté de mouvement, l'incapacité de voter ou de se présenter aux élections, et des attitudes négatives à l'égard des femmes en tant que personnalités publiques ou en tant que dirigeantes. Ce sous-indice met en évidence l’importance de la participation des femmes aux actions communautaires et à la prise de décision publique pour une gamme de résultats de développement tels que la gouvernance, la santé et l’éducation. Le SIGI a été lancé pour la première fois en 2009, puis mis à jour en 2012 et 2014. Les chiffres pour 2015-19 correspondent aux résultats 2019 du SIGI, lancé en décembre 2019. Pour plus d'informations, voir :</t>
   </si>
   <si>
     <t>IntntSubsPer100</t>
@@ -1016,6 +1010,9 @@
     <t>Pourcentage d'habitants vivant dans une zone couverte par la technologie mobile 4G</t>
   </si>
   <si>
+    <t>La couverture 4G fait référence au pourcentage d'habitants qui sont couverts par un réseau de technologie mobile 4G, qu'ils soient abonnés ou non. Tiré de GSMA Intelligence</t>
+  </si>
+  <si>
     <t>2020-2020</t>
   </si>
   <si>
@@ -1028,7 +1025,7 @@
     <t>Accès à l'Internet (% de la population âgée de 15 ans et plus)</t>
   </si>
   <si>
-    <t>La couverture 4G fait référence au pourcentage d'habitants qui sont couverts par un réseau de technologie mobile 4G, qu'ils soient abonnés ou non. Tiré de GSMA Intelligence</t>
+    <t>L'accès à Internet peut être défini comme la proportion de personnes âgées de 15 ans ou plus qui ont accès à Internet. De Gallup World Poll</t>
   </si>
   <si>
     <t>2018-2018</t>
@@ -1154,7 +1151,7 @@
     <t>Indice du commerce électronique B2C de la CNUCED</t>
   </si>
   <si>
-    <t>Le développement B2C est mesuré par l’indice du commerce électronique B2C de la CNUCED qui mesure la préparation d’une économie à soutenir les achats en ligne. L'indice est composé de quatre indicateurs: • Possession d'un compte dans une institution financière ou auprès d'un fournisseur de services d'argent mobile (% de la population âgée de 15 ans et plus) • Particuliers utilisant Internet (% de la population) • Indice de fiabilité postale • Serveurs Internet sécurisés (pour 1 million de personnes). Les chiffres sont tirés des rapports suivants, éditions 2016, 2017, 2018 et 2019 du rapport «Unctad B2C E-Commerce Index» et du rapport 2015 sur l'économie de l'information.</t>
+    <t>Le développement B2C est mesuré par l’indice du commerce électronique B2C de la CNUCED qui mesure la préparation d’une économie à soutenir les achats en ligne. L'indice est composé de quatre indicateurs: • Possession d'un compte dans une institution financière ou auprès d'un fournisseur de services d'argent mobile (% de la population âgée de 15 ans et plus) • Particuliers utilisant Internet (% de la population) • Indice de fiabilité postale • Serveurs Internet sécurisés (pour 1 million de personnes). Les chiffres sont tirés des rapports suivants, éditions 2016, 2017, 2019 et 2019 du rapport «Unctad B2C E-Commerce Index» et du rapport 2015 sur l'économie de l'information.</t>
   </si>
   <si>
     <t>LifeExpTot</t>
@@ -1451,7 +1448,7 @@
     <t>Dette brute en monnaie nationale des administrations publiques en % du PIB</t>
   </si>
   <si>
-    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Jusqu'en 2018 les données sont des estimations alors qu'à partir de 2019 il s'agit de projections. Voir l'annexe statistique de la dernière édition des Perspectives de l'économie mondiale pour plus d'informations :</t>
+    <t>Données provenant des Perspectives de l'économie mondiale (PEM). Jusqu'en 2019 les données sont des estimations alors qu'à partir de 2019 il s'agit de projections. Voir l'annexe statistique de la dernière édition des Perspectives de l'économie mondiale pour plus d'informations :</t>
   </si>
   <si>
     <t>GrossDebtFPerGDP</t>
@@ -1461,6 +1458,9 @@
   </si>
   <si>
     <t>ExpUnproc</t>
+  </si>
+  <si>
+    <t>Tableau 19</t>
   </si>
   <si>
     <t>Exportations totales de produits non transformés (millions USD)</t>
@@ -1496,9 +1496,6 @@
     <t>ExpAllProc</t>
   </si>
   <si>
-    <t>Tableau 19</t>
-  </si>
-  <si>
     <t>Exportations totales de produits transformés et non transformés (millions USD)</t>
   </si>
   <si>
@@ -1554,9 +1551,6 @@
     <t>Calculs de l'auteur basés sur les statistiques de l'UNCOMTRADE, Division de statistique des Nations Unies. La catégorie de produits représentant la plus grande part des exportations totales d'un pays est définie à l'aide de la classification à 4 chiffres du SH1996 dans COMTRADE. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Les produits d'exportation non classés sont étiquetés «Code spécial ONU» dans l'ensemble de données COMTRADE et ne sont pas pris en compte dans la détermination des produits les plus exportés pour chaque pays. Les exportations des pays sont obtenues à l'aide de données miroir ou des importations déclarées dans les pays partenaires. Pour plus d'informations, consultez:</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>ExpProdPct1</t>
   </si>
   <si>
@@ -1761,9 +1755,6 @@
     <t>APD nette rapportée par le Comité d'évaluation du développement de l'OCDE, provenant de tous les donateurs, en dollars américains aux prix courants en % du PIB en dollars américains selon les Perspectives de l'économie mondiale.</t>
   </si>
   <si>
-    <t>Aide publique au développement (APD) rapportée par le Comité d'aide au développement de l'OCDE (mis à jour le 29/10/2020)</t>
-  </si>
-  <si>
     <t>UNCTADFDIPGD</t>
   </si>
   <si>
@@ -1773,39 +1764,42 @@
     <t>Flux entrants d'investissement direct étranger (IDE) en millions de dollars. Ces chiffres correspondent à la définition de l’IED. Ils figurent dans le Manuel de la balance des paiements : cinquième édition (MBP5) (Washington, Fonds monétaire international, 1993) et dans la Définition de référence détaillée de l’investissement direct étranger : troisième édition (BD3) (Paris). Organisation de coopération et de développement économiques, 1996). "IDE désigne un investissement réalisé pour acquérir un intérêt durable dans des entreprises exerçant des activités en dehors de l'économie de l'investisseur. En outre, en cas d'IDE, l'objectif de l'investisseur est de se faire entendre de manière efficace dans la gestion de l'entreprise. L'entité étrangère ou un groupe d'entités associées qui réalise l'investissement est appelé «investisseur direct». L'entreprise non constituée en société ou constituée en société - une succursale ou une filiale, respectivement, dans laquelle un investissement direct est réalisé - est appelée «entreprise d'investissement direct». la participation au capital est presque toujours considérée comme associée à une voix efficace dans la gestion d’une entreprise; le MBP5 suggère un seuil de 10% de la participation au capital permettant de qualifier un investisseur en tant qu’investisseur direct étranger. " Pour plus d'information, voir :</t>
   </si>
   <si>
+    <t>Aide publique au développement (APD) communiquée par le Comité d'aide au développement de l'OCDE (dernière mise à jour le 21/01/2021)</t>
+  </si>
+  <si>
+    <t>RemitPGD</t>
+  </si>
+  <si>
+    <t>Entrées de transferts des migrants en % du PIB</t>
+  </si>
+  <si>
+    <t>Calculs du personnel de la Banque mondiale basés sur les données de la base de données du FMI sur la statistique de la balance des paiements et sur les données communiquées par les banques centrales, les agences nationales de statistique et les bureaux de pays de la Banque mondiale. Voir Migration and Development Brief 28, Annexe A pour plus de détails. Tous les chiffres sont en dollars courants (nominaux). Pour une discussion sur la définition des envois de fonds, voir Dilip Ratha, 2003, "Les envois de fonds des travailleurs : une source importante et stable de financement extérieur du développement", Global Development Finance 2003, Banque mondiale. Les données depuis 2005 sont basées sur les statistiques de la balance des paiements du FMI qui utilisent les définitions du MBP6 du FMI. Les données du PIB proviennent du WDI.  Pour les dernières données et analyses sur les migrations et les envois de fonds, veuillez consulter :</t>
+  </si>
+  <si>
     <t>UNCTADStat Online Data Center, FDI Online Database (mis à jour le 20/01/2020)</t>
   </si>
   <si>
-    <t>RemitPGD</t>
-  </si>
-  <si>
-    <t>Entrées de transferts des migrants en % du PIB</t>
-  </si>
-  <si>
-    <t>Calculs du personnel de la Banque mondiale basés sur les données de la base de données du FMI sur la statistique de la balance des paiements et sur les données communiquées par les banques centrales, les agences nationales de statistique et les bureaux de pays de la Banque mondiale. Voir Migration and Development Brief 28, Annexe A pour plus de détails. Tous les chiffres sont en dollars courants (nominaux). Pour une discussion sur la définition des envois de fonds, voir Dilip Ratha, 2003, "Les envois de fonds des travailleurs : une source importante et stable de financement extérieur du développement", Global Development Finance 2003, Banque mondiale. Les données depuis 2005 sont basées sur les statistiques de la balance des paiements du FMI qui utilisent les définitions du MBP6 du FMI. Les données du PIB proviennent du WDI.  Pour les dernières données et analyses sur les migrations et les envois de fonds, veuillez consulter :</t>
+    <t>TotalFinInflowsPGD</t>
+  </si>
+  <si>
+    <t>Entrées financières totales en % du PIB</t>
+  </si>
+  <si>
+    <t>Somme des entrées d'investissements de portefeuille, des entrées APD nette rapportée, d’investissements directs étrangers et les remises en pourcentage du PIB, telle que calculée par les auteurs.</t>
   </si>
   <si>
     <t>Données de la Banque mondiale sur les migrations et les envois de fonds (octobre 2020)</t>
   </si>
   <si>
-    <t>TotalFinInflowsPGD</t>
-  </si>
-  <si>
-    <t>Entrées financières totales en % du PIB</t>
-  </si>
-  <si>
-    <t>Somme des entrées d'investissements de portefeuille, des entrées APD nette rapportée, d’investissements directs étrangers et les remises en pourcentage du PIB, telle que calculée par les auteurs.</t>
+    <t>GrNatSavPrvPGD</t>
+  </si>
+  <si>
+    <t>Épargne privée brute en % du PIB</t>
   </si>
   <si>
     <t>Calculs des auteurs fondés sur les données de flux financiers du FMI, du Comité d'aide au développement de l'OCDE, de la CNUCED et de la Banque mondiale</t>
   </si>
   <si>
-    <t>GrNatSavPrvPGD</t>
-  </si>
-  <si>
-    <t>Épargne privée brute en % du PIB</t>
-  </si>
-  <si>
     <t>PortfolioInFl</t>
   </si>
   <si>
@@ -1860,21 +1854,21 @@
     <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): &lt;&lt; Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT. " Pour plus d'informations, veuillez consulter:</t>
   </si>
   <si>
+    <t>AgricLand</t>
+  </si>
+  <si>
+    <t>Terres agricoles (milliers d'hectares)</t>
+  </si>
+  <si>
+    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): Les terres agricoles sont définies comme les terres utilisées pour la culture des cultures et l'élevage. Le total des superficies sous '' Terres cultivées '' et '' Prairies et pâturages permanents ''. &lt;&lt; Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT. " Pour plus d'informations, veuillez consulter:</t>
+  </si>
+  <si>
     <t>ha</t>
   </si>
   <si>
     <t>Données en ligne de FAOStat, Organisation des Nations Unies pour l'alimentation et l'agriculture (récupéré le 06/11/2020)</t>
   </si>
   <si>
-    <t>AgricLand</t>
-  </si>
-  <si>
-    <t>Terres agricoles (milliers d'hectares)</t>
-  </si>
-  <si>
-    <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): Les terres agricoles sont définies comme les terres utilisées pour la culture des cultures et l'élevage. Le total des superficies sous '' Terres cultivées '' et '' Prairies et pâturages permanents ''. &lt;&lt; Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT. " Pour plus d'informations, veuillez consulter:</t>
-  </si>
-  <si>
     <t>CropLand</t>
   </si>
   <si>
@@ -1962,45 +1956,45 @@
     <t>Approvisionnement alimentaire (kcal / habitant / jour)</t>
   </si>
   <si>
+    <t>NitUse</t>
+  </si>
+  <si>
+    <t>Usage agricole d'azote nutritif (tonnes)</t>
+  </si>
+  <si>
+    <t>À partir du portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO). La principale source de données pour la production et l'utilisation agricole est le questionnaire FAOSTAT sur les engrais, complété par des publications nationales lorsqu'elles sont disponibles. L'utilisation agricole d'engrais fait référence à l'utilisation pour les cultures, l'élevage, la foresterie, la pêche et l'aquaculture, à l'exclusion de l'utilisation pour l'alimentation animale. Les tonnes d'azote nutritif sont calculées à l'aide de facteurs de conversion appliqués aux volumes d'engrais azotés. Pour plus d'informations, veuillez consulter:</t>
+  </si>
+  <si>
     <t>kcal/capita/jour</t>
   </si>
   <si>
     <t>2014-2017</t>
   </si>
   <si>
-    <t>NitUse</t>
-  </si>
-  <si>
-    <t>Usage agricole d'azote nutritif (tonnes)</t>
-  </si>
-  <si>
-    <t>À partir du portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO). La principale source de données pour la production et l'utilisation agricole est le questionnaire FAOSTAT sur les engrais, complété par des publications nationales lorsqu'elles sont disponibles. L'utilisation agricole d'engrais fait référence à l'utilisation pour les cultures, l'élevage, la foresterie, la pêche et l'aquaculture, à l'exclusion de l'utilisation pour l'alimentation animale. Les tonnes d'azote nutritif sont calculées à l'aide de facteurs de conversion appliqués aux volumes d'engrais azotés. Pour plus d'informations, veuillez consulter:</t>
+    <t>NitUseArea</t>
+  </si>
+  <si>
+    <t>Usage agricole d'azote nutritif par superficie de terres cultivées (tonnes / ha)</t>
+  </si>
+  <si>
+    <t>À partir du jeu de données sur les engrais synthétiques dans Emissions - Agriculture dans FAOStat. Quantité d'azote nutritif utilisée pour l'agriculture en kg d'éléments nutritifs.</t>
   </si>
   <si>
     <t>tonnes</t>
   </si>
   <si>
-    <t>NitUseArea</t>
-  </si>
-  <si>
-    <t>Usage agricole d'azote nutritif par superficie de terres cultivées (tonnes / ha)</t>
-  </si>
-  <si>
-    <t>À partir du jeu de données sur les engrais synthétiques dans Emissions - Agriculture dans FAOStat. Quantité d'azote nutritif utilisée pour l'agriculture en kg d'éléments nutritifs.</t>
+    <t>CarbStock</t>
+  </si>
+  <si>
+    <t>Stock de carbone dans la biomasse vivante (forêts, millions de tonnes)</t>
+  </si>
+  <si>
+    <t>Calculs de l'auteur basés sur les données de FAOStat.Variable dérivée constituée du rapport entre la quantité d'engrais azoté utilisée pour l'agriculture et la quantité de terres arables, en kg d'azote par hectare.</t>
   </si>
   <si>
     <t>kg/hectare</t>
   </si>
   <si>
-    <t>CarbStock</t>
-  </si>
-  <si>
-    <t>Stock de carbone dans la biomasse vivante (forêts, millions de tonnes)</t>
-  </si>
-  <si>
-    <t>Calculs de l'auteur basés sur les données de FAOStat.Variable dérivée constituée du rapport entre la quantité d'engrais azoté utilisée pour l'agriculture et la quantité de terres arables, en kg d'azote par hectare.</t>
-  </si>
-  <si>
     <t>TotAgGHG</t>
   </si>
   <si>
@@ -2008,12 +2002,6 @@
   </si>
   <si>
     <t>Sur le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO). Agriculture Total contient toutes les émissions produites dans les différents sous-domaines d'émissions agricoles (fermentation entérique, gestion du fumier, riziculture, engrais synthétiques, fumier épandu sur les sols, fumier laissé sur les pâturages, résidus de cultures, culture de sols organiques, brûlage des résidus de culture , brûlage de savane, consommation d'énergie), donnant une image de la contribution au montant total des émissions de GES de l'agriculture. Les émissions de GES de l'agriculture sont constituées de gaz sans CO2, à savoir le méthane (CH4) et l'oxyde nitreux (N2O), produits par les activités de production et de gestion des cultures et de l'élevage. Pour en savoir plus sur la méthodologie de calcul du stock de carbone, veuillez consulter:</t>
-  </si>
-  <si>
-    <t>gigagrammes</t>
-  </si>
-  <si>
-    <t>2000-2050</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2021-fr.</t>
@@ -2306,10 +2294,10 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="10"/>
+        <color theme="1"/>
         <name val="Calibri Light"/>
         <scheme val="major"/>
       </font>
@@ -4831,22 +4819,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R33" s="23" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D34" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>158</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>43</v>
@@ -4885,22 +4873,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R34" s="23" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D35" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>160</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>161</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>43</v>
@@ -4939,22 +4927,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R35" s="23" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D36" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>164</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>43</v>
@@ -4993,22 +4981,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R36" s="23" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D37" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>166</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>167</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>43</v>
@@ -5047,22 +5035,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R37" s="23" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D38" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>169</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>170</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>43</v>
@@ -5101,22 +5089,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R38" s="23" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="E39" s="21" t="s">
         <v>173</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>174</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>43</v>
@@ -5155,22 +5143,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R39" s="23" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="21" t="s">
+      <c r="E40" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>177</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>43</v>
@@ -5209,22 +5197,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R40" s="23" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" s="21" t="s">
+      <c r="E41" s="21" t="s">
         <v>179</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>180</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>43</v>
@@ -5263,22 +5251,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R41" s="23" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="21" t="s">
+      <c r="E42" s="21" t="s">
         <v>182</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>183</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>43</v>
@@ -5317,22 +5305,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R42" s="23" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D43" s="21" t="s">
+      <c r="E43" s="21" t="s">
         <v>185</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>186</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>43</v>
@@ -5371,22 +5359,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R43" s="23" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="21" t="s">
+      <c r="E44" s="21" t="s">
         <v>188</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>189</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>43</v>
@@ -5425,19 +5413,19 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R44" s="23" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="D45" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>192</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>49</v>
@@ -5485,13 +5473,13 @@
     <row r="46" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>193</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>194</v>
       </c>
       <c r="E46" s="21" t="s">
         <v>49</v>
@@ -5539,16 +5527,16 @@
     <row r="47" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D47" s="21" t="s">
+      <c r="E47" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>197</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>43</v>
@@ -5593,16 +5581,16 @@
     <row r="48" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="21" t="s">
+      <c r="E48" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>200</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>43</v>
@@ -5647,16 +5635,16 @@
     <row r="49" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="21" t="s">
+      <c r="E49" s="21" t="s">
         <v>202</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>203</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>43</v>
@@ -5701,16 +5689,16 @@
     <row r="50" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>205</v>
-      </c>
       <c r="E50" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>43</v>
@@ -5755,16 +5743,16 @@
     <row r="51" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>207</v>
-      </c>
       <c r="E51" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>43</v>
@@ -5809,16 +5797,16 @@
     <row r="52" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="D52" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="E52" s="21" t="s">
         <v>210</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>211</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>43</v>
@@ -5863,16 +5851,16 @@
     <row r="53" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" s="21" t="s">
+      <c r="E53" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>43</v>
@@ -5917,16 +5905,16 @@
     <row r="54" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D54" s="21" t="s">
+      <c r="E54" s="21" t="s">
         <v>216</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>217</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>43</v>
@@ -5971,16 +5959,16 @@
     <row r="55" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D55" s="21" t="s">
+      <c r="E55" s="21" t="s">
         <v>219</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>220</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>43</v>
@@ -5992,7 +5980,7 @@
         <v>44</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>62</v>
@@ -6019,22 +6007,22 @@
         <v>100</v>
       </c>
       <c r="R55" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
       <c r="B56" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D56" s="21" t="s">
+      <c r="E56" s="21" t="s">
         <v>224</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>225</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>43</v>
@@ -6046,7 +6034,7 @@
         <v>44</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>62</v>
@@ -6073,22 +6061,22 @@
         <v>100</v>
       </c>
       <c r="R56" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
       <c r="B57" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D57" s="21" t="s">
+      <c r="E57" s="21" t="s">
         <v>227</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>228</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>43</v>
@@ -6100,7 +6088,7 @@
         <v>44</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J57" s="10" t="s">
         <v>62</v>
@@ -6127,22 +6115,22 @@
         <v>100</v>
       </c>
       <c r="R57" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
       <c r="B58" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D58" s="21" t="s">
+      <c r="E58" s="21" t="s">
         <v>230</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>231</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>43</v>
@@ -6154,7 +6142,7 @@
         <v>44</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J58" s="10" t="s">
         <v>62</v>
@@ -6181,22 +6169,22 @@
         <v>100</v>
       </c>
       <c r="R58" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
       <c r="B59" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>233</v>
-      </c>
       <c r="E59" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>43</v>
@@ -6208,7 +6196,7 @@
         <v>44</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J59" s="10" t="s">
         <v>62</v>
@@ -6235,22 +6223,22 @@
         <v>100</v>
       </c>
       <c r="R59" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D60" s="21" t="s">
+      <c r="E60" s="21" t="s">
         <v>235</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>236</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>43</v>
@@ -6262,7 +6250,7 @@
         <v>44</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J60" s="10" t="s">
         <v>62</v>
@@ -6289,22 +6277,22 @@
         <v>100</v>
       </c>
       <c r="R60" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
       <c r="B61" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D61" s="21" t="s">
+      <c r="E61" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>239</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>43</v>
@@ -6316,7 +6304,7 @@
         <v>44</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J61" s="10" t="s">
         <v>62</v>
@@ -6343,22 +6331,22 @@
         <v>100</v>
       </c>
       <c r="R61" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
       <c r="B62" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D62" s="21" t="s">
+      <c r="E62" s="21" t="s">
         <v>241</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>242</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>43</v>
@@ -6403,16 +6391,16 @@
     <row r="63" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
       <c r="B63" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D63" s="21" t="s">
+      <c r="E63" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>43</v>
@@ -6457,16 +6445,16 @@
     <row r="64" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
       <c r="B64" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D64" s="21" t="s">
+      <c r="E64" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>248</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>43</v>
@@ -6511,16 +6499,16 @@
     <row r="65" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
       <c r="B65" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D65" s="21" t="s">
+      <c r="E65" s="21" t="s">
         <v>250</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>251</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>43</v>
@@ -6565,16 +6553,16 @@
     <row r="66" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
       <c r="B66" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="D66" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="E66" s="21" t="s">
         <v>254</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>255</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>43</v>
@@ -6619,16 +6607,16 @@
     <row r="67" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
       <c r="B67" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D67" s="21" t="s">
+      <c r="E67" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>258</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>43</v>
@@ -6673,16 +6661,16 @@
     <row r="68" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
       <c r="B68" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D68" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D68" s="21" t="s">
+      <c r="E68" s="21" t="s">
         <v>260</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>261</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>43</v>
@@ -6727,16 +6715,16 @@
     <row r="69" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
       <c r="B69" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D69" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D69" s="21" t="s">
+      <c r="E69" s="21" t="s">
         <v>263</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>264</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>43</v>
@@ -6781,16 +6769,16 @@
     <row r="70" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
       <c r="B70" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D70" s="21" t="s">
+      <c r="E70" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>43</v>
@@ -6835,16 +6823,16 @@
     <row r="71" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
       <c r="B71" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D71" s="21" t="s">
+      <c r="E71" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>270</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>43</v>
@@ -6889,16 +6877,16 @@
     <row r="72" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
       <c r="B72" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D72" s="21" t="s">
+      <c r="E72" s="21" t="s">
         <v>272</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>273</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>43</v>
@@ -6943,16 +6931,16 @@
     <row r="73" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A73" s="8"/>
       <c r="B73" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D73" s="21" t="s">
+      <c r="E73" s="21" t="s">
         <v>275</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>276</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>43</v>
@@ -6997,16 +6985,16 @@
     <row r="74" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
       <c r="B74" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D74" s="21" t="s">
+      <c r="E74" s="21" t="s">
         <v>278</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>279</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>43</v>
@@ -7051,16 +7039,16 @@
     <row r="75" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A75" s="8"/>
       <c r="B75" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D75" s="21" t="s">
+      <c r="E75" s="21" t="s">
         <v>281</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>282</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>32</v>
@@ -7105,16 +7093,16 @@
     <row r="76" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
       <c r="B76" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="D76" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="E76" s="21" t="s">
         <v>285</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>286</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>61</v>
@@ -7159,16 +7147,16 @@
     <row r="77" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
       <c r="B77" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D77" s="21" t="s">
+      <c r="E77" s="21" t="s">
         <v>288</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>289</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>61</v>
@@ -7213,16 +7201,16 @@
     <row r="78" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
       <c r="B78" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D78" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D78" s="21" t="s">
+      <c r="E78" s="21" t="s">
         <v>291</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>292</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>61</v>
@@ -7237,7 +7225,7 @@
         <v>25</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K78" s="10">
         <v>2019</v>
@@ -7261,22 +7249,22 @@
         <v>76.366570320859097</v>
       </c>
       <c r="R78" s="23" t="s">
-        <v>294</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A79" s="8"/>
       <c r="B79" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="E79" s="21" t="s">
         <v>295</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>297</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>61</v>
@@ -7291,7 +7279,7 @@
         <v>25</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K79" s="10">
         <v>2019</v>
@@ -7315,22 +7303,22 @@
         <v>99.983545087881197</v>
       </c>
       <c r="R79" s="23" t="s">
-        <v>294</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
       <c r="B80" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E80" s="21" t="s">
         <v>298</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>300</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>61</v>
@@ -7345,7 +7333,7 @@
         <v>25</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K80" s="10">
         <v>2019</v>
@@ -7369,22 +7357,22 @@
         <v>76.387568555656202</v>
       </c>
       <c r="R80" s="23" t="s">
-        <v>294</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A81" s="8"/>
       <c r="B81" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E81" s="21" t="s">
         <v>301</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>303</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>61</v>
@@ -7399,7 +7387,7 @@
         <v>25</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K81" s="10">
         <v>2019</v>
@@ -7423,22 +7411,22 @@
         <v>78.041046036393595</v>
       </c>
       <c r="R81" s="23" t="s">
-        <v>294</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A82" s="8"/>
       <c r="B82" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="E82" s="21" t="s">
         <v>304</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>306</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>61</v>
@@ -7453,7 +7441,7 @@
         <v>25</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K82" s="10">
         <v>2019</v>
@@ -7477,22 +7465,22 @@
         <v>79.877820386624904</v>
       </c>
       <c r="R82" s="23" t="s">
-        <v>294</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A83" s="8"/>
       <c r="B83" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D83" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="E83" s="21" t="s">
         <v>308</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>310</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>113</v>
@@ -7531,22 +7519,22 @@
         <v>100</v>
       </c>
       <c r="R83" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="8"/>
       <c r="B84" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="E84" s="21" t="s">
         <v>312</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>314</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>43</v>
@@ -7585,22 +7573,22 @@
         <v>99.999779413752407</v>
       </c>
       <c r="R84" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="8"/>
       <c r="B85" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>113</v>
@@ -7639,22 +7627,22 @@
         <v>100</v>
       </c>
       <c r="R85" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A86" s="8"/>
       <c r="B86" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>113</v>
@@ -7693,22 +7681,22 @@
         <v>100</v>
       </c>
       <c r="R86" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="8"/>
       <c r="B87" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E87" s="21" t="s">
         <v>319</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>321</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>113</v>
@@ -7723,7 +7711,7 @@
         <v>18</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K87" s="10">
         <v>2019</v>
@@ -7747,28 +7735,28 @@
         <v>99.999779413752407</v>
       </c>
       <c r="R87" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A88" s="8"/>
       <c r="B88" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F88" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D88" s="21" t="s">
+      <c r="G88" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>326</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>44</v>
@@ -7801,22 +7789,22 @@
         <v>99.999680336073197</v>
       </c>
       <c r="R88" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="8"/>
       <c r="B89" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E89" s="21" t="s">
         <v>327</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>321</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>43</v>
@@ -7831,7 +7819,7 @@
         <v>18</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K89" s="10">
         <v>2020</v>
@@ -7855,22 +7843,22 @@
         <v>75.363512322516897</v>
       </c>
       <c r="R89" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="8"/>
       <c r="B90" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="C90" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D90" s="21" t="s">
+      <c r="E90" s="21" t="s">
         <v>332</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>333</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>43</v>
@@ -7885,7 +7873,7 @@
         <v>18</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K90" s="10">
         <v>2018</v>
@@ -7909,22 +7897,22 @@
         <v>99.541343377807706</v>
       </c>
       <c r="R90" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A91" s="8"/>
       <c r="B91" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="D91" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="E91" s="21" t="s">
         <v>338</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>339</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>43</v>
@@ -7939,7 +7927,7 @@
         <v>25</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K91" s="10" t="s">
         <v>63</v>
@@ -7963,22 +7951,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R91" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A92" s="8"/>
       <c r="B92" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D92" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D92" s="21" t="s">
+      <c r="E92" s="21" t="s">
         <v>343</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>344</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>43</v>
@@ -7993,7 +7981,7 @@
         <v>25</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K92" s="10" t="s">
         <v>63</v>
@@ -8017,22 +8005,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R92" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
       <c r="B93" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D93" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="C93" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D93" s="21" t="s">
+      <c r="E93" s="21" t="s">
         <v>346</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>347</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>43</v>
@@ -8047,7 +8035,7 @@
         <v>25</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K93" s="10" t="s">
         <v>63</v>
@@ -8071,22 +8059,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R93" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A94" s="8"/>
       <c r="B94" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D94" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="C94" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D94" s="21" t="s">
+      <c r="E94" s="21" t="s">
         <v>349</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>350</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>43</v>
@@ -8101,7 +8089,7 @@
         <v>25</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K94" s="10" t="s">
         <v>63</v>
@@ -8125,22 +8113,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R94" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A95" s="8"/>
       <c r="B95" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D95" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D95" s="21" t="s">
+      <c r="E95" s="21" t="s">
         <v>352</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>353</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>43</v>
@@ -8155,7 +8143,7 @@
         <v>25</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K95" s="10" t="s">
         <v>63</v>
@@ -8179,22 +8167,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R95" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A96" s="8"/>
       <c r="B96" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D96" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="C96" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>356</v>
-      </c>
       <c r="E96" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>43</v>
@@ -8209,7 +8197,7 @@
         <v>25</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K96" s="10" t="s">
         <v>63</v>
@@ -8233,22 +8221,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R96" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A97" s="8"/>
       <c r="B97" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D97" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="C97" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>358</v>
-      </c>
       <c r="E97" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>43</v>
@@ -8263,7 +8251,7 @@
         <v>25</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K97" s="10" t="s">
         <v>63</v>
@@ -8287,22 +8275,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R97" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A98" s="8"/>
       <c r="B98" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>360</v>
-      </c>
       <c r="E98" s="21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>43</v>
@@ -8317,7 +8305,7 @@
         <v>25</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K98" s="10" t="s">
         <v>63</v>
@@ -8341,22 +8329,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R98" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A99" s="8"/>
       <c r="B99" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D99" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="C99" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D99" s="21" t="s">
+      <c r="E99" s="21" t="s">
         <v>362</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>363</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>37</v>
@@ -8371,7 +8359,7 @@
         <v>25</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K99" s="10">
         <v>2018</v>
@@ -8395,22 +8383,22 @@
         <v>96.225051968012707</v>
       </c>
       <c r="R99" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A100" s="8"/>
       <c r="B100" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D100" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="C100" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D100" s="21" t="s">
-        <v>367</v>
-      </c>
       <c r="E100" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>43</v>
@@ -8425,7 +8413,7 @@
         <v>25</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K100" s="10">
         <v>2018</v>
@@ -8449,22 +8437,22 @@
         <v>96.225051968012707</v>
       </c>
       <c r="R100" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A101" s="8"/>
       <c r="B101" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D101" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D101" s="21" t="s">
+      <c r="E101" s="21" t="s">
         <v>369</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>370</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>37</v>
@@ -8479,7 +8467,7 @@
         <v>25</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K101" s="10">
         <v>2018</v>
@@ -8503,22 +8491,22 @@
         <v>98.692603060250605</v>
       </c>
       <c r="R101" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A102" s="8"/>
       <c r="B102" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D102" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="C102" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>372</v>
-      </c>
       <c r="E102" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>43</v>
@@ -8533,7 +8521,7 @@
         <v>25</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K102" s="10">
         <v>2018</v>
@@ -8557,22 +8545,22 @@
         <v>98.692603060250605</v>
       </c>
       <c r="R102" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A103" s="8"/>
       <c r="B103" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D103" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="C103" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D103" s="21" t="s">
+      <c r="E103" s="21" t="s">
         <v>374</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>375</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>61</v>
@@ -8587,7 +8575,7 @@
         <v>25</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K103" s="10">
         <v>2019</v>
@@ -8611,25 +8599,25 @@
         <v>99.643150170309596</v>
       </c>
       <c r="R103" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A104" s="8"/>
       <c r="B104" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="D104" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="D104" s="21" t="s">
+      <c r="E104" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="E104" s="21" t="s">
+      <c r="F104" s="10" t="s">
         <v>379</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>380</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>61</v>
@@ -8671,19 +8659,19 @@
     <row r="105" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A105" s="8"/>
       <c r="B105" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D105" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D105" s="21" t="s">
-        <v>382</v>
-      </c>
       <c r="E105" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="F105" s="10" t="s">
         <v>379</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>380</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>61</v>
@@ -8725,19 +8713,19 @@
     <row r="106" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A106" s="8"/>
       <c r="B106" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D106" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D106" s="21" t="s">
+      <c r="E106" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="E106" s="21" t="s">
-        <v>385</v>
-      </c>
       <c r="F106" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>61</v>
@@ -8779,19 +8767,19 @@
     <row r="107" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A107" s="8"/>
       <c r="B107" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D107" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D107" s="21" t="s">
+      <c r="E107" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="E107" s="21" t="s">
+      <c r="F107" s="10" t="s">
         <v>388</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>389</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>61</v>
@@ -8833,22 +8821,22 @@
     <row r="108" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A108" s="8"/>
       <c r="B108" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D108" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D108" s="21" t="s">
+      <c r="E108" s="21" t="s">
         <v>391</v>
-      </c>
-      <c r="E108" s="21" t="s">
-        <v>392</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>113</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H108" s="10" t="s">
         <v>44</v>
@@ -8887,22 +8875,22 @@
     <row r="109" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A109" s="8"/>
       <c r="B109" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D109" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="C109" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D109" s="21" t="s">
+      <c r="E109" s="21" t="s">
         <v>395</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>396</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>113</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H109" s="10" t="s">
         <v>44</v>
@@ -8941,16 +8929,16 @@
     <row r="110" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A110" s="8"/>
       <c r="B110" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D110" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="C110" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D110" s="21" t="s">
+      <c r="E110" s="21" t="s">
         <v>398</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>399</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>61</v>
@@ -8995,16 +8983,16 @@
     <row r="111" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A111" s="8"/>
       <c r="B111" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D111" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="C111" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D111" s="21" t="s">
-        <v>401</v>
-      </c>
       <c r="E111" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>61</v>
@@ -9043,22 +9031,22 @@
         <v>54.004193368538203</v>
       </c>
       <c r="R111" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A112" s="8"/>
       <c r="B112" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="D112" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="D112" s="21" t="s">
+      <c r="E112" s="21" t="s">
         <v>405</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>406</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>61</v>
@@ -9073,7 +9061,7 @@
         <v>25</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K112" s="10" t="s">
         <v>63</v>
@@ -9097,22 +9085,22 @@
         <v>99.645586682707602</v>
       </c>
       <c r="R112" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="113" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A113" s="8"/>
       <c r="B113" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D113" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="C113" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="D113" s="21" t="s">
+      <c r="E113" s="21" t="s">
         <v>409</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>410</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>61</v>
@@ -9127,7 +9115,7 @@
         <v>25</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K113" s="10" t="s">
         <v>63</v>
@@ -9151,22 +9139,22 @@
         <v>99.415673267689399</v>
       </c>
       <c r="R113" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="114" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A114" s="8"/>
       <c r="B114" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D114" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="C114" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="D114" s="21" t="s">
+      <c r="E114" s="21" t="s">
         <v>412</v>
-      </c>
-      <c r="E114" s="21" t="s">
-        <v>413</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>61</v>
@@ -9181,7 +9169,7 @@
         <v>25</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K114" s="10" t="s">
         <v>63</v>
@@ -9205,22 +9193,22 @@
         <v>99.415673267689399</v>
       </c>
       <c r="R114" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A115" s="8"/>
       <c r="B115" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D115" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="C115" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="D115" s="21" t="s">
+      <c r="E115" s="21" t="s">
         <v>415</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>416</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>61</v>
@@ -9235,7 +9223,7 @@
         <v>25</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K115" s="10" t="s">
         <v>63</v>
@@ -9259,22 +9247,22 @@
         <v>99.137521387025501</v>
       </c>
       <c r="R115" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="116" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A116" s="8"/>
       <c r="B116" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D116" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="D116" s="21" t="s">
+      <c r="E116" s="21" t="s">
         <v>418</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>419</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>61</v>
@@ -9289,7 +9277,7 @@
         <v>25</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K116" s="10" t="s">
         <v>63</v>
@@ -9313,22 +9301,22 @@
         <v>99.415673267689399</v>
       </c>
       <c r="R116" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A117" s="8"/>
       <c r="B117" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D117" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="D117" s="21" t="s">
+      <c r="E117" s="21" t="s">
         <v>421</v>
-      </c>
-      <c r="E117" s="21" t="s">
-        <v>422</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>61</v>
@@ -9343,7 +9331,7 @@
         <v>25</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K117" s="10" t="s">
         <v>63</v>
@@ -9367,25 +9355,25 @@
         <v>99.415673267689399</v>
       </c>
       <c r="R117" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="118" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A118" s="8"/>
       <c r="B118" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="D118" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="D118" s="21" t="s">
+      <c r="E118" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="E118" s="21" t="s">
+      <c r="F118" s="10" t="s">
         <v>426</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>427</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>33</v>
@@ -9421,25 +9409,25 @@
         <v>99.843418872396597</v>
       </c>
       <c r="R118" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A119" s="8"/>
       <c r="B119" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D119" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="C119" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="D119" s="21" t="s">
+      <c r="E119" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="E119" s="21" t="s">
-        <v>431</v>
-      </c>
       <c r="F119" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>33</v>
@@ -9475,25 +9463,25 @@
         <v>99.925349570151795</v>
       </c>
       <c r="R119" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A120" s="8"/>
       <c r="B120" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D120" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="C120" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="D120" s="21" t="s">
+      <c r="E120" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="E120" s="21" t="s">
-        <v>434</v>
-      </c>
       <c r="F120" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>33</v>
@@ -9529,25 +9517,25 @@
         <v>96.327547524363396</v>
       </c>
       <c r="R120" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="121" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A121" s="8"/>
       <c r="B121" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D121" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="D121" s="21" t="s">
+      <c r="E121" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="E121" s="21" t="s">
-        <v>437</v>
-      </c>
       <c r="F121" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G121" s="10" t="s">
         <v>33</v>
@@ -9583,25 +9571,25 @@
         <v>96.440512343593298</v>
       </c>
       <c r="R121" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="122" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
       <c r="B122" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D122" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="C122" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="D122" s="21" t="s">
+      <c r="E122" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="E122" s="21" t="s">
-        <v>440</v>
-      </c>
       <c r="F122" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>33</v>
@@ -9637,25 +9625,25 @@
         <v>99.151622093891802</v>
       </c>
       <c r="R122" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A123" s="8"/>
       <c r="B123" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D123" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="C123" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="D123" s="21" t="s">
+      <c r="E123" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="E123" s="21" t="s">
-        <v>443</v>
-      </c>
       <c r="F123" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G123" s="10" t="s">
         <v>33</v>
@@ -9691,25 +9679,25 @@
         <v>99.151622093891802</v>
       </c>
       <c r="R123" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A124" s="8"/>
       <c r="B124" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D124" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="C124" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="D124" s="21" t="s">
+      <c r="E124" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="E124" s="21" t="s">
-        <v>446</v>
-      </c>
       <c r="F124" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G124" s="10" t="s">
         <v>33</v>
@@ -9745,22 +9733,22 @@
         <v>99.926109551608704</v>
       </c>
       <c r="R124" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A125" s="8"/>
       <c r="B125" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="C125" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="D125" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="D125" s="21" t="s">
+      <c r="E125" s="21" t="s">
         <v>449</v>
-      </c>
-      <c r="E125" s="21" t="s">
-        <v>450</v>
       </c>
       <c r="F125" s="10" t="s">
         <v>43</v>
@@ -9805,16 +9793,16 @@
     <row r="126" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A126" s="8"/>
       <c r="B126" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D126" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="C126" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D126" s="21" t="s">
+      <c r="E126" s="21" t="s">
         <v>452</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>453</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>43</v>
@@ -9859,16 +9847,16 @@
     <row r="127" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A127" s="8"/>
       <c r="B127" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D127" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="C127" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D127" s="21" t="s">
+      <c r="E127" s="21" t="s">
         <v>455</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>456</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>43</v>
@@ -9913,16 +9901,16 @@
     <row r="128" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A128" s="8"/>
       <c r="B128" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D128" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="C128" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D128" s="21" t="s">
+      <c r="E128" s="21" t="s">
         <v>458</v>
-      </c>
-      <c r="E128" s="21" t="s">
-        <v>459</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>43</v>
@@ -9937,7 +9925,7 @@
         <v>25</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K128" s="10">
         <v>2019</v>
@@ -9967,16 +9955,16 @@
     <row r="129" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A129" s="8"/>
       <c r="B129" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D129" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="C129" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>462</v>
-      </c>
       <c r="E129" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>43</v>
@@ -9991,7 +9979,7 @@
         <v>25</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K129" s="10">
         <v>2019</v>
@@ -10021,16 +10009,16 @@
     <row r="130" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A130" s="8"/>
       <c r="B130" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D130" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C130" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D130" s="21" t="s">
+      <c r="E130" s="21" t="s">
         <v>464</v>
-      </c>
-      <c r="E130" s="21" t="s">
-        <v>465</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>43</v>
@@ -10045,7 +10033,7 @@
         <v>25</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K130" s="10">
         <v>2019</v>
@@ -10075,16 +10063,16 @@
     <row r="131" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A131" s="8"/>
       <c r="B131" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D131" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="C131" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D131" s="21" t="s">
-        <v>467</v>
-      </c>
       <c r="E131" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>43</v>
@@ -10099,7 +10087,7 @@
         <v>25</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K131" s="10">
         <v>2019</v>
@@ -10129,16 +10117,16 @@
     <row r="132" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A132" s="8"/>
       <c r="B132" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D132" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="C132" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D132" s="21" t="s">
-        <v>469</v>
-      </c>
       <c r="E132" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>43</v>
@@ -10183,16 +10171,16 @@
     <row r="133" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A133" s="8"/>
       <c r="B133" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D133" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="C133" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D133" s="21" t="s">
-        <v>471</v>
-      </c>
       <c r="E133" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>43</v>
@@ -10237,16 +10225,16 @@
     <row r="134" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A134" s="8"/>
       <c r="B134" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D134" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="C134" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D134" s="21" t="s">
+      <c r="E134" s="21" t="s">
         <v>473</v>
-      </c>
-      <c r="E134" s="21" t="s">
-        <v>474</v>
       </c>
       <c r="F134" s="24" t="s">
         <v>43</v>
@@ -10261,7 +10249,7 @@
         <v>25</v>
       </c>
       <c r="J134" s="24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K134" s="24">
         <v>2019</v>
@@ -10291,16 +10279,16 @@
     <row r="135" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A135" s="8"/>
       <c r="B135" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D135" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="C135" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D135" s="21" t="s">
-        <v>476</v>
-      </c>
       <c r="E135" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F135" s="24" t="s">
         <v>43</v>
@@ -10315,7 +10303,7 @@
         <v>25</v>
       </c>
       <c r="J135" s="24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K135" s="24">
         <v>2019</v>
@@ -10345,10 +10333,10 @@
     <row r="136" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A136" s="8"/>
       <c r="B136" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="C136" s="12" t="s">
         <v>477</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>404</v>
       </c>
       <c r="D136" s="21" t="s">
         <v>478</v>
@@ -10402,7 +10390,7 @@
         <v>481</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="D137" s="21" t="s">
         <v>482</v>
@@ -10456,7 +10444,7 @@
         <v>484</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="D138" s="21" t="s">
         <v>485</v>
@@ -10510,13 +10498,13 @@
         <v>487</v>
       </c>
       <c r="C139" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D139" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="D139" s="21" t="s">
+      <c r="E139" s="21" t="s">
         <v>489</v>
-      </c>
-      <c r="E139" s="21" t="s">
-        <v>490</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>37</v>
@@ -10561,16 +10549,16 @@
     <row r="140" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A140" s="8"/>
       <c r="B140" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D140" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="C140" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D140" s="21" t="s">
+      <c r="E140" s="21" t="s">
         <v>492</v>
-      </c>
-      <c r="E140" s="21" t="s">
-        <v>493</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>37</v>
@@ -10615,16 +10603,16 @@
     <row r="141" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A141" s="8"/>
       <c r="B141" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D141" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="C141" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D141" s="21" t="s">
+      <c r="E141" s="21" t="s">
         <v>495</v>
-      </c>
-      <c r="E141" s="21" t="s">
-        <v>496</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>37</v>
@@ -10669,16 +10657,16 @@
     <row r="142" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A142" s="8"/>
       <c r="B142" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D142" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="C142" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D142" s="21" t="s">
+      <c r="E142" s="21" t="s">
         <v>498</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>499</v>
       </c>
       <c r="F142" s="10" t="s">
         <v>37</v>
@@ -10723,16 +10711,16 @@
     <row r="143" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A143" s="8"/>
       <c r="B143" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D143" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="C143" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D143" s="21" t="s">
+      <c r="E143" s="21" t="s">
         <v>501</v>
-      </c>
-      <c r="E143" s="21" t="s">
-        <v>502</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>37</v>
@@ -10777,79 +10765,79 @@
     <row r="144" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A144" s="8"/>
       <c r="B144" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="C144" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="D144" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="D144" s="21" t="s">
+      <c r="E144" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="E144" s="21" t="s">
-        <v>506</v>
-      </c>
       <c r="F144" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="J144" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="K144" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="L144" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="M144" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="N144" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="O144" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="P144" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="Q144" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="R144" s="23" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A145" s="8"/>
       <c r="B145" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H145" s="10" t="s">
         <v>508</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D145" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="E145" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="F145" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H145" s="10" t="s">
-        <v>510</v>
       </c>
       <c r="I145" s="10" t="s">
         <v>153</v>
@@ -10861,94 +10849,94 @@
         <v>2018</v>
       </c>
       <c r="L145" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="M145" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="N145" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="O145" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="P145" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="Q145" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="R145" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A146" s="8"/>
       <c r="B146" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E146" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="C146" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D146" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="E146" s="21" t="s">
-        <v>514</v>
-      </c>
       <c r="F146" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="J146" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="K146" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="L146" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="M146" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="N146" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="O146" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="P146" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="Q146" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="R146" s="23" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A147" s="8"/>
       <c r="B147" s="19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E147" s="21" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F147" s="10" t="s">
         <v>43</v>
@@ -10957,7 +10945,7 @@
         <v>43</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I147" s="10" t="s">
         <v>153</v>
@@ -10969,94 +10957,94 @@
         <v>2018</v>
       </c>
       <c r="L147" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="M147" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="N147" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="O147" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="P147" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="Q147" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="R147" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A148" s="8"/>
       <c r="B148" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="E148" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="C148" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D148" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="E148" s="21" t="s">
-        <v>519</v>
-      </c>
       <c r="F148" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="J148" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="K148" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="L148" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="M148" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="N148" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="O148" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="P148" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="Q148" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="R148" s="23" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A149" s="8"/>
       <c r="B149" s="19" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F149" s="10" t="s">
         <v>43</v>
@@ -11065,7 +11053,7 @@
         <v>43</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I149" s="10" t="s">
         <v>153</v>
@@ -11077,94 +11065,94 @@
         <v>2018</v>
       </c>
       <c r="L149" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="M149" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="N149" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="O149" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="P149" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="Q149" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="R149" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="150" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A150" s="8"/>
       <c r="B150" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="E150" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="C150" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D150" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="E150" s="21" t="s">
-        <v>524</v>
-      </c>
       <c r="F150" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="J150" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="K150" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="L150" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="M150" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="N150" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="O150" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="P150" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="Q150" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="R150" s="23" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A151" s="8"/>
       <c r="B151" s="19" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F151" s="10" t="s">
         <v>43</v>
@@ -11173,7 +11161,7 @@
         <v>43</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I151" s="10" t="s">
         <v>153</v>
@@ -11185,94 +11173,94 @@
         <v>2018</v>
       </c>
       <c r="L151" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="M151" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="N151" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="O151" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="P151" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="Q151" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="R151" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A152" s="8"/>
       <c r="B152" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="E152" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="C152" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D152" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>529</v>
-      </c>
       <c r="F152" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="J152" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="K152" s="10" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="L152" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="M152" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="N152" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="O152" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="P152" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="Q152" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="R152" s="23" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A153" s="8"/>
       <c r="B153" s="19" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F153" s="10" t="s">
         <v>43</v>
@@ -11281,7 +11269,7 @@
         <v>43</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I153" s="10" t="s">
         <v>153</v>
@@ -11293,40 +11281,40 @@
         <v>2018</v>
       </c>
       <c r="L153" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="M153" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="N153" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="O153" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="P153" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="Q153" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="R153" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A154" s="8"/>
       <c r="B154" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="E154" s="21" t="s">
         <v>532</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D154" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="E154" s="21" t="s">
-        <v>534</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>103</v>
@@ -11335,7 +11323,7 @@
         <v>50</v>
       </c>
       <c r="H154" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I154" s="10" t="s">
         <v>153</v>
@@ -11347,40 +11335,40 @@
         <v>2018</v>
       </c>
       <c r="L154" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="M154" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="N154" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="O154" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="P154" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="Q154" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="R154" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A155" s="8"/>
       <c r="B155" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="E155" s="21" t="s">
         <v>535</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="D155" s="21" t="s">
-        <v>536</v>
-      </c>
-      <c r="E155" s="21" t="s">
-        <v>537</v>
       </c>
       <c r="F155" s="10" t="s">
         <v>103</v>
@@ -11389,7 +11377,7 @@
         <v>50</v>
       </c>
       <c r="H155" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I155" s="10" t="s">
         <v>153</v>
@@ -11401,40 +11389,40 @@
         <v>2018</v>
       </c>
       <c r="L155" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="M155" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="N155" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="O155" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="P155" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="Q155" s="22" t="s">
-        <v>507</v>
+        <v>92</v>
       </c>
       <c r="R155" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="156" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A156" s="8"/>
       <c r="B156" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="E156" s="21" t="s">
         <v>539</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>540</v>
-      </c>
-      <c r="E156" s="21" t="s">
-        <v>541</v>
       </c>
       <c r="F156" s="10" t="s">
         <v>43</v>
@@ -11479,70 +11467,70 @@
     <row r="157" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A157" s="8"/>
       <c r="B157" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D157" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="E157" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="D157" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="E157" s="21" t="s">
-        <v>545</v>
-      </c>
       <c r="F157" s="10" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="H157" s="10" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I157" s="10" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="J157" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="K157" s="10">
-        <v>2018</v>
-      </c>
-      <c r="L157" s="22">
-        <v>100</v>
-      </c>
-      <c r="M157" s="22">
-        <v>100</v>
-      </c>
-      <c r="N157" s="22">
-        <v>100</v>
-      </c>
-      <c r="O157" s="22">
-        <v>35.251798561151098</v>
-      </c>
-      <c r="P157" s="22">
-        <v>24.108685496412601</v>
-      </c>
-      <c r="Q157" s="22">
-        <v>28.824739991375498</v>
+        <v>92</v>
+      </c>
+      <c r="K157" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L157" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M157" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N157" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="O157" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="P157" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q157" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="R157" s="23" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A158" s="8"/>
       <c r="B158" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="E158" s="21" t="s">
         <v>546</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="D158" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="E158" s="21" t="s">
-        <v>548</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>43</v>
@@ -11563,22 +11551,22 @@
         <v>2018</v>
       </c>
       <c r="L158" s="22">
-        <v>98.148148148148195</v>
+        <v>100</v>
       </c>
       <c r="M158" s="22">
-        <v>99.122953180860605</v>
+        <v>100</v>
       </c>
       <c r="N158" s="22">
-        <v>99.854977902943503</v>
-      </c>
-      <c r="O158" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="P158" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q158" s="22" t="s">
-        <v>507</v>
+        <v>100</v>
+      </c>
+      <c r="O158" s="22">
+        <v>35.251798561151098</v>
+      </c>
+      <c r="P158" s="22">
+        <v>24.108685496412601</v>
+      </c>
+      <c r="Q158" s="22">
+        <v>28.824739991375498</v>
       </c>
       <c r="R158" s="23" t="s">
         <v>480</v>
@@ -11587,16 +11575,16 @@
     <row r="159" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A159" s="8"/>
       <c r="B159" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="E159" s="21" t="s">
         <v>549</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="D159" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="E159" s="21" t="s">
-        <v>551</v>
       </c>
       <c r="F159" s="10" t="s">
         <v>43</v>
@@ -11617,22 +11605,22 @@
         <v>2018</v>
       </c>
       <c r="L159" s="22">
-        <v>100</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M159" s="22">
-        <v>100</v>
+        <v>99.122953180860605</v>
       </c>
       <c r="N159" s="22">
-        <v>100</v>
-      </c>
-      <c r="O159" s="22">
-        <v>98.561151079136707</v>
-      </c>
-      <c r="P159" s="22">
-        <v>99.998786535806502</v>
-      </c>
-      <c r="Q159" s="22">
-        <v>100</v>
+        <v>99.854977902943503</v>
+      </c>
+      <c r="O159" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="P159" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q159" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="R159" s="23" t="s">
         <v>480</v>
@@ -11641,16 +11629,16 @@
     <row r="160" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A160" s="8"/>
       <c r="B160" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="E160" s="21" t="s">
         <v>552</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="D160" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="E160" s="21" t="s">
-        <v>554</v>
       </c>
       <c r="F160" s="10" t="s">
         <v>43</v>
@@ -11695,16 +11683,16 @@
     <row r="161" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A161" s="8"/>
       <c r="B161" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="E161" s="21" t="s">
         <v>555</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="D161" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="E161" s="21" t="s">
-        <v>557</v>
       </c>
       <c r="F161" s="10" t="s">
         <v>43</v>
@@ -11749,16 +11737,16 @@
     <row r="162" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A162" s="8"/>
       <c r="B162" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D162" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="E162" s="21" t="s">
         <v>558</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="D162" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="E162" s="21" t="s">
-        <v>560</v>
       </c>
       <c r="F162" s="10" t="s">
         <v>43</v>
@@ -11788,13 +11776,13 @@
         <v>100</v>
       </c>
       <c r="O162" s="22">
-        <v>97.122302158273399</v>
+        <v>98.561151079136707</v>
       </c>
       <c r="P162" s="22">
-        <v>94.412322632061603</v>
+        <v>99.998786535806502</v>
       </c>
       <c r="Q162" s="22">
-        <v>82.892978726599907</v>
+        <v>100</v>
       </c>
       <c r="R162" s="23" t="s">
         <v>480</v>
@@ -11803,22 +11791,22 @@
     <row r="163" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A163" s="8"/>
       <c r="B163" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="E163" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="C163" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="D163" s="21" t="s">
-        <v>562</v>
-      </c>
-      <c r="E163" s="21" t="s">
-        <v>563</v>
-      </c>
       <c r="F163" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H163" s="10" t="s">
         <v>24</v>
@@ -11833,22 +11821,22 @@
         <v>2018</v>
       </c>
       <c r="L163" s="22">
-        <v>72.2222222222222</v>
+        <v>100</v>
       </c>
       <c r="M163" s="22">
-        <v>81.077757485970196</v>
+        <v>100</v>
       </c>
       <c r="N163" s="22">
-        <v>85.766234893058098</v>
+        <v>100</v>
       </c>
       <c r="O163" s="22">
-        <v>78.417266187050402</v>
+        <v>97.122302158273399</v>
       </c>
       <c r="P163" s="22">
-        <v>94.010132313224005</v>
+        <v>94.412322632061603</v>
       </c>
       <c r="Q163" s="22">
-        <v>98.101855024483996</v>
+        <v>82.892978726599907</v>
       </c>
       <c r="R163" s="23" t="s">
         <v>480</v>
@@ -11857,16 +11845,16 @@
     <row r="164" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A164" s="8"/>
       <c r="B164" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="E164" s="21" t="s">
         <v>564</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="D164" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="E164" s="21" t="s">
-        <v>566</v>
       </c>
       <c r="F164" s="10" t="s">
         <v>37</v>
@@ -11911,16 +11899,16 @@
     <row r="165" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A165" s="8"/>
       <c r="B165" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F165" s="10" t="s">
         <v>37</v>
@@ -11965,70 +11953,70 @@
     <row r="166" spans="1:18" ht="126" x14ac:dyDescent="0.35">
       <c r="A166" s="8"/>
       <c r="B166" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="D166" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="E166" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="D166" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="E166" s="21" t="s">
-        <v>572</v>
-      </c>
       <c r="F166" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H166" s="10" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I166" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J166" s="10" t="s">
-        <v>460</v>
+        <v>125</v>
       </c>
       <c r="K166" s="10">
         <v>2018</v>
       </c>
       <c r="L166" s="22">
-        <v>88.8888888888889</v>
+        <v>72.2222222222222</v>
       </c>
       <c r="M166" s="22">
-        <v>96.149786188102894</v>
+        <v>81.077757485970196</v>
       </c>
       <c r="N166" s="22">
-        <v>97.625024852617102</v>
+        <v>85.766234893058098</v>
       </c>
       <c r="O166" s="22">
-        <v>89.208633093525194</v>
+        <v>78.417266187050402</v>
       </c>
       <c r="P166" s="22">
-        <v>98.871953848082498</v>
+        <v>94.010132313224005</v>
       </c>
       <c r="Q166" s="22">
-        <v>99.913565393278006</v>
+        <v>98.101855024483996</v>
       </c>
       <c r="R166" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A167" s="8"/>
       <c r="B167" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="E167" s="21" t="s">
         <v>573</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="D167" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="E167" s="21" t="s">
-        <v>575</v>
       </c>
       <c r="F167" s="10" t="s">
         <v>43</v>
@@ -12043,46 +12031,46 @@
         <v>45</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>62</v>
+        <v>459</v>
       </c>
       <c r="K167" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L167" s="22">
-        <v>98.148148148148195</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="M167" s="22">
-        <v>99.992380036161904</v>
+        <v>96.164807928937705</v>
       </c>
       <c r="N167" s="22">
-        <v>99.955997604474703</v>
+        <v>97.533226471260306</v>
       </c>
       <c r="O167" s="22">
-        <v>56.834532374100696</v>
+        <v>88.489208633093497</v>
       </c>
       <c r="P167" s="22">
-        <v>77.927440489696906</v>
+        <v>98.865738314873298</v>
       </c>
       <c r="Q167" s="22">
-        <v>46.717028788169003</v>
+        <v>99.908988005939605</v>
       </c>
       <c r="R167" s="23" t="s">
-        <v>576</v>
+        <v>38</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A168" s="8"/>
       <c r="B168" s="19" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F168" s="10" t="s">
         <v>43</v>
@@ -12100,43 +12088,43 @@
         <v>125</v>
       </c>
       <c r="K168" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L168" s="22">
-        <v>96.296296296296305</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M168" s="22">
-        <v>92.878177387148398</v>
+        <v>99.992517839640996</v>
       </c>
       <c r="N168" s="22">
-        <v>97.195068072955394</v>
+        <v>99.955697966479804</v>
       </c>
       <c r="O168" s="22">
-        <v>93.525179856115102</v>
+        <v>56.834532374100696</v>
       </c>
       <c r="P168" s="22">
-        <v>99.142281622906097</v>
+        <v>78.020047379432796</v>
       </c>
       <c r="Q168" s="22">
-        <v>99.997894242584493</v>
+        <v>47.250899348413199</v>
       </c>
       <c r="R168" s="23" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="169" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A169" s="8"/>
       <c r="B169" s="19" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>43</v>
@@ -12151,46 +12139,46 @@
         <v>45</v>
       </c>
       <c r="J169" s="10" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="K169" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L169" s="22">
-        <v>90.740740740740804</v>
+        <v>96.296296296296305</v>
       </c>
       <c r="M169" s="22">
-        <v>97.521245242256995</v>
+        <v>92.837284889669604</v>
       </c>
       <c r="N169" s="22">
-        <v>97.675982140329893</v>
+        <v>97.092339981866601</v>
       </c>
       <c r="O169" s="22">
-        <v>90.647482014388501</v>
+        <v>93.525179856115102</v>
       </c>
       <c r="P169" s="22">
-        <v>98.953547291346297</v>
+        <v>99.145279268283701</v>
       </c>
       <c r="Q169" s="22">
-        <v>99.354189731272498</v>
+        <v>99.9979269779178</v>
       </c>
       <c r="R169" s="23" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A170" s="8"/>
       <c r="B170" s="19" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E170" s="21" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F170" s="10" t="s">
         <v>43</v>
@@ -12205,46 +12193,46 @@
         <v>45</v>
       </c>
       <c r="J170" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K170" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L170" s="22">
-        <v>77.7777777777778</v>
+        <v>90.740740740740804</v>
       </c>
       <c r="M170" s="22">
-        <v>87.589860091659602</v>
+        <v>97.525675267402903</v>
       </c>
       <c r="N170" s="22">
-        <v>95.096496102147995</v>
+        <v>97.6299595675614</v>
       </c>
       <c r="O170" s="22">
-        <v>49.640287769784202</v>
+        <v>90.647482014388501</v>
       </c>
       <c r="P170" s="22">
-        <v>77.653192512657597</v>
+        <v>98.954597130206494</v>
       </c>
       <c r="Q170" s="22">
-        <v>46.6319777341118</v>
+        <v>99.360149288611197</v>
       </c>
       <c r="R170" s="23" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A171" s="8"/>
       <c r="B171" s="19" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F171" s="24" t="s">
         <v>43</v>
@@ -12259,100 +12247,100 @@
         <v>45</v>
       </c>
       <c r="J171" s="24" t="s">
-        <v>460</v>
+        <v>125</v>
       </c>
       <c r="K171" s="24">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L171" s="22">
-        <v>90.740740740740804</v>
+        <v>77.7777777777778</v>
       </c>
       <c r="M171" s="22">
-        <v>96.7114017105947</v>
+        <v>87.557926018790496</v>
       </c>
       <c r="N171" s="22">
-        <v>97.548307984452805</v>
+        <v>95.027121423107502</v>
       </c>
       <c r="O171" s="22">
-        <v>78.417266187050402</v>
+        <v>48.920863309352498</v>
       </c>
       <c r="P171" s="22">
-        <v>74.993252244035304</v>
+        <v>77.736576561972797</v>
       </c>
       <c r="Q171" s="22">
-        <v>80.488116537333596</v>
+        <v>47.161247218243403</v>
       </c>
       <c r="R171" s="23" t="s">
-        <v>38</v>
+        <v>588</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A172" s="8"/>
       <c r="B172" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="E172" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="C172" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="D172" s="21" t="s">
-        <v>592</v>
-      </c>
-      <c r="E172" s="21" t="s">
-        <v>593</v>
-      </c>
       <c r="F172" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H172" s="10" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I172" s="10" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J172" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K172" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L172" s="22">
-        <v>88.8888888888889</v>
+        <v>90.740740740740804</v>
       </c>
       <c r="M172" s="22">
-        <v>96.149786188102894</v>
+        <v>96.7254008000113</v>
       </c>
       <c r="N172" s="22">
-        <v>97.625024852617102</v>
+        <v>97.534214600191106</v>
       </c>
       <c r="O172" s="22">
-        <v>89.208633093525194</v>
+        <v>77.697841726618705</v>
       </c>
       <c r="P172" s="22">
-        <v>98.871953848082498</v>
+        <v>74.6284133237058</v>
       </c>
       <c r="Q172" s="22">
-        <v>99.913565393278006</v>
+        <v>79.761634309150594</v>
       </c>
       <c r="R172" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A173" s="8"/>
       <c r="B173" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="E173" s="21" t="s">
         <v>594</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="D173" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="E173" s="21" t="s">
-        <v>596</v>
       </c>
       <c r="F173" s="10" t="s">
         <v>37</v>
@@ -12367,46 +12355,46 @@
         <v>25</v>
       </c>
       <c r="J173" s="10" t="s">
-        <v>62</v>
+        <v>459</v>
       </c>
       <c r="K173" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L173" s="22">
-        <v>98.148148148148195</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="M173" s="22">
-        <v>99.992380036161904</v>
+        <v>96.164807928937705</v>
       </c>
       <c r="N173" s="22">
-        <v>99.955997604474703</v>
+        <v>97.533226471260306</v>
       </c>
       <c r="O173" s="22">
-        <v>58.9928057553957</v>
+        <v>88.489208633093497</v>
       </c>
       <c r="P173" s="22">
-        <v>78.780236732853794</v>
+        <v>98.865738314873298</v>
       </c>
       <c r="Q173" s="22">
-        <v>46.717028788169003</v>
+        <v>99.908988005939605</v>
       </c>
       <c r="R173" s="23" t="s">
-        <v>576</v>
+        <v>38</v>
       </c>
     </row>
     <row r="174" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A174" s="8"/>
       <c r="B174" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F174" s="10" t="s">
         <v>37</v>
@@ -12424,43 +12412,43 @@
         <v>125</v>
       </c>
       <c r="K174" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L174" s="22">
-        <v>96.296296296296305</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M174" s="22">
-        <v>92.878177387148398</v>
+        <v>99.992517839640996</v>
       </c>
       <c r="N174" s="22">
-        <v>97.195068072955394</v>
+        <v>99.955697966479804</v>
       </c>
       <c r="O174" s="22">
-        <v>94.244604316546798</v>
+        <v>58.9928057553957</v>
       </c>
       <c r="P174" s="22">
-        <v>99.547027471988798</v>
+        <v>78.869855454961893</v>
       </c>
       <c r="Q174" s="22">
-        <v>99.997894242584493</v>
+        <v>47.250899348413199</v>
       </c>
       <c r="R174" s="23" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="175" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A175" s="8"/>
       <c r="B175" s="19" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E175" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F175" s="10" t="s">
         <v>37</v>
@@ -12475,46 +12463,46 @@
         <v>25</v>
       </c>
       <c r="J175" s="10" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="K175" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L175" s="22">
-        <v>90.740740740740804</v>
+        <v>96.296296296296305</v>
       </c>
       <c r="M175" s="22">
-        <v>97.521245242256995</v>
+        <v>92.837284889669604</v>
       </c>
       <c r="N175" s="22">
-        <v>97.675982140329893</v>
+        <v>97.092339981866601</v>
       </c>
       <c r="O175" s="22">
-        <v>91.366906474820198</v>
+        <v>94.244604316546798</v>
       </c>
       <c r="P175" s="22">
-        <v>99.221983662026503</v>
+        <v>99.548671158477404</v>
       </c>
       <c r="Q175" s="22">
-        <v>99.354189731272498</v>
+        <v>99.9979269779178</v>
       </c>
       <c r="R175" s="23" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A176" s="8"/>
       <c r="B176" s="19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E176" s="21" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F176" s="10" t="s">
         <v>37</v>
@@ -12529,46 +12517,46 @@
         <v>25</v>
       </c>
       <c r="J176" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K176" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L176" s="22">
-        <v>77.7777777777778</v>
+        <v>90.740740740740804</v>
       </c>
       <c r="M176" s="22">
-        <v>87.589860091659602</v>
+        <v>97.525675267402903</v>
       </c>
       <c r="N176" s="22">
-        <v>95.096496102147995</v>
+        <v>97.6299595675614</v>
       </c>
       <c r="O176" s="22">
-        <v>49.640287769784202</v>
+        <v>91.366906474820198</v>
       </c>
       <c r="P176" s="22">
-        <v>77.653192512657597</v>
+        <v>99.222886323054695</v>
       </c>
       <c r="Q176" s="22">
-        <v>46.6319777341118</v>
+        <v>99.360149288611197</v>
       </c>
       <c r="R176" s="23" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A177" s="8"/>
       <c r="B177" s="19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F177" s="24" t="s">
         <v>37</v>
@@ -12583,52 +12571,52 @@
         <v>25</v>
       </c>
       <c r="J177" s="24" t="s">
-        <v>460</v>
+        <v>125</v>
       </c>
       <c r="K177" s="24">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L177" s="22">
-        <v>90.740740740740804</v>
+        <v>77.7777777777778</v>
       </c>
       <c r="M177" s="22">
-        <v>96.7114017105947</v>
+        <v>87.557926018790496</v>
       </c>
       <c r="N177" s="22">
-        <v>97.548307984452805</v>
+        <v>95.027121423107502</v>
       </c>
       <c r="O177" s="22">
-        <v>78.417266187050402</v>
+        <v>48.920863309352498</v>
       </c>
       <c r="P177" s="22">
-        <v>74.993252244035304</v>
+        <v>77.736576561972797</v>
       </c>
       <c r="Q177" s="22">
-        <v>80.488116537333596</v>
+        <v>47.161247218243403</v>
       </c>
       <c r="R177" s="23" t="s">
-        <v>38</v>
+        <v>588</v>
       </c>
     </row>
     <row r="178" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A178" s="8"/>
       <c r="B178" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D178" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="E178" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="D178" s="21" t="s">
-        <v>607</v>
-      </c>
-      <c r="E178" s="21" t="s">
-        <v>608</v>
-      </c>
       <c r="F178" s="10" t="s">
-        <v>609</v>
+        <v>37</v>
       </c>
       <c r="G178" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H178" s="10" t="s">
         <v>24</v>
@@ -12637,49 +12625,49 @@
         <v>25</v>
       </c>
       <c r="J178" s="10" t="s">
-        <v>62</v>
+        <v>459</v>
       </c>
       <c r="K178" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L178" s="22">
-        <v>100</v>
+        <v>90.740740740740804</v>
       </c>
       <c r="M178" s="22">
-        <v>100</v>
+        <v>96.7254008000113</v>
       </c>
       <c r="N178" s="22">
-        <v>100</v>
+        <v>97.534214600191106</v>
       </c>
       <c r="O178" s="22">
-        <v>100</v>
+        <v>77.697841726618705</v>
       </c>
       <c r="P178" s="22">
-        <v>100</v>
+        <v>74.6284133237058</v>
       </c>
       <c r="Q178" s="22">
-        <v>100</v>
+        <v>79.761634309150594</v>
       </c>
       <c r="R178" s="23" t="s">
-        <v>610</v>
+        <v>38</v>
       </c>
     </row>
     <row r="179" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A179" s="8"/>
       <c r="B179" s="19" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E179" s="21" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G179" s="10" t="s">
         <v>23</v>
@@ -12706,34 +12694,34 @@
         <v>100</v>
       </c>
       <c r="O179" s="22">
-        <v>99.280575539568403</v>
+        <v>100</v>
       </c>
       <c r="P179" s="22">
-        <v>99.999387216423898</v>
+        <v>100</v>
       </c>
       <c r="Q179" s="22">
         <v>100</v>
       </c>
       <c r="R179" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="180" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A180" s="8"/>
       <c r="B180" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="E180" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="C180" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="D180" s="21" t="s">
-        <v>615</v>
-      </c>
-      <c r="E180" s="21" t="s">
-        <v>616</v>
-      </c>
       <c r="F180" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G180" s="10" t="s">
         <v>23</v>
@@ -12769,25 +12757,25 @@
         <v>100</v>
       </c>
       <c r="R180" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="181" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A181" s="8"/>
       <c r="B181" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="E181" s="21" t="s">
         <v>617</v>
       </c>
-      <c r="C181" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="D181" s="21" t="s">
-        <v>618</v>
-      </c>
-      <c r="E181" s="21" t="s">
-        <v>619</v>
-      </c>
       <c r="F181" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G181" s="10" t="s">
         <v>23</v>
@@ -12814,34 +12802,34 @@
         <v>100</v>
       </c>
       <c r="O181" s="22">
-        <v>100</v>
+        <v>99.280575539568403</v>
       </c>
       <c r="P181" s="22">
-        <v>100</v>
+        <v>99.999387216423898</v>
       </c>
       <c r="Q181" s="22">
         <v>100</v>
       </c>
       <c r="R181" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="182" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A182" s="8"/>
       <c r="B182" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="E182" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="C182" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="D182" s="21" t="s">
-        <v>621</v>
-      </c>
-      <c r="E182" s="21" t="s">
-        <v>622</v>
-      </c>
       <c r="F182" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G182" s="10" t="s">
         <v>23</v>
@@ -12859,46 +12847,46 @@
         <v>2018</v>
       </c>
       <c r="L182" s="22">
-        <v>79.629629629629704</v>
+        <v>100</v>
       </c>
       <c r="M182" s="22">
-        <v>92.631647141770898</v>
+        <v>100</v>
       </c>
       <c r="N182" s="22">
-        <v>86.183826823719997</v>
+        <v>100</v>
       </c>
       <c r="O182" s="22">
-        <v>79.136690647481998</v>
+        <v>100</v>
       </c>
       <c r="P182" s="22">
-        <v>98.119237604881306</v>
+        <v>100</v>
       </c>
       <c r="Q182" s="22">
-        <v>97.865542171591699</v>
+        <v>100</v>
       </c>
       <c r="R182" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="183" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A183" s="8"/>
       <c r="B183" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="E183" s="21" t="s">
         <v>623</v>
       </c>
-      <c r="C183" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="D183" s="21" t="s">
-        <v>624</v>
-      </c>
-      <c r="E183" s="21" t="s">
-        <v>625</v>
-      </c>
       <c r="F183" s="10" t="s">
-        <v>37</v>
+        <v>610</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H183" s="10" t="s">
         <v>24</v>
@@ -12913,40 +12901,40 @@
         <v>2018</v>
       </c>
       <c r="L183" s="22">
-        <v>66.6666666666667</v>
+        <v>79.629629629629704</v>
       </c>
       <c r="M183" s="22">
-        <v>76.171813592250402</v>
+        <v>92.631647141770898</v>
       </c>
       <c r="N183" s="22">
-        <v>85.858403657516206</v>
+        <v>86.183826823719997</v>
       </c>
       <c r="O183" s="22">
-        <v>76.978417266187094</v>
+        <v>79.136690647481998</v>
       </c>
       <c r="P183" s="22">
-        <v>72.7425302162858</v>
+        <v>98.119237604881306</v>
       </c>
       <c r="Q183" s="22">
-        <v>80.374784695925101</v>
+        <v>97.865542171591699</v>
       </c>
       <c r="R183" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="184" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A184" s="8"/>
       <c r="B184" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D184" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="E184" s="21" t="s">
         <v>626</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="D184" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="E184" s="21" t="s">
-        <v>628</v>
       </c>
       <c r="F184" s="10" t="s">
         <v>37</v>
@@ -12967,40 +12955,40 @@
         <v>2018</v>
       </c>
       <c r="L184" s="22">
-        <v>62.962962962962997</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="M184" s="22">
-        <v>76.061465616533496</v>
+        <v>76.171813592250402</v>
       </c>
       <c r="N184" s="22">
-        <v>85.378954217727795</v>
+        <v>85.858403657516206</v>
       </c>
       <c r="O184" s="22">
-        <v>70.503597122302196</v>
+        <v>76.978417266187094</v>
       </c>
       <c r="P184" s="22">
-        <v>67.436208842395203</v>
+        <v>72.7425302162858</v>
       </c>
       <c r="Q184" s="22">
-        <v>62.773000731942602</v>
+        <v>80.374784695925101</v>
       </c>
       <c r="R184" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="185" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A185" s="8"/>
       <c r="B185" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D185" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="E185" s="21" t="s">
         <v>629</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="D185" s="21" t="s">
-        <v>630</v>
-      </c>
-      <c r="E185" s="21" t="s">
-        <v>631</v>
       </c>
       <c r="F185" s="10" t="s">
         <v>37</v>
@@ -13021,40 +13009,40 @@
         <v>2018</v>
       </c>
       <c r="L185" s="22">
-        <v>66.6666666666667</v>
+        <v>62.962962962962997</v>
       </c>
       <c r="M185" s="22">
-        <v>76.171813592250402</v>
+        <v>76.061465616533496</v>
       </c>
       <c r="N185" s="22">
-        <v>85.858403657516206</v>
+        <v>85.378954217727795</v>
       </c>
       <c r="O185" s="22">
-        <v>76.978417266187094</v>
+        <v>70.503597122302196</v>
       </c>
       <c r="P185" s="22">
-        <v>72.7425302162858</v>
+        <v>67.436208842395203</v>
       </c>
       <c r="Q185" s="22">
-        <v>80.374784695925101</v>
+        <v>62.773000731942602</v>
       </c>
       <c r="R185" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="186" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A186" s="8"/>
       <c r="B186" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="E186" s="21" t="s">
         <v>632</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="D186" s="21" t="s">
-        <v>633</v>
-      </c>
-      <c r="E186" s="21" t="s">
-        <v>634</v>
       </c>
       <c r="F186" s="10" t="s">
         <v>37</v>
@@ -13093,22 +13081,22 @@
         <v>80.374784695925101</v>
       </c>
       <c r="R186" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="187" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A187" s="8"/>
       <c r="B187" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D187" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="E187" s="21" t="s">
         <v>635</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="D187" s="21" t="s">
-        <v>636</v>
-      </c>
-      <c r="E187" s="21" t="s">
-        <v>637</v>
       </c>
       <c r="F187" s="10" t="s">
         <v>37</v>
@@ -13129,39 +13117,39 @@
         <v>2018</v>
       </c>
       <c r="L187" s="22">
-        <v>59.259259259259302</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="M187" s="22">
-        <v>73.632546304410099</v>
+        <v>76.171813592250402</v>
       </c>
       <c r="N187" s="22">
-        <v>84.199219931553003</v>
+        <v>85.858403657516206</v>
       </c>
       <c r="O187" s="22">
-        <v>73.381294964028797</v>
+        <v>76.978417266187094</v>
       </c>
       <c r="P187" s="22">
-        <v>72.626659657076502</v>
+        <v>72.7425302162858</v>
       </c>
       <c r="Q187" s="22">
-        <v>80.214758770103501</v>
+        <v>80.374784695925101</v>
       </c>
       <c r="R187" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="188" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B188" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="E188" s="21" t="s">
         <v>638</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="D188" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="E188" s="21" t="s">
-        <v>640</v>
       </c>
       <c r="F188" s="10" t="s">
         <v>37</v>
@@ -13182,45 +13170,45 @@
         <v>2018</v>
       </c>
       <c r="L188" s="22">
-        <v>53.703703703703702</v>
+        <v>59.259259259259302</v>
       </c>
       <c r="M188" s="22">
-        <v>72.407201905062905</v>
+        <v>73.632546304410099</v>
       </c>
       <c r="N188" s="22">
-        <v>82.899591314801</v>
+        <v>84.199219931553003</v>
       </c>
       <c r="O188" s="22">
-        <v>65.467625899280605</v>
+        <v>73.381294964028797</v>
       </c>
       <c r="P188" s="22">
-        <v>66.751675488863398</v>
+        <v>72.626659657076502</v>
       </c>
       <c r="Q188" s="22">
-        <v>62.4940774363385</v>
+        <v>80.214758770103501</v>
       </c>
       <c r="R188" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="189" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B189" s="19" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>643</v>
+        <v>37</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>326</v>
+        <v>33</v>
       </c>
       <c r="H189" s="10" t="s">
         <v>24</v>
@@ -13229,51 +13217,51 @@
         <v>25</v>
       </c>
       <c r="J189" s="10" t="s">
-        <v>644</v>
+        <v>62</v>
       </c>
       <c r="K189" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="L189" s="22">
-        <v>83.3333333333334</v>
+        <v>53.703703703703702</v>
       </c>
       <c r="M189" s="22">
-        <v>89.546234598026899</v>
+        <v>72.407201905062905</v>
       </c>
       <c r="N189" s="22">
-        <v>96.191660711709801</v>
+        <v>82.899591314801</v>
       </c>
       <c r="O189" s="22">
-        <v>87.7697841726619</v>
+        <v>65.467625899280605</v>
       </c>
       <c r="P189" s="22">
-        <v>99.406994549210495</v>
+        <v>66.751675488863398</v>
       </c>
       <c r="Q189" s="22">
-        <v>99.188230508835801</v>
+        <v>62.4940774363385</v>
       </c>
       <c r="R189" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="190" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="B190" s="19" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>50</v>
+        <v>324</v>
       </c>
       <c r="H190" s="10" t="s">
         <v>24</v>
@@ -13282,54 +13270,54 @@
         <v>25</v>
       </c>
       <c r="J190" s="10" t="s">
-        <v>62</v>
+        <v>645</v>
       </c>
       <c r="K190" s="10">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="L190" s="22">
-        <v>74.074074074074105</v>
+        <v>83.3333333333334</v>
       </c>
       <c r="M190" s="22">
-        <v>94.717631980251298</v>
+        <v>89.546234598026899</v>
       </c>
       <c r="N190" s="22">
-        <v>97.577145545749701</v>
+        <v>96.191660711709801</v>
       </c>
       <c r="O190" s="22">
-        <v>87.050359712230204</v>
+        <v>87.7697841726619</v>
       </c>
       <c r="P190" s="22">
-        <v>99.167936537143305</v>
+        <v>99.406994549210495</v>
       </c>
       <c r="Q190" s="22">
-        <v>99.853199946495096</v>
+        <v>99.188230508835801</v>
       </c>
       <c r="R190" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="191" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B191" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D191" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="E191" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="F191" s="10" t="s">
         <v>649</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="D191" s="21" t="s">
-        <v>650</v>
-      </c>
-      <c r="E191" s="21" t="s">
-        <v>651</v>
-      </c>
-      <c r="F191" s="10" t="s">
-        <v>652</v>
       </c>
       <c r="G191" s="10" t="s">
         <v>50</v>
       </c>
       <c r="H191" s="10" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I191" s="10" t="s">
         <v>25</v>
@@ -13350,39 +13338,39 @@
         <v>97.577145545749701</v>
       </c>
       <c r="O191" s="22">
-        <v>80.575539568345306</v>
+        <v>87.050359712230204</v>
       </c>
       <c r="P191" s="22">
-        <v>98.547028723156004</v>
+        <v>99.167936537143305</v>
       </c>
       <c r="Q191" s="22">
-        <v>97.763984930637804</v>
+        <v>99.853199946495096</v>
       </c>
       <c r="R191" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="192" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B192" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="E192" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="F192" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="C192" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="D192" s="21" t="s">
-        <v>654</v>
-      </c>
-      <c r="E192" s="21" t="s">
-        <v>655</v>
-      </c>
-      <c r="F192" s="10" t="s">
-        <v>648</v>
-      </c>
       <c r="G192" s="10" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H192" s="10" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I192" s="10" t="s">
         <v>25</v>
@@ -13394,45 +13382,45 @@
         <v>2018</v>
       </c>
       <c r="L192" s="22">
-        <v>98.148148148148195</v>
+        <v>74.074074074074105</v>
       </c>
       <c r="M192" s="22">
-        <v>99.138606464146307</v>
+        <v>94.717631980251298</v>
       </c>
       <c r="N192" s="22">
-        <v>99.821825161144304</v>
+        <v>97.577145545749701</v>
       </c>
       <c r="O192" s="22">
-        <v>92.086330935251794</v>
+        <v>80.575539568345306</v>
       </c>
       <c r="P192" s="22">
-        <v>98.960950167480505</v>
+        <v>98.547028723156004</v>
       </c>
       <c r="Q192" s="22">
-        <v>99.512887922378496</v>
+        <v>97.763984930637804</v>
       </c>
       <c r="R192" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="193" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B193" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D193" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="E193" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="C193" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="D193" s="21" t="s">
-        <v>657</v>
-      </c>
-      <c r="E193" s="21" t="s">
-        <v>658</v>
-      </c>
       <c r="F193" s="10" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H193" s="10" t="s">
         <v>24</v>
@@ -13441,31 +13429,31 @@
         <v>25</v>
       </c>
       <c r="J193" s="10" t="s">
-        <v>660</v>
+        <v>62</v>
       </c>
       <c r="K193" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="L193" s="22">
-        <v>100</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M193" s="22">
-        <v>100</v>
+        <v>99.138606464146307</v>
       </c>
       <c r="N193" s="22">
-        <v>100</v>
+        <v>99.821825161144304</v>
       </c>
       <c r="O193" s="22">
-        <v>100</v>
+        <v>92.086330935251794</v>
       </c>
       <c r="P193" s="22">
-        <v>100</v>
+        <v>98.960950167480505</v>
       </c>
       <c r="Q193" s="22">
-        <v>100</v>
+        <v>99.512887922378496</v>
       </c>
       <c r="R193" s="23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="194" spans="2:18" x14ac:dyDescent="0.35">
@@ -13507,7 +13495,7 @@
     </row>
     <row r="196" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B196" s="25" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C196" s="20"/>
       <c r="D196" s="21"/>
@@ -13546,7 +13534,7 @@
     </row>
     <row r="198" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B198" s="26" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C198"/>
       <c r="E198"/>
@@ -13559,12 +13547,12 @@
     </row>
     <row r="199" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B199" s="26" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="200" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B200" s="26" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/DDAf_2021_Liste_des_indicateurs.xlsx
+++ b/DDAf_2021_Liste_des_indicateurs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>

--- a/DDAf_2021_Liste_des_indicateurs.xlsx
+++ b/DDAf_2021_Liste_des_indicateurs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="663">
   <si>
     <t>Liste des indicateurs, descriptions et détails</t>
   </si>
@@ -301,7 +301,7 @@
     <t>Estimation de la Division de la population du Département des affaires économiques et sociales des Nations Unies. Les populations urbaines au 1er Juillet de l'année indiquée. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Urbanization Prospects produites sur une période de cinq ans. Pour plus d'information, voir :</t>
   </si>
   <si>
-    <t>..</t>
+    <t>Perspectives de l'urbanisation mondiale: la révision de 2018, ONU</t>
   </si>
   <si>
     <t>PopRural</t>
@@ -492,6 +492,9 @@
     <t>2000-2040</t>
   </si>
   <si>
+    <t>Explorateur de données sur le capital humain du Centre Wittgenstein, 2018</t>
+  </si>
+  <si>
     <t>WittMedPrim15PL</t>
   </si>
   <si>
@@ -908,6 +911,9 @@
     <t>2015-2019</t>
   </si>
   <si>
+    <t>Indicateur Institutions Sociales et Égalité Femmes-Hommes, Centre de développement de l'OCDE (mise à jour avec la nouvelle méthodologie, décembre 2018)</t>
+  </si>
+  <si>
     <t>SIGIFAM</t>
   </si>
   <si>
@@ -1470,7 +1476,7 @@
 Valeur totale en dollars américains des biens d'exportation qui entrent dans les catégories des nomenclatures commerciales internationales (SH ou CTCI) pouvant être mises en correspondance avec les catégories de produits classés comme "non transformés" dans le cadre des négociations commerciales multilatérales (NCM) de l'OMC.  Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. Pour plus de détails, voir Rieländer, J. et B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content : Explaining Diversification in Exports Across Higher Manufacturing Content : What is the role of commodities", Documents de travail du Centre de développement de l'OCDE, n° 327, Éditions de l'OCDE, Paris :</t>
   </si>
   <si>
-    <t>Calculs des auteurs basés sur la base de données Comtrade des Nations Unies</t>
+    <t>Calculs de l'auteur basés sur la base de données en ligne COMTRADE WITS (récupérée le 27/10/2020)</t>
   </si>
   <si>
     <t>ExpSemiProc</t>
@@ -1551,16 +1557,16 @@
     <t>Calculs de l'auteur basés sur les statistiques de l'UNCOMTRADE, Division de statistique des Nations Unies. La catégorie de produits représentant la plus grande part des exportations totales d'un pays est définie à l'aide de la classification à 4 chiffres du SH1996 dans COMTRADE. Il existe plus de 1200 catégories de produits au niveau à 4 chiffres. Les produits d'exportation non classés sont étiquetés «Code spécial ONU» dans l'ensemble de données COMTRADE et ne sont pas pris en compte dans la détermination des produits les plus exportés pour chaque pays. Les exportations des pays sont obtenues à l'aide de données miroir ou des importations déclarées dans les pays partenaires. Pour plus d'informations, consultez:</t>
   </si>
   <si>
+    <t>Données communes</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>ExpProdPct1</t>
   </si>
   <si>
     <t>% des exportations attribuées à la catégorie de produits SH96 à 4 chiffres avec le plus haut niveau d'exportations</t>
-  </si>
-  <si>
-    <t>Données communes</t>
-  </si>
-  <si>
-    <t>Base de données en ligne COMTRADE WITS (récupéré le 30/10/2019)</t>
   </si>
   <si>
     <t>ExpProd2</t>
@@ -3108,16 +3114,10 @@
     <col min="3" max="3" width="7.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.54296875" customWidth="1"/>
     <col min="5" max="5" width="88.81640625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="20.36328125" customWidth="1"/>
-    <col min="8" max="9" width="22.54296875" customWidth="1"/>
-    <col min="10" max="11" width="22.54296875" style="27" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" style="27" customWidth="1"/>
-    <col min="13" max="13" width="32.36328125" style="27" customWidth="1"/>
-    <col min="14" max="14" width="43.1796875" style="27" customWidth="1"/>
-    <col min="15" max="15" width="47.90625" style="27" customWidth="1"/>
-    <col min="16" max="16" width="34.54296875" customWidth="1"/>
-    <col min="17" max="17" width="46" customWidth="1"/>
-    <col min="18" max="18" width="37.81640625" customWidth="1"/>
+    <col min="6" max="9" width="20.36328125" customWidth="1"/>
+    <col min="10" max="15" width="20.36328125" style="27" customWidth="1"/>
+    <col min="16" max="17" width="20.36328125" customWidth="1"/>
+    <col min="18" max="18" width="44.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3147,8 +3147,9 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
@@ -4819,22 +4820,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R33" s="23" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>43</v>
@@ -4873,22 +4874,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R34" s="23" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>43</v>
@@ -4927,22 +4928,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R35" s="23" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>43</v>
@@ -4981,22 +4982,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R36" s="23" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>43</v>
@@ -5035,22 +5036,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R37" s="23" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>149</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>43</v>
@@ -5089,22 +5090,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R38" s="23" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>43</v>
@@ -5143,22 +5144,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R39" s="23" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>43</v>
@@ -5197,22 +5198,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R40" s="23" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>43</v>
@@ -5251,22 +5252,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R41" s="23" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>43</v>
@@ -5305,22 +5306,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R42" s="23" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>43</v>
@@ -5359,22 +5360,22 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R43" s="23" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>43</v>
@@ -5413,19 +5414,19 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R44" s="23" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>49</v>
@@ -5473,13 +5474,13 @@
     <row r="46" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E46" s="21" t="s">
         <v>49</v>
@@ -5527,16 +5528,16 @@
     <row r="47" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>43</v>
@@ -5581,16 +5582,16 @@
     <row r="48" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>43</v>
@@ -5635,16 +5636,16 @@
     <row r="49" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>43</v>
@@ -5689,16 +5690,16 @@
     <row r="50" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>203</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>202</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>43</v>
@@ -5743,16 +5744,16 @@
     <row r="51" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>43</v>
@@ -5797,16 +5798,16 @@
     <row r="52" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>43</v>
@@ -5851,16 +5852,16 @@
     <row r="53" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>43</v>
@@ -5905,16 +5906,16 @@
     <row r="54" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>43</v>
@@ -5959,16 +5960,16 @@
     <row r="55" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>43</v>
@@ -5980,7 +5981,7 @@
         <v>44</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>62</v>
@@ -6007,22 +6008,22 @@
         <v>100</v>
       </c>
       <c r="R55" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
       <c r="B56" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>43</v>
@@ -6034,7 +6035,7 @@
         <v>44</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>62</v>
@@ -6061,22 +6062,22 @@
         <v>100</v>
       </c>
       <c r="R56" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
       <c r="B57" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>43</v>
@@ -6088,7 +6089,7 @@
         <v>44</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J57" s="10" t="s">
         <v>62</v>
@@ -6115,22 +6116,22 @@
         <v>100</v>
       </c>
       <c r="R57" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
       <c r="B58" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>43</v>
@@ -6142,7 +6143,7 @@
         <v>44</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J58" s="10" t="s">
         <v>62</v>
@@ -6169,22 +6170,22 @@
         <v>100</v>
       </c>
       <c r="R58" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
       <c r="B59" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>43</v>
@@ -6196,7 +6197,7 @@
         <v>44</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J59" s="10" t="s">
         <v>62</v>
@@ -6223,22 +6224,22 @@
         <v>100</v>
       </c>
       <c r="R59" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>43</v>
@@ -6250,7 +6251,7 @@
         <v>44</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J60" s="10" t="s">
         <v>62</v>
@@ -6277,22 +6278,22 @@
         <v>100</v>
       </c>
       <c r="R60" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
       <c r="B61" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>43</v>
@@ -6304,7 +6305,7 @@
         <v>44</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J61" s="10" t="s">
         <v>62</v>
@@ -6331,22 +6332,22 @@
         <v>100</v>
       </c>
       <c r="R61" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
       <c r="B62" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>43</v>
@@ -6391,16 +6392,16 @@
     <row r="63" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
       <c r="B63" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>43</v>
@@ -6445,16 +6446,16 @@
     <row r="64" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
       <c r="B64" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>43</v>
@@ -6499,16 +6500,16 @@
     <row r="65" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
       <c r="B65" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>43</v>
@@ -6553,16 +6554,16 @@
     <row r="66" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
       <c r="B66" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>43</v>
@@ -6607,16 +6608,16 @@
     <row r="67" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
       <c r="B67" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>43</v>
@@ -6661,16 +6662,16 @@
     <row r="68" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
       <c r="B68" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>43</v>
@@ -6715,16 +6716,16 @@
     <row r="69" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
       <c r="B69" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>43</v>
@@ -6769,16 +6770,16 @@
     <row r="70" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
       <c r="B70" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>43</v>
@@ -6823,16 +6824,16 @@
     <row r="71" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
       <c r="B71" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>43</v>
@@ -6877,16 +6878,16 @@
     <row r="72" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
       <c r="B72" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>43</v>
@@ -6931,16 +6932,16 @@
     <row r="73" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A73" s="8"/>
       <c r="B73" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>43</v>
@@ -6985,16 +6986,16 @@
     <row r="74" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
       <c r="B74" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>43</v>
@@ -7039,16 +7040,16 @@
     <row r="75" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A75" s="8"/>
       <c r="B75" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>32</v>
@@ -7093,16 +7094,16 @@
     <row r="76" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
       <c r="B76" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>61</v>
@@ -7147,16 +7148,16 @@
     <row r="77" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
       <c r="B77" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>61</v>
@@ -7201,16 +7202,16 @@
     <row r="78" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
       <c r="B78" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>61</v>
@@ -7225,7 +7226,7 @@
         <v>25</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K78" s="10">
         <v>2019</v>
@@ -7249,22 +7250,22 @@
         <v>76.366570320859097</v>
       </c>
       <c r="R78" s="23" t="s">
-        <v>92</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A79" s="8"/>
       <c r="B79" s="19" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>61</v>
@@ -7279,7 +7280,7 @@
         <v>25</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K79" s="10">
         <v>2019</v>
@@ -7303,22 +7304,22 @@
         <v>99.983545087881197</v>
       </c>
       <c r="R79" s="23" t="s">
-        <v>92</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
       <c r="B80" s="19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>61</v>
@@ -7333,7 +7334,7 @@
         <v>25</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K80" s="10">
         <v>2019</v>
@@ -7357,22 +7358,22 @@
         <v>76.387568555656202</v>
       </c>
       <c r="R80" s="23" t="s">
-        <v>92</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A81" s="8"/>
       <c r="B81" s="19" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>61</v>
@@ -7387,7 +7388,7 @@
         <v>25</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K81" s="10">
         <v>2019</v>
@@ -7411,22 +7412,22 @@
         <v>78.041046036393595</v>
       </c>
       <c r="R81" s="23" t="s">
-        <v>92</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A82" s="8"/>
       <c r="B82" s="19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>61</v>
@@ -7441,7 +7442,7 @@
         <v>25</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K82" s="10">
         <v>2019</v>
@@ -7465,22 +7466,22 @@
         <v>79.877820386624904</v>
       </c>
       <c r="R82" s="23" t="s">
-        <v>92</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A83" s="8"/>
       <c r="B83" s="19" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>113</v>
@@ -7519,22 +7520,22 @@
         <v>100</v>
       </c>
       <c r="R83" s="23" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="8"/>
       <c r="B84" s="19" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>43</v>
@@ -7573,22 +7574,22 @@
         <v>99.999779413752407</v>
       </c>
       <c r="R84" s="23" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="8"/>
       <c r="B85" s="19" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D85" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E85" s="21" t="s">
         <v>314</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>312</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>113</v>
@@ -7627,22 +7628,22 @@
         <v>100</v>
       </c>
       <c r="R85" s="23" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A86" s="8"/>
       <c r="B86" s="19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>113</v>
@@ -7681,22 +7682,22 @@
         <v>100</v>
       </c>
       <c r="R86" s="23" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="8"/>
       <c r="B87" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>113</v>
@@ -7711,7 +7712,7 @@
         <v>18</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K87" s="10">
         <v>2019</v>
@@ -7735,28 +7736,28 @@
         <v>99.999779413752407</v>
       </c>
       <c r="R87" s="23" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A88" s="8"/>
       <c r="B88" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E88" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>319</v>
-      </c>
       <c r="F88" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>44</v>
@@ -7789,22 +7790,22 @@
         <v>99.999680336073197</v>
       </c>
       <c r="R88" s="23" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="8"/>
       <c r="B89" s="19" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>43</v>
@@ -7819,7 +7820,7 @@
         <v>18</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K89" s="10">
         <v>2020</v>
@@ -7843,22 +7844,22 @@
         <v>75.363512322516897</v>
       </c>
       <c r="R89" s="23" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="8"/>
       <c r="B90" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>43</v>
@@ -7873,7 +7874,7 @@
         <v>18</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K90" s="10">
         <v>2018</v>
@@ -7897,22 +7898,22 @@
         <v>99.541343377807706</v>
       </c>
       <c r="R90" s="23" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A91" s="8"/>
       <c r="B91" s="19" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>43</v>
@@ -7927,7 +7928,7 @@
         <v>25</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K91" s="10" t="s">
         <v>63</v>
@@ -7951,22 +7952,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R91" s="23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A92" s="8"/>
       <c r="B92" s="19" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>43</v>
@@ -7981,7 +7982,7 @@
         <v>25</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K92" s="10" t="s">
         <v>63</v>
@@ -8005,22 +8006,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R92" s="23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
       <c r="B93" s="19" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>43</v>
@@ -8035,7 +8036,7 @@
         <v>25</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K93" s="10" t="s">
         <v>63</v>
@@ -8059,22 +8060,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R93" s="23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A94" s="8"/>
       <c r="B94" s="19" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>43</v>
@@ -8089,7 +8090,7 @@
         <v>25</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K94" s="10" t="s">
         <v>63</v>
@@ -8113,22 +8114,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R94" s="23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A95" s="8"/>
       <c r="B95" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>43</v>
@@ -8143,7 +8144,7 @@
         <v>25</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K95" s="10" t="s">
         <v>63</v>
@@ -8167,22 +8168,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R95" s="23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A96" s="8"/>
       <c r="B96" s="19" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>43</v>
@@ -8197,7 +8198,7 @@
         <v>25</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K96" s="10" t="s">
         <v>63</v>
@@ -8221,22 +8222,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R96" s="23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A97" s="8"/>
       <c r="B97" s="19" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>43</v>
@@ -8251,7 +8252,7 @@
         <v>25</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K97" s="10" t="s">
         <v>63</v>
@@ -8275,22 +8276,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R97" s="23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A98" s="8"/>
       <c r="B98" s="19" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>43</v>
@@ -8305,7 +8306,7 @@
         <v>25</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K98" s="10" t="s">
         <v>63</v>
@@ -8329,22 +8330,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R98" s="23" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A99" s="8"/>
       <c r="B99" s="19" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>37</v>
@@ -8359,7 +8360,7 @@
         <v>25</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K99" s="10">
         <v>2018</v>
@@ -8383,22 +8384,22 @@
         <v>96.225051968012707</v>
       </c>
       <c r="R99" s="23" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A100" s="8"/>
       <c r="B100" s="19" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>43</v>
@@ -8413,7 +8414,7 @@
         <v>25</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K100" s="10">
         <v>2018</v>
@@ -8437,22 +8438,22 @@
         <v>96.225051968012707</v>
       </c>
       <c r="R100" s="23" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A101" s="8"/>
       <c r="B101" s="19" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>37</v>
@@ -8467,7 +8468,7 @@
         <v>25</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K101" s="10">
         <v>2018</v>
@@ -8491,22 +8492,22 @@
         <v>98.692603060250605</v>
       </c>
       <c r="R101" s="23" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A102" s="8"/>
       <c r="B102" s="19" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D102" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="E102" s="21" t="s">
         <v>371</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>369</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>43</v>
@@ -8521,7 +8522,7 @@
         <v>25</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K102" s="10">
         <v>2018</v>
@@ -8545,22 +8546,22 @@
         <v>98.692603060250605</v>
       </c>
       <c r="R102" s="23" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A103" s="8"/>
       <c r="B103" s="19" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>61</v>
@@ -8575,7 +8576,7 @@
         <v>25</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K103" s="10">
         <v>2019</v>
@@ -8599,25 +8600,25 @@
         <v>99.643150170309596</v>
       </c>
       <c r="R103" s="23" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A104" s="8"/>
       <c r="B104" s="19" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>61</v>
@@ -8659,19 +8660,19 @@
     <row r="105" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A105" s="8"/>
       <c r="B105" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="E105" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="D105" s="21" t="s">
+      <c r="F105" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>61</v>
@@ -8713,19 +8714,19 @@
     <row r="106" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A106" s="8"/>
       <c r="B106" s="19" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>61</v>
@@ -8767,19 +8768,19 @@
     <row r="107" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A107" s="8"/>
       <c r="B107" s="19" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>61</v>
@@ -8821,22 +8822,22 @@
     <row r="108" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A108" s="8"/>
       <c r="B108" s="19" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>113</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H108" s="10" t="s">
         <v>44</v>
@@ -8875,22 +8876,22 @@
     <row r="109" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A109" s="8"/>
       <c r="B109" s="19" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>113</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H109" s="10" t="s">
         <v>44</v>
@@ -8929,16 +8930,16 @@
     <row r="110" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A110" s="8"/>
       <c r="B110" s="19" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>61</v>
@@ -8983,16 +8984,16 @@
     <row r="111" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A111" s="8"/>
       <c r="B111" s="19" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D111" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="E111" s="21" t="s">
         <v>400</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>398</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>61</v>
@@ -9031,22 +9032,22 @@
         <v>54.004193368538203</v>
       </c>
       <c r="R111" s="23" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A112" s="8"/>
       <c r="B112" s="19" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>61</v>
@@ -9061,7 +9062,7 @@
         <v>25</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K112" s="10" t="s">
         <v>63</v>
@@ -9085,22 +9086,22 @@
         <v>99.645586682707602</v>
       </c>
       <c r="R112" s="23" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="113" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A113" s="8"/>
       <c r="B113" s="19" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>61</v>
@@ -9115,7 +9116,7 @@
         <v>25</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K113" s="10" t="s">
         <v>63</v>
@@ -9139,22 +9140,22 @@
         <v>99.415673267689399</v>
       </c>
       <c r="R113" s="23" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="114" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A114" s="8"/>
       <c r="B114" s="19" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>61</v>
@@ -9169,7 +9170,7 @@
         <v>25</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K114" s="10" t="s">
         <v>63</v>
@@ -9193,22 +9194,22 @@
         <v>99.415673267689399</v>
       </c>
       <c r="R114" s="23" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="115" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A115" s="8"/>
       <c r="B115" s="19" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>61</v>
@@ -9223,7 +9224,7 @@
         <v>25</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K115" s="10" t="s">
         <v>63</v>
@@ -9247,22 +9248,22 @@
         <v>99.137521387025501</v>
       </c>
       <c r="R115" s="23" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="116" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A116" s="8"/>
       <c r="B116" s="19" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>61</v>
@@ -9277,7 +9278,7 @@
         <v>25</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K116" s="10" t="s">
         <v>63</v>
@@ -9301,22 +9302,22 @@
         <v>99.415673267689399</v>
       </c>
       <c r="R116" s="23" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A117" s="8"/>
       <c r="B117" s="19" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>61</v>
@@ -9331,7 +9332,7 @@
         <v>25</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K117" s="10" t="s">
         <v>63</v>
@@ -9355,25 +9356,25 @@
         <v>99.415673267689399</v>
       </c>
       <c r="R117" s="23" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A118" s="8"/>
       <c r="B118" s="19" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>33</v>
@@ -9409,25 +9410,25 @@
         <v>99.843418872396597</v>
       </c>
       <c r="R118" s="23" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A119" s="8"/>
       <c r="B119" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="E119" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="F119" s="10" t="s">
         <v>428</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="D119" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="E119" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>426</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>33</v>
@@ -9463,25 +9464,25 @@
         <v>99.925349570151795</v>
       </c>
       <c r="R119" s="23" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A120" s="8"/>
       <c r="B120" s="19" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>33</v>
@@ -9517,25 +9518,25 @@
         <v>96.327547524363396</v>
       </c>
       <c r="R120" s="23" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="121" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A121" s="8"/>
       <c r="B121" s="19" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G121" s="10" t="s">
         <v>33</v>
@@ -9571,25 +9572,25 @@
         <v>96.440512343593298</v>
       </c>
       <c r="R121" s="23" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="122" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
       <c r="B122" s="19" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>33</v>
@@ -9625,25 +9626,25 @@
         <v>99.151622093891802</v>
       </c>
       <c r="R122" s="23" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="123" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A123" s="8"/>
       <c r="B123" s="19" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G123" s="10" t="s">
         <v>33</v>
@@ -9679,25 +9680,25 @@
         <v>99.151622093891802</v>
       </c>
       <c r="R123" s="23" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="124" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A124" s="8"/>
       <c r="B124" s="19" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G124" s="10" t="s">
         <v>33</v>
@@ -9733,22 +9734,22 @@
         <v>99.926109551608704</v>
       </c>
       <c r="R124" s="23" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A125" s="8"/>
       <c r="B125" s="19" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F125" s="10" t="s">
         <v>43</v>
@@ -9793,16 +9794,16 @@
     <row r="126" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A126" s="8"/>
       <c r="B126" s="19" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>43</v>
@@ -9847,16 +9848,16 @@
     <row r="127" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A127" s="8"/>
       <c r="B127" s="19" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>43</v>
@@ -9901,16 +9902,16 @@
     <row r="128" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A128" s="8"/>
       <c r="B128" s="19" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>43</v>
@@ -9925,7 +9926,7 @@
         <v>25</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K128" s="10">
         <v>2019</v>
@@ -9955,16 +9956,16 @@
     <row r="129" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A129" s="8"/>
       <c r="B129" s="19" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>43</v>
@@ -9979,7 +9980,7 @@
         <v>25</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K129" s="10">
         <v>2019</v>
@@ -10009,16 +10010,16 @@
     <row r="130" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A130" s="8"/>
       <c r="B130" s="19" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>43</v>
@@ -10033,7 +10034,7 @@
         <v>25</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K130" s="10">
         <v>2019</v>
@@ -10063,16 +10064,16 @@
     <row r="131" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A131" s="8"/>
       <c r="B131" s="19" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D131" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="E131" s="21" t="s">
         <v>466</v>
-      </c>
-      <c r="E131" s="21" t="s">
-        <v>464</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>43</v>
@@ -10087,7 +10088,7 @@
         <v>25</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K131" s="10">
         <v>2019</v>
@@ -10117,16 +10118,16 @@
     <row r="132" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A132" s="8"/>
       <c r="B132" s="19" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>43</v>
@@ -10171,16 +10172,16 @@
     <row r="133" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A133" s="8"/>
       <c r="B133" s="19" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>43</v>
@@ -10225,16 +10226,16 @@
     <row r="134" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A134" s="8"/>
       <c r="B134" s="19" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F134" s="24" t="s">
         <v>43</v>
@@ -10249,7 +10250,7 @@
         <v>25</v>
       </c>
       <c r="J134" s="24" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K134" s="24">
         <v>2019</v>
@@ -10279,16 +10280,16 @@
     <row r="135" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A135" s="8"/>
       <c r="B135" s="19" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D135" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="E135" s="21" t="s">
         <v>475</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>473</v>
       </c>
       <c r="F135" s="24" t="s">
         <v>43</v>
@@ -10303,7 +10304,7 @@
         <v>25</v>
       </c>
       <c r="J135" s="24" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K135" s="24">
         <v>2019</v>
@@ -10333,16 +10334,16 @@
     <row r="136" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A136" s="8"/>
       <c r="B136" s="19" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>37</v>
@@ -10381,22 +10382,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R136" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A137" s="8"/>
       <c r="B137" s="19" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>37</v>
@@ -10435,22 +10436,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R137" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A138" s="8"/>
       <c r="B138" s="19" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>37</v>
@@ -10489,22 +10490,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R138" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="139" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A139" s="8"/>
       <c r="B139" s="19" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>37</v>
@@ -10543,22 +10544,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R139" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="140" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A140" s="8"/>
       <c r="B140" s="19" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>37</v>
@@ -10597,22 +10598,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R140" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="141" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A141" s="8"/>
       <c r="B141" s="19" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>37</v>
@@ -10651,22 +10652,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R141" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="142" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A142" s="8"/>
       <c r="B142" s="19" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F142" s="10" t="s">
         <v>37</v>
@@ -10705,22 +10706,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R142" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="143" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A143" s="8"/>
       <c r="B143" s="19" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>37</v>
@@ -10759,76 +10760,76 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R143" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="144" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A144" s="8"/>
       <c r="B144" s="19" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>92</v>
+        <v>508</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="J144" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K144" s="10" t="s">
-        <v>92</v>
+        <v>125</v>
+      </c>
+      <c r="K144" s="10">
+        <v>2018</v>
       </c>
       <c r="L144" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="M144" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="N144" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="O144" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="P144" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="Q144" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="R144" s="23" t="s">
-        <v>92</v>
+        <v>482</v>
       </c>
     </row>
     <row r="145" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A145" s="8"/>
       <c r="B145" s="19" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D145" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="E145" s="21" t="s">
         <v>507</v>
-      </c>
-      <c r="E145" s="21" t="s">
-        <v>505</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>43</v>
@@ -10849,94 +10850,94 @@
         <v>2018</v>
       </c>
       <c r="L145" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="M145" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="N145" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="O145" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="P145" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="Q145" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="R145" s="23" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A146" s="8"/>
       <c r="B146" s="19" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>92</v>
+        <v>508</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="J146" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K146" s="10" t="s">
-        <v>92</v>
+        <v>125</v>
+      </c>
+      <c r="K146" s="10">
+        <v>2018</v>
       </c>
       <c r="L146" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="M146" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="N146" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="O146" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="P146" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="Q146" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="R146" s="23" t="s">
-        <v>92</v>
+        <v>482</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A147" s="8"/>
       <c r="B147" s="19" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D147" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="E147" s="21" t="s">
         <v>514</v>
-      </c>
-      <c r="E147" s="21" t="s">
-        <v>512</v>
       </c>
       <c r="F147" s="10" t="s">
         <v>43</v>
@@ -10957,94 +10958,94 @@
         <v>2018</v>
       </c>
       <c r="L147" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="M147" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="N147" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="O147" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="P147" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="Q147" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="R147" s="23" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A148" s="8"/>
       <c r="B148" s="19" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>92</v>
+        <v>508</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="J148" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K148" s="10" t="s">
-        <v>92</v>
+        <v>125</v>
+      </c>
+      <c r="K148" s="10">
+        <v>2018</v>
       </c>
       <c r="L148" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="M148" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="N148" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="O148" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="P148" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="Q148" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="R148" s="23" t="s">
-        <v>92</v>
+        <v>482</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A149" s="8"/>
       <c r="B149" s="19" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D149" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="E149" s="21" t="s">
         <v>519</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>517</v>
       </c>
       <c r="F149" s="10" t="s">
         <v>43</v>
@@ -11065,94 +11066,94 @@
         <v>2018</v>
       </c>
       <c r="L149" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="M149" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="N149" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="O149" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="P149" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="Q149" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="R149" s="23" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="150" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A150" s="8"/>
       <c r="B150" s="19" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E150" s="21" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>92</v>
+        <v>508</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="J150" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K150" s="10" t="s">
-        <v>92</v>
+        <v>125</v>
+      </c>
+      <c r="K150" s="10">
+        <v>2018</v>
       </c>
       <c r="L150" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="M150" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="N150" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="O150" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="P150" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="Q150" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="R150" s="23" t="s">
-        <v>92</v>
+        <v>482</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A151" s="8"/>
       <c r="B151" s="19" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D151" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="E151" s="21" t="s">
         <v>524</v>
-      </c>
-      <c r="E151" s="21" t="s">
-        <v>522</v>
       </c>
       <c r="F151" s="10" t="s">
         <v>43</v>
@@ -11173,94 +11174,94 @@
         <v>2018</v>
       </c>
       <c r="L151" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="M151" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="N151" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="O151" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="P151" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="Q151" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="R151" s="23" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A152" s="8"/>
       <c r="B152" s="19" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>92</v>
+        <v>508</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="J152" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K152" s="10" t="s">
-        <v>92</v>
+        <v>125</v>
+      </c>
+      <c r="K152" s="10">
+        <v>2018</v>
       </c>
       <c r="L152" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="M152" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="N152" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="O152" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="P152" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="Q152" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="R152" s="23" t="s">
-        <v>92</v>
+        <v>482</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A153" s="8"/>
       <c r="B153" s="19" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D153" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="E153" s="21" t="s">
         <v>529</v>
-      </c>
-      <c r="E153" s="21" t="s">
-        <v>527</v>
       </c>
       <c r="F153" s="10" t="s">
         <v>43</v>
@@ -11281,40 +11282,40 @@
         <v>2018</v>
       </c>
       <c r="L153" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="M153" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="N153" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="O153" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="P153" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="Q153" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="R153" s="23" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A154" s="8"/>
       <c r="B154" s="19" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>103</v>
@@ -11335,40 +11336,40 @@
         <v>2018</v>
       </c>
       <c r="L154" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="M154" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="N154" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="O154" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="P154" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="Q154" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="R154" s="23" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A155" s="8"/>
       <c r="B155" s="19" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F155" s="10" t="s">
         <v>103</v>
@@ -11389,40 +11390,40 @@
         <v>2018</v>
       </c>
       <c r="L155" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="M155" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="N155" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="O155" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="P155" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="Q155" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="R155" s="23" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="156" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A156" s="8"/>
       <c r="B156" s="19" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F156" s="10" t="s">
         <v>43</v>
@@ -11467,70 +11468,70 @@
     <row r="157" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A157" s="8"/>
       <c r="B157" s="19" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="H157" s="10" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="I157" s="10" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="J157" s="10" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="K157" s="10" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="L157" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="M157" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="N157" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="O157" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="P157" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="Q157" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="R157" s="23" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A158" s="8"/>
       <c r="B158" s="19" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>43</v>
@@ -11569,22 +11570,22 @@
         <v>28.824739991375498</v>
       </c>
       <c r="R158" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A159" s="8"/>
       <c r="B159" s="19" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F159" s="10" t="s">
         <v>43</v>
@@ -11614,31 +11615,31 @@
         <v>99.854977902943503</v>
       </c>
       <c r="O159" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="P159" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="Q159" s="22" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="R159" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="160" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A160" s="8"/>
       <c r="B160" s="19" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F160" s="10" t="s">
         <v>43</v>
@@ -11677,22 +11678,22 @@
         <v>100</v>
       </c>
       <c r="R160" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="161" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A161" s="8"/>
       <c r="B161" s="19" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F161" s="10" t="s">
         <v>43</v>
@@ -11731,22 +11732,22 @@
         <v>100</v>
       </c>
       <c r="R161" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A162" s="8"/>
       <c r="B162" s="19" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F162" s="10" t="s">
         <v>43</v>
@@ -11785,22 +11786,22 @@
         <v>100</v>
       </c>
       <c r="R162" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="163" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A163" s="8"/>
       <c r="B163" s="19" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F163" s="10" t="s">
         <v>43</v>
@@ -11839,22 +11840,22 @@
         <v>82.892978726599907</v>
       </c>
       <c r="R163" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A164" s="8"/>
       <c r="B164" s="19" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F164" s="10" t="s">
         <v>37</v>
@@ -11893,22 +11894,22 @@
         <v>98.101855024483996</v>
       </c>
       <c r="R164" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A165" s="8"/>
       <c r="B165" s="19" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D165" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="E165" s="21" t="s">
         <v>566</v>
-      </c>
-      <c r="E165" s="21" t="s">
-        <v>564</v>
       </c>
       <c r="F165" s="10" t="s">
         <v>37</v>
@@ -11947,22 +11948,22 @@
         <v>98.101855024483996</v>
       </c>
       <c r="R165" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="166" spans="1:18" ht="126" x14ac:dyDescent="0.35">
       <c r="A166" s="8"/>
       <c r="B166" s="19" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F166" s="10" t="s">
         <v>37</v>
@@ -12001,22 +12002,22 @@
         <v>98.101855024483996</v>
       </c>
       <c r="R166" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="167" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A167" s="8"/>
       <c r="B167" s="19" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F167" s="10" t="s">
         <v>43</v>
@@ -12031,7 +12032,7 @@
         <v>45</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K167" s="10">
         <v>2019</v>
@@ -12061,16 +12062,16 @@
     <row r="168" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A168" s="8"/>
       <c r="B168" s="19" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F168" s="10" t="s">
         <v>43</v>
@@ -12109,22 +12110,22 @@
         <v>47.250899348413199</v>
       </c>
       <c r="R168" s="23" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A169" s="8"/>
       <c r="B169" s="19" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>43</v>
@@ -12163,22 +12164,22 @@
         <v>99.9979269779178</v>
       </c>
       <c r="R169" s="23" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="170" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A170" s="8"/>
       <c r="B170" s="19" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E170" s="21" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F170" s="10" t="s">
         <v>43</v>
@@ -12217,22 +12218,22 @@
         <v>99.360149288611197</v>
       </c>
       <c r="R170" s="23" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A171" s="8"/>
       <c r="B171" s="19" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F171" s="24" t="s">
         <v>43</v>
@@ -12271,22 +12272,22 @@
         <v>47.161247218243403</v>
       </c>
       <c r="R171" s="23" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A172" s="8"/>
       <c r="B172" s="19" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F172" s="10" t="s">
         <v>43</v>
@@ -12301,7 +12302,7 @@
         <v>45</v>
       </c>
       <c r="J172" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K172" s="10">
         <v>2019</v>
@@ -12331,16 +12332,16 @@
     <row r="173" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A173" s="8"/>
       <c r="B173" s="19" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E173" s="21" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F173" s="10" t="s">
         <v>37</v>
@@ -12355,7 +12356,7 @@
         <v>25</v>
       </c>
       <c r="J173" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K173" s="10">
         <v>2019</v>
@@ -12385,16 +12386,16 @@
     <row r="174" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A174" s="8"/>
       <c r="B174" s="19" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F174" s="10" t="s">
         <v>37</v>
@@ -12433,22 +12434,22 @@
         <v>47.250899348413199</v>
       </c>
       <c r="R174" s="23" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="175" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A175" s="8"/>
       <c r="B175" s="19" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E175" s="21" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F175" s="10" t="s">
         <v>37</v>
@@ -12487,22 +12488,22 @@
         <v>99.9979269779178</v>
       </c>
       <c r="R175" s="23" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="176" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A176" s="8"/>
       <c r="B176" s="19" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E176" s="21" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F176" s="10" t="s">
         <v>37</v>
@@ -12541,22 +12542,22 @@
         <v>99.360149288611197</v>
       </c>
       <c r="R176" s="23" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="177" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A177" s="8"/>
       <c r="B177" s="19" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F177" s="24" t="s">
         <v>37</v>
@@ -12595,22 +12596,22 @@
         <v>47.161247218243403</v>
       </c>
       <c r="R177" s="23" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="178" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A178" s="8"/>
       <c r="B178" s="19" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E178" s="21" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F178" s="10" t="s">
         <v>37</v>
@@ -12625,7 +12626,7 @@
         <v>25</v>
       </c>
       <c r="J178" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K178" s="10">
         <v>2019</v>
@@ -12655,19 +12656,19 @@
     <row r="179" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A179" s="8"/>
       <c r="B179" s="19" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E179" s="21" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G179" s="10" t="s">
         <v>23</v>
@@ -12703,25 +12704,25 @@
         <v>100</v>
       </c>
       <c r="R179" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="180" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A180" s="8"/>
       <c r="B180" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="D180" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="E180" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="F180" s="10" t="s">
         <v>612</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="D180" s="21" t="s">
-        <v>613</v>
-      </c>
-      <c r="E180" s="21" t="s">
-        <v>614</v>
-      </c>
-      <c r="F180" s="10" t="s">
-        <v>610</v>
       </c>
       <c r="G180" s="10" t="s">
         <v>23</v>
@@ -12757,25 +12758,25 @@
         <v>100</v>
       </c>
       <c r="R180" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="181" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A181" s="8"/>
       <c r="B181" s="19" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E181" s="21" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G181" s="10" t="s">
         <v>23</v>
@@ -12811,25 +12812,25 @@
         <v>100</v>
       </c>
       <c r="R181" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="182" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A182" s="8"/>
       <c r="B182" s="19" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E182" s="21" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G182" s="10" t="s">
         <v>23</v>
@@ -12865,25 +12866,25 @@
         <v>100</v>
       </c>
       <c r="R182" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="183" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A183" s="8"/>
       <c r="B183" s="19" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E183" s="21" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G183" s="10" t="s">
         <v>23</v>
@@ -12919,22 +12920,22 @@
         <v>97.865542171591699</v>
       </c>
       <c r="R183" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="184" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A184" s="8"/>
       <c r="B184" s="19" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F184" s="10" t="s">
         <v>37</v>
@@ -12973,22 +12974,22 @@
         <v>80.374784695925101</v>
       </c>
       <c r="R184" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="185" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A185" s="8"/>
       <c r="B185" s="19" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F185" s="10" t="s">
         <v>37</v>
@@ -13027,22 +13028,22 @@
         <v>62.773000731942602</v>
       </c>
       <c r="R185" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="186" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A186" s="8"/>
       <c r="B186" s="19" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E186" s="21" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F186" s="10" t="s">
         <v>37</v>
@@ -13081,22 +13082,22 @@
         <v>80.374784695925101</v>
       </c>
       <c r="R186" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="187" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A187" s="8"/>
       <c r="B187" s="19" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D187" s="21" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F187" s="10" t="s">
         <v>37</v>
@@ -13135,21 +13136,21 @@
         <v>80.374784695925101</v>
       </c>
       <c r="R187" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="188" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B188" s="19" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F188" s="10" t="s">
         <v>37</v>
@@ -13188,21 +13189,21 @@
         <v>80.214758770103501</v>
       </c>
       <c r="R188" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="189" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B189" s="19" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D189" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="E189" s="21" t="s">
         <v>640</v>
-      </c>
-      <c r="E189" s="21" t="s">
-        <v>638</v>
       </c>
       <c r="F189" s="10" t="s">
         <v>37</v>
@@ -13241,27 +13242,27 @@
         <v>62.4940774363385</v>
       </c>
       <c r="R189" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="190" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="B190" s="19" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H190" s="10" t="s">
         <v>24</v>
@@ -13270,7 +13271,7 @@
         <v>25</v>
       </c>
       <c r="J190" s="10" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K190" s="10">
         <v>2017</v>
@@ -13294,24 +13295,24 @@
         <v>99.188230508835801</v>
       </c>
       <c r="R190" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="191" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B191" s="19" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E191" s="21" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G191" s="10" t="s">
         <v>50</v>
@@ -13347,24 +13348,24 @@
         <v>99.853199946495096</v>
       </c>
       <c r="R191" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="192" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B192" s="19" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E192" s="21" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="G192" s="10" t="s">
         <v>50</v>
@@ -13400,24 +13401,24 @@
         <v>97.763984930637804</v>
       </c>
       <c r="R192" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="193" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B193" s="19" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G193" s="10" t="s">
         <v>33</v>
@@ -13453,7 +13454,7 @@
         <v>99.512887922378496</v>
       </c>
       <c r="R193" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="194" spans="2:18" x14ac:dyDescent="0.35">
@@ -13495,7 +13496,7 @@
     </row>
     <row r="196" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B196" s="25" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C196" s="20"/>
       <c r="D196" s="21"/>
@@ -13534,7 +13535,7 @@
     </row>
     <row r="198" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B198" s="26" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C198"/>
       <c r="E198"/>
@@ -13547,12 +13548,12 @@
     </row>
     <row r="199" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B199" s="26" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="200" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B200" s="26" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/DDAf_2021_Liste_des_indicateurs.xlsx
+++ b/DDAf_2021_Liste_des_indicateurs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="668">
   <si>
     <t>Liste des indicateurs, descriptions et détails</t>
   </si>
@@ -1659,6 +1659,15 @@
     <t>Tiré des Perspectives de l'économie mondiale. Exportations totales en % du PIB. Voir l'annexe statistique des dernières Perspectives de l'économie mondiale pour plus d'informations :</t>
   </si>
   <si>
+    <t>HHIProd</t>
+  </si>
+  <si>
+    <t>Indice de concentration Herfindahl-Hirschmann des produits d'exportation</t>
+  </si>
+  <si>
+    <t>Calculs des auteurs basés sur la base de données en ligne COMTRADE WITS. L'indice de concentration Herfindahl-Hirschmann (HHI) est une mesure de la concentration construite comme la somme des carrés des parts sectorielles et normalisée pour se trouver entre 0 à 1. L'indice HHI calculé sur les produits d'exportation ici est calculé sur les données communiquées par UN Comtrade ensemble de données sur les exportations à un niveau de désagrégation à quatre chiffres selon le code de produit du Système harmonisé de 1996. L'IHH est calculé comme la somme des carrés des exportations totales pour chaque produit en pourcentage de toutes les exportations (exprimées en fractions). Par construction, l'indice est donc toujours compris entre 0 et 1, atteignant 1 lorsque les exportations sont concentrées au maximum, avec un seul produit d'exportation, et est plus faible lorsque les exportations sont plus diversifiées.</t>
+  </si>
+  <si>
     <t>RECExpPct</t>
   </si>
   <si>
@@ -1761,6 +1770,9 @@
     <t>APD nette rapportée par le Comité d'évaluation du développement de l'OCDE, provenant de tous les donateurs, en dollars américains aux prix courants en % du PIB en dollars américains selon les Perspectives de l'économie mondiale.</t>
   </si>
   <si>
+    <t>Aide publique au développement (APD) communiquée par le Comité d'aide au développement de l'OCDE (dernière mise à jour le 21/01/2021)</t>
+  </si>
+  <si>
     <t>UNCTADFDIPGD</t>
   </si>
   <si>
@@ -1770,7 +1782,7 @@
     <t>Flux entrants d'investissement direct étranger (IDE) en millions de dollars. Ces chiffres correspondent à la définition de l’IED. Ils figurent dans le Manuel de la balance des paiements : cinquième édition (MBP5) (Washington, Fonds monétaire international, 1993) et dans la Définition de référence détaillée de l’investissement direct étranger : troisième édition (BD3) (Paris). Organisation de coopération et de développement économiques, 1996). "IDE désigne un investissement réalisé pour acquérir un intérêt durable dans des entreprises exerçant des activités en dehors de l'économie de l'investisseur. En outre, en cas d'IDE, l'objectif de l'investisseur est de se faire entendre de manière efficace dans la gestion de l'entreprise. L'entité étrangère ou un groupe d'entités associées qui réalise l'investissement est appelé «investisseur direct». L'entreprise non constituée en société ou constituée en société - une succursale ou une filiale, respectivement, dans laquelle un investissement direct est réalisé - est appelée «entreprise d'investissement direct». la participation au capital est presque toujours considérée comme associée à une voix efficace dans la gestion d’une entreprise; le MBP5 suggère un seuil de 10% de la participation au capital permettant de qualifier un investisseur en tant qu’investisseur direct étranger. " Pour plus d'information, voir :</t>
   </si>
   <si>
-    <t>Aide publique au développement (APD) communiquée par le Comité d'aide au développement de l'OCDE (dernière mise à jour le 21/01/2021)</t>
+    <t>UNCTADStat Online Data Center, FDI Online Database (mis à jour le 20/01/2020)</t>
   </si>
   <si>
     <t>RemitPGD</t>
@@ -1782,7 +1794,7 @@
     <t>Calculs du personnel de la Banque mondiale basés sur les données de la base de données du FMI sur la statistique de la balance des paiements et sur les données communiquées par les banques centrales, les agences nationales de statistique et les bureaux de pays de la Banque mondiale. Voir Migration and Development Brief 28, Annexe A pour plus de détails. Tous les chiffres sont en dollars courants (nominaux). Pour une discussion sur la définition des envois de fonds, voir Dilip Ratha, 2003, "Les envois de fonds des travailleurs : une source importante et stable de financement extérieur du développement", Global Development Finance 2003, Banque mondiale. Les données depuis 2005 sont basées sur les statistiques de la balance des paiements du FMI qui utilisent les définitions du MBP6 du FMI. Les données du PIB proviennent du WDI.  Pour les dernières données et analyses sur les migrations et les envois de fonds, veuillez consulter :</t>
   </si>
   <si>
-    <t>UNCTADStat Online Data Center, FDI Online Database (mis à jour le 20/01/2020)</t>
+    <t>Données de la Banque mondiale sur les migrations et les envois de fonds (octobre 2020)</t>
   </si>
   <si>
     <t>TotalFinInflowsPGD</t>
@@ -1794,7 +1806,7 @@
     <t>Somme des entrées d'investissements de portefeuille, des entrées APD nette rapportée, d’investissements directs étrangers et les remises en pourcentage du PIB, telle que calculée par les auteurs.</t>
   </si>
   <si>
-    <t>Données de la Banque mondiale sur les migrations et les envois de fonds (octobre 2020)</t>
+    <t>Calculs des auteurs fondés sur les données de flux financiers du FMI, du Comité d'aide au développement de l'OCDE, de la CNUCED et de la Banque mondiale</t>
   </si>
   <si>
     <t>GrNatSavPrvPGD</t>
@@ -1803,9 +1815,6 @@
     <t>Épargne privée brute en % du PIB</t>
   </si>
   <si>
-    <t>Calculs des auteurs fondés sur les données de flux financiers du FMI, du Comité d'aide au développement de l'OCDE, de la CNUCED et de la Banque mondiale</t>
-  </si>
-  <si>
     <t>PortfolioInFl</t>
   </si>
   <si>
@@ -1860,6 +1869,12 @@
     <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): &lt;&lt; Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT. " Pour plus d'informations, veuillez consulter:</t>
   </si>
   <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>Données en ligne de FAOStat, Organisation des Nations Unies pour l'alimentation et l'agriculture (récupéré le 06/11/2020)</t>
+  </si>
+  <si>
     <t>AgricLand</t>
   </si>
   <si>
@@ -1869,12 +1884,6 @@
     <t>Depuis le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO): Les terres agricoles sont définies comme les terres utilisées pour la culture des cultures et l'élevage. Le total des superficies sous '' Terres cultivées '' et '' Prairies et pâturages permanents ''. &lt;&lt; Les données sont collectées auprès des membres de la FAO dans le cadre du questionnaire annuel de la FAO sur l'utilisation des terres, l'irrigation et les pratiques agricoles. Les données manquantes peuvent provenir d'annuaires statistiques nationaux et d'autres portails officiels de données du gouvernement. études et rapports sectoriels, ainsi que des informations statistiques sur l'occupation des sols compilées par la FAO et diffusées dans FAOSTAT. " Pour plus d'informations, veuillez consulter:</t>
   </si>
   <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>Données en ligne de FAOStat, Organisation des Nations Unies pour l'alimentation et l'agriculture (récupéré le 06/11/2020)</t>
-  </si>
-  <si>
     <t>CropLand</t>
   </si>
   <si>
@@ -1962,6 +1971,12 @@
     <t>Approvisionnement alimentaire (kcal / habitant / jour)</t>
   </si>
   <si>
+    <t>kcal/capita/jour</t>
+  </si>
+  <si>
+    <t>2014-2017</t>
+  </si>
+  <si>
     <t>NitUse</t>
   </si>
   <si>
@@ -1971,10 +1986,7 @@
     <t>À partir du portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO). La principale source de données pour la production et l'utilisation agricole est le questionnaire FAOSTAT sur les engrais, complété par des publications nationales lorsqu'elles sont disponibles. L'utilisation agricole d'engrais fait référence à l'utilisation pour les cultures, l'élevage, la foresterie, la pêche et l'aquaculture, à l'exclusion de l'utilisation pour l'alimentation animale. Les tonnes d'azote nutritif sont calculées à l'aide de facteurs de conversion appliqués aux volumes d'engrais azotés. Pour plus d'informations, veuillez consulter:</t>
   </si>
   <si>
-    <t>kcal/capita/jour</t>
-  </si>
-  <si>
-    <t>2014-2017</t>
+    <t>tonnes</t>
   </si>
   <si>
     <t>NitUseArea</t>
@@ -1986,7 +1998,7 @@
     <t>À partir du jeu de données sur les engrais synthétiques dans Emissions - Agriculture dans FAOStat. Quantité d'azote nutritif utilisée pour l'agriculture en kg d'éléments nutritifs.</t>
   </si>
   <si>
-    <t>tonnes</t>
+    <t>kg/hectare</t>
   </si>
   <si>
     <t>CarbStock</t>
@@ -1998,9 +2010,6 @@
     <t>Calculs de l'auteur basés sur les données de FAOStat.Variable dérivée constituée du rapport entre la quantité d'engrais azoté utilisée pour l'agriculture et la quantité de terres arables, en kg d'azote par hectare.</t>
   </si>
   <si>
-    <t>kg/hectare</t>
-  </si>
-  <si>
     <t>TotAgGHG</t>
   </si>
   <si>
@@ -2008,6 +2017,12 @@
   </si>
   <si>
     <t>Sur le portail de données en ligne FAOSTAT géré par la Division de statistique de l'Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO). Agriculture Total contient toutes les émissions produites dans les différents sous-domaines d'émissions agricoles (fermentation entérique, gestion du fumier, riziculture, engrais synthétiques, fumier épandu sur les sols, fumier laissé sur les pâturages, résidus de cultures, culture de sols organiques, brûlage des résidus de culture , brûlage de savane, consommation d'énergie), donnant une image de la contribution au montant total des émissions de GES de l'agriculture. Les émissions de GES de l'agriculture sont constituées de gaz sans CO2, à savoir le méthane (CH4) et l'oxyde nitreux (N2O), produits par les activités de production et de gestion des cultures et de l'élevage. Pour en savoir plus sur la méthodologie de calcul du stock de carbone, veuillez consulter:</t>
+  </si>
+  <si>
+    <t>gigagrammes</t>
+  </si>
+  <si>
+    <t>2000-2050</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2021-fr.</t>
@@ -2816,7 +2831,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table5" displayName="Table5" ref="B3:R193" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table5" displayName="Table5" ref="B3:R194" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <tableColumns count="17">
     <tableColumn id="1" name="Code" dataDxfId="2"/>
     <tableColumn id="7" name="Tableau" dataDxfId="0" dataCellStyle="Hyperlink"/>
@@ -3103,7 +3118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R200"/>
+  <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -11465,36 +11480,36 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A157" s="8"/>
       <c r="B157" s="19" t="s">
         <v>542</v>
       </c>
       <c r="C157" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D157" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="D157" s="21" t="s">
+      <c r="E157" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="E157" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="F157" s="10" t="s">
+      <c r="F157" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="G157" s="10" t="s">
+      <c r="G157" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="H157" s="10" t="s">
+      <c r="H157" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="I157" s="10" t="s">
+      <c r="I157" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="J157" s="10" t="s">
+      <c r="J157" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="K157" s="10" t="s">
+      <c r="K157" s="24" t="s">
         <v>509</v>
       </c>
       <c r="L157" s="22" t="s">
@@ -11519,13 +11534,13 @@
         <v>482</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A158" s="8"/>
       <c r="B158" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="C158" s="12" t="s">
         <v>546</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>543</v>
       </c>
       <c r="D158" s="21" t="s">
         <v>547</v>
@@ -11573,13 +11588,13 @@
         <v>482</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A159" s="8"/>
       <c r="B159" s="19" t="s">
         <v>549</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D159" s="21" t="s">
         <v>550</v>
@@ -11633,7 +11648,7 @@
         <v>552</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D160" s="21" t="s">
         <v>553</v>
@@ -11681,13 +11696,13 @@
         <v>482</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A161" s="8"/>
       <c r="B161" s="19" t="s">
         <v>555</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D161" s="21" t="s">
         <v>556</v>
@@ -11735,13 +11750,13 @@
         <v>482</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A162" s="8"/>
       <c r="B162" s="19" t="s">
         <v>558</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D162" s="21" t="s">
         <v>559</v>
@@ -11789,13 +11804,13 @@
         <v>482</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A163" s="8"/>
       <c r="B163" s="19" t="s">
         <v>561</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D163" s="21" t="s">
         <v>562</v>
@@ -11843,13 +11858,13 @@
         <v>482</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A164" s="8"/>
       <c r="B164" s="19" t="s">
         <v>564</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D164" s="21" t="s">
         <v>565</v>
@@ -11903,13 +11918,13 @@
         <v>567</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D165" s="21" t="s">
         <v>568</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F165" s="10" t="s">
         <v>37</v>
@@ -11951,19 +11966,19 @@
         <v>482</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A166" s="8"/>
       <c r="B166" s="19" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="D166" s="21" t="s">
         <v>571</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F166" s="10" t="s">
         <v>37</v>
@@ -12005,13 +12020,13 @@
         <v>482</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" ht="126" x14ac:dyDescent="0.35">
       <c r="A167" s="8"/>
       <c r="B167" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="C167" s="12" t="s">
         <v>573</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>570</v>
       </c>
       <c r="D167" s="21" t="s">
         <v>574</v>
@@ -12059,13 +12074,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A168" s="8"/>
       <c r="B168" s="19" t="s">
         <v>576</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D168" s="21" t="s">
         <v>577</v>
@@ -12113,13 +12128,13 @@
         <v>579</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A169" s="8"/>
       <c r="B169" s="19" t="s">
         <v>580</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D169" s="21" t="s">
         <v>581</v>
@@ -12167,13 +12182,13 @@
         <v>583</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A170" s="8"/>
       <c r="B170" s="19" t="s">
         <v>584</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D170" s="21" t="s">
         <v>585</v>
@@ -12227,30 +12242,30 @@
         <v>588</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D171" s="21" t="s">
         <v>589</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="F171" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G171" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H171" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H171" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I171" s="24" t="s">
+      <c r="I171" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J171" s="24" t="s">
+      <c r="J171" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="K171" s="24">
+      <c r="K171" s="10">
         <v>2019</v>
       </c>
       <c r="L171" s="22">
@@ -12272,39 +12287,39 @@
         <v>47.161247218243403</v>
       </c>
       <c r="R171" s="23" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A172" s="8"/>
       <c r="B172" s="19" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>593</v>
-      </c>
-      <c r="F172" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G172" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H172" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="F172" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G172" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H172" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I172" s="10" t="s">
+      <c r="I172" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="J172" s="10" t="s">
+      <c r="J172" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="K172" s="10">
+      <c r="K172" s="24">
         <v>2019</v>
       </c>
       <c r="L172" s="22">
@@ -12329,13 +12344,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A173" s="8"/>
       <c r="B173" s="19" t="s">
         <v>594</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D173" s="21" t="s">
         <v>595</v>
@@ -12383,19 +12398,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A174" s="8"/>
       <c r="B174" s="19" t="s">
         <v>597</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D174" s="21" t="s">
         <v>598</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="F174" s="10" t="s">
         <v>37</v>
@@ -12437,16 +12452,16 @@
         <v>579</v>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A175" s="8"/>
       <c r="B175" s="19" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E175" s="21" t="s">
         <v>582</v>
@@ -12491,16 +12506,16 @@
         <v>583</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A176" s="8"/>
       <c r="B176" s="19" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E176" s="21" t="s">
         <v>586</v>
@@ -12548,33 +12563,33 @@
     <row r="177" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A177" s="8"/>
       <c r="B177" s="19" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="F177" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="F177" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G177" s="24" t="s">
+      <c r="G177" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H177" s="24" t="s">
+      <c r="H177" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I177" s="24" t="s">
+      <c r="I177" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J177" s="24" t="s">
+      <c r="J177" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="K177" s="24">
+      <c r="K177" s="10">
         <v>2019</v>
       </c>
       <c r="L177" s="22">
@@ -12596,39 +12611,39 @@
         <v>47.161247218243403</v>
       </c>
       <c r="R177" s="23" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A178" s="8"/>
       <c r="B178" s="19" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="D178" s="21" t="s">
         <v>607</v>
       </c>
       <c r="E178" s="21" t="s">
-        <v>608</v>
-      </c>
-      <c r="F178" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="F178" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G178" s="10" t="s">
+      <c r="G178" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H178" s="10" t="s">
+      <c r="H178" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I178" s="10" t="s">
+      <c r="I178" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J178" s="10" t="s">
+      <c r="J178" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="K178" s="10">
+      <c r="K178" s="24">
         <v>2019</v>
       </c>
       <c r="L178" s="22">
@@ -12653,13 +12668,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A179" s="8"/>
       <c r="B179" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="C179" s="12" t="s">
         <v>609</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>606</v>
       </c>
       <c r="D179" s="21" t="s">
         <v>610</v>
@@ -12713,7 +12728,7 @@
         <v>614</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D180" s="21" t="s">
         <v>615</v>
@@ -12761,13 +12776,13 @@
         <v>613</v>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A181" s="8"/>
       <c r="B181" s="19" t="s">
         <v>617</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D181" s="21" t="s">
         <v>618</v>
@@ -12821,7 +12836,7 @@
         <v>620</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D182" s="21" t="s">
         <v>621</v>
@@ -12869,13 +12884,13 @@
         <v>613</v>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A183" s="8"/>
       <c r="B183" s="19" t="s">
         <v>623</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D183" s="21" t="s">
         <v>624</v>
@@ -12929,7 +12944,7 @@
         <v>626</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D184" s="21" t="s">
         <v>627</v>
@@ -12983,7 +12998,7 @@
         <v>629</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D185" s="21" t="s">
         <v>630</v>
@@ -13037,7 +13052,7 @@
         <v>632</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D186" s="21" t="s">
         <v>633</v>
@@ -13091,7 +13106,7 @@
         <v>635</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D187" s="21" t="s">
         <v>636</v>
@@ -13144,7 +13159,7 @@
         <v>638</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D188" s="21" t="s">
         <v>639</v>
@@ -13197,13 +13212,13 @@
         <v>641</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D189" s="21" t="s">
         <v>642</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F189" s="10" t="s">
         <v>37</v>
@@ -13245,18 +13260,18 @@
         <v>613</v>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B190" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="E190" s="21" t="s">
         <v>643</v>
-      </c>
-      <c r="C190" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="D190" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="E190" s="21" t="s">
-        <v>645</v>
       </c>
       <c r="F190" s="10" t="s">
         <v>646</v>
@@ -13298,12 +13313,12 @@
         <v>613</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="B191" s="19" t="s">
         <v>648</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D191" s="21" t="s">
         <v>649</v>
@@ -13356,7 +13371,7 @@
         <v>652</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D192" s="21" t="s">
         <v>653</v>
@@ -13404,12 +13419,12 @@
         <v>613</v>
       </c>
     </row>
-    <row r="193" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B193" s="19" t="s">
         <v>656</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D193" s="21" t="s">
         <v>657</v>
@@ -13457,26 +13472,61 @@
         <v>613</v>
       </c>
     </row>
-    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B194" s="19"/>
-      <c r="C194" s="20"/>
-      <c r="D194" s="21"/>
-      <c r="E194" s="21"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10"/>
-      <c r="K194" s="10"/>
-      <c r="L194" s="22"/>
-      <c r="M194" s="22"/>
-      <c r="N194" s="22"/>
-      <c r="O194" s="22"/>
-      <c r="P194" s="22"/>
-      <c r="Q194" s="22"/>
-      <c r="R194" s="23"/>
+    <row r="194" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="B194" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="D194" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="E194" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="F194" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="G194" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H194" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I194" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J194" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="K194" s="10">
+        <v>2017</v>
+      </c>
+      <c r="L194" s="22">
+        <v>100</v>
+      </c>
+      <c r="M194" s="22">
+        <v>100</v>
+      </c>
+      <c r="N194" s="22">
+        <v>100</v>
+      </c>
+      <c r="O194" s="22">
+        <v>100</v>
+      </c>
+      <c r="P194" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q194" s="22">
+        <v>100</v>
+      </c>
+      <c r="R194" s="23" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="195" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B195" s="19"/>
       <c r="C195" s="20"/>
       <c r="D195" s="21"/>
       <c r="E195" s="21"/>
@@ -13494,10 +13544,7 @@
       <c r="Q195" s="22"/>
       <c r="R195" s="23"/>
     </row>
-    <row r="196" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B196" s="25" t="s">
-        <v>659</v>
-      </c>
+    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C196" s="20"/>
       <c r="D196" s="21"/>
       <c r="E196" s="21"/>
@@ -13515,7 +13562,10 @@
       <c r="Q196" s="22"/>
       <c r="R196" s="23"/>
     </row>
-    <row r="197" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B197" s="25" t="s">
+        <v>664</v>
+      </c>
       <c r="C197" s="20"/>
       <c r="D197" s="21"/>
       <c r="E197" s="21"/>
@@ -13534,34 +13584,52 @@
       <c r="R197" s="23"/>
     </row>
     <row r="198" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B198" s="26" t="s">
-        <v>660</v>
-      </c>
-      <c r="C198"/>
-      <c r="E198"/>
-      <c r="J198"/>
-      <c r="K198"/>
-      <c r="L198"/>
-      <c r="M198"/>
-      <c r="N198"/>
-      <c r="O198"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="10"/>
+      <c r="K198" s="10"/>
+      <c r="L198" s="22"/>
+      <c r="M198" s="22"/>
+      <c r="N198" s="22"/>
+      <c r="O198" s="22"/>
+      <c r="P198" s="22"/>
+      <c r="Q198" s="22"/>
+      <c r="R198" s="23"/>
     </row>
     <row r="199" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B199" s="26" t="s">
-        <v>661</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="C199"/>
+      <c r="E199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+      <c r="L199"/>
+      <c r="M199"/>
+      <c r="N199"/>
+      <c r="O199"/>
     </row>
     <row r="200" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B200" s="26" t="s">
-        <v>662</v>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="201" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B201" s="26" t="s">
+        <v>667</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B198" r:id="rId1"/>
-    <hyperlink ref="B200" r:id="rId2"/>
-    <hyperlink ref="B199" r:id="rId3"/>
-    <hyperlink ref="B196" r:id="rId4" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2021-fr"/>
+    <hyperlink ref="B199" r:id="rId1"/>
+    <hyperlink ref="B201" r:id="rId2"/>
+    <hyperlink ref="B200" r:id="rId3"/>
+    <hyperlink ref="B197" r:id="rId4" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2021-fr"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/DDAf_2021_Liste_des_indicateurs.xlsx
+++ b/DDAf_2021_Liste_des_indicateurs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>

--- a/DDAf_2021_Liste_des_indicateurs.xlsx
+++ b/DDAf_2021_Liste_des_indicateurs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="639">
   <si>
     <t>Liste des indicateurs, descriptions et détails</t>
   </si>
@@ -106,7 +106,7 @@
     <t>2000-2025</t>
   </si>
   <si>
-    <t>Perspectives de la population mondiale: la révision de 2019, ONU</t>
+    <t>..</t>
   </si>
   <si>
     <t>PPPGDP</t>
@@ -139,9 +139,6 @@
     <t>Dollars US</t>
   </si>
   <si>
-    <t>Base de données des Perspectives de l'économie mondiale du FMI, octobre 2020</t>
-  </si>
-  <si>
     <t>RealGDPGrowth</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Moyenne</t>
   </si>
   <si>
-    <t>PIB en dollars PPA</t>
-  </si>
-  <si>
     <t>1989-2025</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>2000-2020</t>
   </si>
   <si>
-    <t>Organisation internationale du travail - ILOSTAT (récupéré le 25/10/2020)</t>
-  </si>
-  <si>
     <t>GINI</t>
   </si>
   <si>
@@ -214,10 +205,8 @@
     <t>2000-2018</t>
   </si>
   <si>
-    <t>2010-19 maximum</t>
-  </si>
-  <si>
-    <t>Indicateurs du développement dans le monde (données des banques centrales, des agences nationales et des bureaux de pays de la BM - mis à jour le 16/10/2020)</t>
+    <t>2010-19
+maximum</t>
   </si>
   <si>
     <t>PovHC190</t>
@@ -241,9 +230,6 @@
     <t>A partir du Programme des Nations Unies pour le développement.  D'après les documents de la Banque Mondiale : "L'indice de développement humain (IDH) est une mesure synthétique des réalisations moyennes dans les dimensions clés du développement humain : une vie longue et en bonne santé, de bonnes connaissances et un niveau de vie décent. L'IDH est la moyenne géométrique des valeurs normalisées pour chacune des trois dimensions ".  Pour plus d'information, voir :</t>
   </si>
   <si>
-    <t>Données en ligne sur le développement humain du Programme des Nations Unies pour le développement (édition 2019)</t>
-  </si>
-  <si>
     <t>IHDI</t>
   </si>
   <si>
@@ -283,12 +269,6 @@
     <t>Calculs des auteurs basés sur les estimations de la croissance du PIB réel issues des Perspectives de l'économie mondiale et des estimations de la croissance démographique d'après Perspectives démographiques du monde. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Voir les notes sur la croissance démographique et la croissance du PIB réel pour plus d’informations.</t>
   </si>
   <si>
-    <t>Population et PIB(PPA)</t>
-  </si>
-  <si>
-    <t>Calculs des auteurs basés sur la base de données des Perspectives de l'économie mondiale du FMI et les Perspectives de la population mondiale des Nations Unies</t>
-  </si>
-  <si>
     <t>PopUrban</t>
   </si>
   <si>
@@ -299,9 +279,6 @@
   </si>
   <si>
     <t>Estimation de la Division de la population du Département des affaires économiques et sociales des Nations Unies. Les populations urbaines au 1er Juillet de l'année indiquée. Les chiffres jusqu'en 2015 sont des estimations. A partir de 2016, il s'agit de projections basées sur des variantes moyennes relatives à la fécondité. Les chiffres annuels sont des interpolations des estimations des World Urbanization Prospects produites sur une période de cinq ans. Pour plus d'information, voir :</t>
-  </si>
-  <si>
-    <t>Perspectives de l'urbanisation mondiale: la révision de 2018, ONU</t>
   </si>
   <si>
     <t>PopRural</t>
@@ -405,9 +382,6 @@
     <t>2000-2019</t>
   </si>
   <si>
-    <t>Base de données de l'Institut de statistique de l'UNESCO (ISU) (version de septembre 2020)</t>
-  </si>
-  <si>
     <t>LitRt15T24F</t>
   </si>
   <si>
@@ -483,16 +457,10 @@
     <t>A partir de Wittgenstein Center Human Capital Data Explorer. La projection en pourcentage de la population totale de 15 ans et plus correspond aux individus n'ayant aucune éducation ou éducation primaire incomplète. Le Wittgenstein Center applique un modèle de scénario moyen de croissance démographique et de niveau d'éducation aux estimations démographiques de World Population Prospects 2017, pour produire des prévisions de population nationale ventilées par niveau d'éducation sur des intervalles de cinq ans. Le scénario moyen suppose une fécondité moyenne, une mortalité moyenne, une migration moyenne et le scénario de l'éducation selon la tendance mondiale de l'éducation (GET). Les chiffres du Wittgenstein Center sont convertis d'intervalles de cinq ans en chiffres annuels par interpolation linéaire. Plus de détails sur la méthodologie derrière ces chiffres peuvent être trouvés à:</t>
   </si>
   <si>
-    <t>Ratio des sommes</t>
-  </si>
-  <si>
     <t>Auto-pondération</t>
   </si>
   <si>
     <t>2000-2040</t>
-  </si>
-  <si>
-    <t>Explorateur de données sur le capital humain du Centre Wittgenstein, 2018</t>
   </si>
   <si>
     <t>WittMedPrim15PL</t>
@@ -692,12 +660,6 @@
     <t>Agriculture, chasse, sylviculture, pêche, valeur ajoutée en % du PIB (catégories A-B de la classification internationale type des industries). Tiré de la comptabilité nationale des Nations Unies - Analyse des principaux agrégats (AMA), Département des affaires économiques et sociales, Nations Unies. Pour plus d'informations, consultez:</t>
   </si>
   <si>
-    <t>PIB en dollars US</t>
-  </si>
-  <si>
-    <t>Comptes nationaux de la Division des statistiques des Nations Unies (analyse des principaux ensembles de données des agrégats téléchargés en décembre 2019)</t>
-  </si>
-  <si>
     <t>MnIndPerGDP</t>
   </si>
   <si>
@@ -911,9 +873,6 @@
     <t>2015-2019</t>
   </si>
   <si>
-    <t>Indicateur Institutions Sociales et Égalité Femmes-Hommes, Centre de développement de l'OCDE (mise à jour avec la nouvelle méthodologie, décembre 2018)</t>
-  </si>
-  <si>
     <t>SIGIFAM</t>
   </si>
   <si>
@@ -962,9 +921,6 @@
     <t>À partir des données présentées sur les statistiques de l'Union internationale des télécommunications (UIT). Pour plus d'information, voir :</t>
   </si>
   <si>
-    <t>Union internationale des télécommunications - Base de données en ligne des indicateurs TIC (juillet 2020)</t>
-  </si>
-  <si>
     <t>IntntUsePct</t>
   </si>
   <si>
@@ -1022,9 +978,6 @@
     <t>2020-2020</t>
   </si>
   <si>
-    <t>GSMA Intelligence (données mises à jour en juin 2020)</t>
-  </si>
-  <si>
     <t>IntntAccss</t>
   </si>
   <si>
@@ -1037,9 +990,6 @@
     <t>2018-2018</t>
   </si>
   <si>
-    <t>Gallup World Poll (consulté le 15 décembre 2019)</t>
-  </si>
-  <si>
     <t>OwnWSitLrgFm</t>
   </si>
   <si>
@@ -1055,9 +1005,6 @@
     <t>2006-2019</t>
   </si>
   <si>
-    <t>Calculs des auteurs basés sur l'enquête de la Banque mondiale auprès des entreprises (récupéré en avril 2020)</t>
-  </si>
-  <si>
     <t>OwnWSitMedFm</t>
   </si>
   <si>
@@ -1127,9 +1074,6 @@
     <t>2005-2019</t>
   </si>
   <si>
-    <t>Centre de données en ligne UNCTADStat (récupéré le 18/11/2020)</t>
-  </si>
-  <si>
     <t>ExpICTSrvPrp</t>
   </si>
   <si>
@@ -1238,9 +1182,6 @@
     <t>Indice de la faim dans le monde</t>
   </si>
   <si>
-    <t>Global Hunger Index (GHI) - Welthungerhilfe et Concern Worldwide (édition 2020)</t>
-  </si>
-  <si>
     <t>LifeLadder</t>
   </si>
   <si>
@@ -1253,9 +1194,6 @@
     <t>Du World Happiness Report. Calculé à partir de la version du 22 décembre 2017 du sondage Gallup World Poll (GWP), qui couvre les années 2005 à 2017. En règle générale, la réponse moyenne nationale à la question des évaluations de la vie. Le libellé en anglais de la question est le suivant : «Imaginez une échelle, avec les étapes numérotées de 0 en bas à 10 en haut. Le haut de l'échelle représente la meilleure vie possible pour vous et le bas de l'échelle représente la pire vie possible pour vous. Sur quelle échelon de l'échelle diriez-vous que vous sentez personnellement que vous vous tenez debout à ce moment-là?» Cette mesure est également appelée échelle de vie de Cantril, ou simplement échelle de vie.  Pour plus d'information, voir :</t>
   </si>
   <si>
-    <t>Ensemble de données en ligne du Rapport mondial sur le bonheur 2020</t>
-  </si>
-  <si>
     <t>NegativeAffect</t>
   </si>
   <si>
@@ -1311,12 +1249,6 @@
   </si>
   <si>
     <t>Calcul de l'auteur basé sur les données des Perspectives de l'économie mondiale du FMI. Ce chiffre représente l'augmentation d'une année à l'autre de la consommation privée totale divisée par l'augmentation du produit intérieur brut au cours de la même année, toutes deux en monnaie locale, exprimées en pourcentage.</t>
-  </si>
-  <si>
-    <t>Monnaie nationale</t>
-  </si>
-  <si>
-    <t>Décomposition de la croissance compilée à partir de diverses sources et calculée par le Centre de développement de l'OCDE (2017)</t>
   </si>
   <si>
     <t>GrthDCmpNCG</t>
@@ -1476,9 +1408,6 @@
 Valeur totale en dollars américains des biens d'exportation qui entrent dans les catégories des nomenclatures commerciales internationales (SH ou CTCI) pouvant être mises en correspondance avec les catégories de produits classés comme "non transformés" dans le cadre des négociations commerciales multilatérales (NCM) de l'OMC.  Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données. Pour plus de détails, voir Rieländer, J. et B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content : Explaining Diversification in Exports Across Higher Manufacturing Content : What is the role of commodities", Documents de travail du Centre de développement de l'OCDE, n° 327, Éditions de l'OCDE, Paris :</t>
   </si>
   <si>
-    <t>Calculs de l'auteur basés sur la base de données en ligne COMTRADE WITS (récupérée le 27/10/2020)</t>
-  </si>
-  <si>
     <t>ExpSemiProc</t>
   </si>
   <si>
@@ -1560,7 +1489,7 @@
     <t>Données communes</t>
   </si>
   <si>
-    <t>..</t>
+    <t>.</t>
   </si>
   <si>
     <t>ExpProdPct1</t>
@@ -1770,9 +1699,6 @@
     <t>APD nette rapportée par le Comité d'évaluation du développement de l'OCDE, provenant de tous les donateurs, en dollars américains aux prix courants en % du PIB en dollars américains selon les Perspectives de l'économie mondiale.</t>
   </si>
   <si>
-    <t>Aide publique au développement (APD) communiquée par le Comité d'aide au développement de l'OCDE (dernière mise à jour le 21/01/2021)</t>
-  </si>
-  <si>
     <t>UNCTADFDIPGD</t>
   </si>
   <si>
@@ -1782,9 +1708,6 @@
     <t>Flux entrants d'investissement direct étranger (IDE) en millions de dollars. Ces chiffres correspondent à la définition de l’IED. Ils figurent dans le Manuel de la balance des paiements : cinquième édition (MBP5) (Washington, Fonds monétaire international, 1993) et dans la Définition de référence détaillée de l’investissement direct étranger : troisième édition (BD3) (Paris). Organisation de coopération et de développement économiques, 1996). "IDE désigne un investissement réalisé pour acquérir un intérêt durable dans des entreprises exerçant des activités en dehors de l'économie de l'investisseur. En outre, en cas d'IDE, l'objectif de l'investisseur est de se faire entendre de manière efficace dans la gestion de l'entreprise. L'entité étrangère ou un groupe d'entités associées qui réalise l'investissement est appelé «investisseur direct». L'entreprise non constituée en société ou constituée en société - une succursale ou une filiale, respectivement, dans laquelle un investissement direct est réalisé - est appelée «entreprise d'investissement direct». la participation au capital est presque toujours considérée comme associée à une voix efficace dans la gestion d’une entreprise; le MBP5 suggère un seuil de 10% de la participation au capital permettant de qualifier un investisseur en tant qu’investisseur direct étranger. " Pour plus d'information, voir :</t>
   </si>
   <si>
-    <t>UNCTADStat Online Data Center, FDI Online Database (mis à jour le 20/01/2020)</t>
-  </si>
-  <si>
     <t>RemitPGD</t>
   </si>
   <si>
@@ -1794,9 +1717,6 @@
     <t>Calculs du personnel de la Banque mondiale basés sur les données de la base de données du FMI sur la statistique de la balance des paiements et sur les données communiquées par les banques centrales, les agences nationales de statistique et les bureaux de pays de la Banque mondiale. Voir Migration and Development Brief 28, Annexe A pour plus de détails. Tous les chiffres sont en dollars courants (nominaux). Pour une discussion sur la définition des envois de fonds, voir Dilip Ratha, 2003, "Les envois de fonds des travailleurs : une source importante et stable de financement extérieur du développement", Global Development Finance 2003, Banque mondiale. Les données depuis 2005 sont basées sur les statistiques de la balance des paiements du FMI qui utilisent les définitions du MBP6 du FMI. Les données du PIB proviennent du WDI.  Pour les dernières données et analyses sur les migrations et les envois de fonds, veuillez consulter :</t>
   </si>
   <si>
-    <t>Données de la Banque mondiale sur les migrations et les envois de fonds (octobre 2020)</t>
-  </si>
-  <si>
     <t>TotalFinInflowsPGD</t>
   </si>
   <si>
@@ -1806,9 +1726,6 @@
     <t>Somme des entrées d'investissements de portefeuille, des entrées APD nette rapportée, d’investissements directs étrangers et les remises en pourcentage du PIB, telle que calculée par les auteurs.</t>
   </si>
   <si>
-    <t>Calculs des auteurs fondés sur les données de flux financiers du FMI, du Comité d'aide au développement de l'OCDE, de la CNUCED et de la Banque mondiale</t>
-  </si>
-  <si>
     <t>GrNatSavPrvPGD</t>
   </si>
   <si>
@@ -1870,9 +1787,6 @@
   </si>
   <si>
     <t>ha</t>
-  </si>
-  <si>
-    <t>Données en ligne de FAOStat, Organisation des Nations Unies pour l'alimentation et l'agriculture (récupéré le 06/11/2020)</t>
   </si>
   <si>
     <t>AgricLand</t>
@@ -3377,37 +3291,37 @@
         <v>100</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>42</v>
-      </c>
       <c r="F7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="K7" s="10">
         <v>2019</v>
@@ -3431,31 +3345,31 @@
         <v>100</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>18</v>
@@ -3485,37 +3399,37 @@
         <v>100</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="E9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>54</v>
-      </c>
       <c r="F9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K9" s="10">
         <v>2019</v>
@@ -3539,40 +3453,40 @@
         <v>99.992079515057597</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="G10" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L10" s="22">
         <v>22.2222222222222</v>
@@ -3593,40 +3507,40 @@
         <v>80.488998258821297</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L11" s="22">
         <v>22.2222222222222</v>
@@ -3647,37 +3561,37 @@
         <v>80.488998258821297</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K12" s="10">
         <v>2018</v>
@@ -3701,37 +3615,37 @@
         <v>99.998148330961399</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K13" s="10">
         <v>2018</v>
@@ -3755,28 +3669,28 @@
         <v>96.436729442597098</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>24</v>
@@ -3785,7 +3699,7 @@
         <v>25</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K14" s="10">
         <v>2019</v>
@@ -3815,31 +3729,31 @@
     <row r="15" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I15" s="10" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K15" s="10">
         <v>2019</v>
@@ -3863,22 +3777,22 @@
         <v>100</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>22</v>
@@ -3893,7 +3807,7 @@
         <v>25</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K16" s="10">
         <v>2019</v>
@@ -3917,22 +3831,22 @@
         <v>100</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="19" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>22</v>
@@ -3947,7 +3861,7 @@
         <v>25</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K17" s="10">
         <v>2019</v>
@@ -3971,22 +3885,22 @@
         <v>99.366911978454993</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="19" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>97</v>
-      </c>
       <c r="E18" s="21" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>22</v>
@@ -4001,7 +3915,7 @@
         <v>25</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K18" s="10">
         <v>2019</v>
@@ -4025,28 +3939,28 @@
         <v>96.403778236267797</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="19" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>24</v>
@@ -4055,7 +3969,7 @@
         <v>25</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K19" s="10">
         <v>2019</v>
@@ -4085,16 +3999,16 @@
     <row r="20" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>22</v>
@@ -4109,7 +4023,7 @@
         <v>25</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K20" s="10">
         <v>2019</v>
@@ -4133,28 +4047,28 @@
         <v>98.410238034399299</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="19" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>24</v>
@@ -4163,7 +4077,7 @@
         <v>25</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K21" s="10">
         <v>2019</v>
@@ -4187,31 +4101,31 @@
         <v>98.410238034399299</v>
       </c>
       <c r="R21" s="23" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>25</v>
@@ -4247,25 +4161,25 @@
     <row r="23" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>25</v>
@@ -4301,25 +4215,25 @@
     <row r="24" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>25</v>
@@ -4355,34 +4269,34 @@
     <row r="25" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="19" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L25" s="22">
         <v>51.851851851851897</v>
@@ -4403,40 +4317,40 @@
         <v>48.7253870264692</v>
       </c>
       <c r="R25" s="23" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="19" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L26" s="22">
         <v>51.851851851851897</v>
@@ -4457,40 +4371,40 @@
         <v>48.7253870264692</v>
       </c>
       <c r="R26" s="23" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="19" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>131</v>
-      </c>
       <c r="E27" s="21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L27" s="22">
         <v>51.851851851851897</v>
@@ -4511,40 +4425,40 @@
         <v>48.7253870264692</v>
       </c>
       <c r="R27" s="23" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="19" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L28" s="22">
         <v>51.851851851851897</v>
@@ -4565,40 +4479,40 @@
         <v>48.7253870264692</v>
       </c>
       <c r="R28" s="23" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L29" s="22">
         <v>51.851851851851897</v>
@@ -4619,40 +4533,40 @@
         <v>48.7253870264692</v>
       </c>
       <c r="R29" s="23" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="19" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L30" s="22">
         <v>51.851851851851897</v>
@@ -4673,40 +4587,40 @@
         <v>48.7253870264692</v>
       </c>
       <c r="R30" s="23" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="19" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L31" s="22">
         <v>51.851851851851897</v>
@@ -4727,40 +4641,40 @@
         <v>48.7253870264692</v>
       </c>
       <c r="R31" s="23" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="19" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L32" s="22">
         <v>51.851851851851897</v>
@@ -4781,37 +4695,37 @@
         <v>48.7253870264692</v>
       </c>
       <c r="R32" s="23" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="19" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K33" s="10">
         <v>2020</v>
@@ -4835,37 +4749,37 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R33" s="23" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="19" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K34" s="10">
         <v>2020</v>
@@ -4889,37 +4803,37 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R34" s="23" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="19" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>160</v>
-      </c>
       <c r="E35" s="21" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K35" s="10">
         <v>2020</v>
@@ -4943,37 +4857,37 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R35" s="23" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="19" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K36" s="10">
         <v>2020</v>
@@ -4997,37 +4911,37 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R36" s="23" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="19" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K37" s="10">
         <v>2020</v>
@@ -5051,37 +4965,37 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R37" s="23" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="19" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K38" s="10">
         <v>2020</v>
@@ -5105,37 +5019,37 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R38" s="23" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="19" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K39" s="10">
         <v>2020</v>
@@ -5159,37 +5073,37 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R39" s="23" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="19" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K40" s="10">
         <v>2020</v>
@@ -5213,37 +5127,37 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R40" s="23" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="19" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K41" s="10">
         <v>2020</v>
@@ -5267,37 +5181,37 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R41" s="23" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C42" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D42" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>183</v>
-      </c>
       <c r="F42" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K42" s="10">
         <v>2020</v>
@@ -5321,37 +5235,37 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R42" s="23" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="19" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K43" s="10">
         <v>2020</v>
@@ -5375,37 +5289,37 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R43" s="23" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="19" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K44" s="10">
         <v>2020</v>
@@ -5429,37 +5343,37 @@
         <v>99.996210965265504</v>
       </c>
       <c r="R44" s="23" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K45" s="10">
         <v>2019</v>
@@ -5483,37 +5397,37 @@
         <v>99.992079515057597</v>
       </c>
       <c r="R45" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="19" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K46" s="10">
         <v>2019</v>
@@ -5537,37 +5451,37 @@
         <v>99.992079515057597</v>
       </c>
       <c r="R46" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="19" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F47" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K47" s="10">
         <v>2019</v>
@@ -5591,37 +5505,37 @@
         <v>99.992079515057597</v>
       </c>
       <c r="R47" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="19" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K48" s="10">
         <v>2019</v>
@@ -5645,37 +5559,37 @@
         <v>99.992079515057597</v>
       </c>
       <c r="R48" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="19" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C49" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="21" t="s">
-        <v>202</v>
-      </c>
       <c r="E49" s="21" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K49" s="10">
         <v>2019</v>
@@ -5699,37 +5613,37 @@
         <v>99.992079515057597</v>
       </c>
       <c r="R49" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="19" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K50" s="10">
         <v>2019</v>
@@ -5753,37 +5667,37 @@
         <v>99.992079515057597</v>
       </c>
       <c r="R50" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="157.5" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="19" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K51" s="10">
         <v>2019</v>
@@ -5807,37 +5721,37 @@
         <v>99.992079515057597</v>
       </c>
       <c r="R51" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="19" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F52" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G52" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I52" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K52" s="10">
         <v>2018</v>
@@ -5861,37 +5775,37 @@
         <v>98.830340036794993</v>
       </c>
       <c r="R52" s="23" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="19" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F53" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G53" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I53" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K53" s="10">
         <v>2018</v>
@@ -5915,37 +5829,37 @@
         <v>98.832450911477295</v>
       </c>
       <c r="R53" s="23" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="19" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F54" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G54" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I54" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K54" s="10">
         <v>2018</v>
@@ -5969,37 +5883,37 @@
         <v>98.832450911477295</v>
       </c>
       <c r="R54" s="23" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="19" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C55" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D55" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>220</v>
-      </c>
       <c r="F55" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G55" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I55" s="10" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K55" s="10">
         <v>2018</v>
@@ -6023,37 +5937,37 @@
         <v>100</v>
       </c>
       <c r="R55" s="23" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
       <c r="B56" s="19" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F56" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G56" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I56" s="10" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K56" s="10">
         <v>2018</v>
@@ -6077,37 +5991,37 @@
         <v>100</v>
       </c>
       <c r="R56" s="23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
       <c r="B57" s="19" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F57" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G57" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I57" s="10" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K57" s="10">
         <v>2018</v>
@@ -6131,37 +6045,37 @@
         <v>100</v>
       </c>
       <c r="R57" s="23" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
       <c r="B58" s="19" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F58" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I58" s="10" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K58" s="10">
         <v>2018</v>
@@ -6185,37 +6099,37 @@
         <v>100</v>
       </c>
       <c r="R58" s="23" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
       <c r="B59" s="19" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F59" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G59" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I59" s="10" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K59" s="10">
         <v>2018</v>
@@ -6239,37 +6153,37 @@
         <v>100</v>
       </c>
       <c r="R59" s="23" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="19" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F60" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G60" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I60" s="10" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K60" s="10">
         <v>2018</v>
@@ -6293,37 +6207,37 @@
         <v>100</v>
       </c>
       <c r="R60" s="23" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
       <c r="B61" s="19" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F61" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I61" s="10" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K61" s="10">
         <v>2018</v>
@@ -6347,37 +6261,37 @@
         <v>100</v>
       </c>
       <c r="R61" s="23" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
       <c r="B62" s="19" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F62" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K62" s="10">
         <v>2019</v>
@@ -6401,37 +6315,37 @@
         <v>99.992079515057597</v>
       </c>
       <c r="R62" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
       <c r="B63" s="19" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F63" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K63" s="10">
         <v>2019</v>
@@ -6455,37 +6369,37 @@
         <v>99.992079515057597</v>
       </c>
       <c r="R63" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
       <c r="B64" s="19" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F64" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K64" s="10">
         <v>2019</v>
@@ -6509,37 +6423,37 @@
         <v>99.992079515057597</v>
       </c>
       <c r="R64" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
       <c r="B65" s="19" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F65" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K65" s="10">
         <v>2019</v>
@@ -6563,40 +6477,40 @@
         <v>99.992079515057597</v>
       </c>
       <c r="R65" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
       <c r="B66" s="19" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F66" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L66" s="22">
         <v>22.2222222222222</v>
@@ -6617,40 +6531,40 @@
         <v>80.488998258821297</v>
       </c>
       <c r="R66" s="23" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
       <c r="B67" s="19" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F67" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L67" s="22">
         <v>22.2222222222222</v>
@@ -6671,40 +6585,40 @@
         <v>80.488998258821297</v>
       </c>
       <c r="R67" s="23" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
       <c r="B68" s="19" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F68" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L68" s="22">
         <v>22.2222222222222</v>
@@ -6725,37 +6639,37 @@
         <v>80.488998258821297</v>
       </c>
       <c r="R68" s="23" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
       <c r="B69" s="19" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="F69" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K69" s="10">
         <v>2019</v>
@@ -6779,37 +6693,37 @@
         <v>55.694702997439201</v>
       </c>
       <c r="R69" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
       <c r="B70" s="19" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C70" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D70" s="21" t="s">
-        <v>266</v>
-      </c>
       <c r="E70" s="21" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F70" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K70" s="10">
         <v>2019</v>
@@ -6833,37 +6747,37 @@
         <v>55.694702997439201</v>
       </c>
       <c r="R70" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
       <c r="B71" s="19" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F71" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K71" s="10">
         <v>2019</v>
@@ -6887,37 +6801,37 @@
         <v>55.694702997439201</v>
       </c>
       <c r="R71" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
       <c r="B72" s="19" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="F72" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K72" s="10">
         <v>2019</v>
@@ -6941,37 +6855,37 @@
         <v>55.694702997439201</v>
       </c>
       <c r="R72" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A73" s="8"/>
       <c r="B73" s="19" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F73" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K73" s="10">
         <v>2019</v>
@@ -6995,37 +6909,37 @@
         <v>55.694702997439201</v>
       </c>
       <c r="R73" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
       <c r="B74" s="19" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F74" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K74" s="10">
         <v>2019</v>
@@ -7049,37 +6963,37 @@
         <v>55.694702997439201</v>
       </c>
       <c r="R74" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A75" s="8"/>
       <c r="B75" s="19" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K75" s="10">
         <v>2019</v>
@@ -7103,37 +7017,37 @@
         <v>99.992079515057597</v>
       </c>
       <c r="R75" s="23" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
       <c r="B76" s="19" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K76" s="10">
         <v>2018</v>
@@ -7157,37 +7071,37 @@
         <v>99.864850797340097</v>
       </c>
       <c r="R76" s="23" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
       <c r="B77" s="19" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K77" s="10">
         <v>2018</v>
@@ -7211,37 +7125,37 @@
         <v>99.911809696135904</v>
       </c>
       <c r="R77" s="23" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
       <c r="B78" s="19" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K78" s="10">
         <v>2019</v>
@@ -7265,37 +7179,37 @@
         <v>76.366570320859097</v>
       </c>
       <c r="R78" s="23" t="s">
-        <v>294</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A79" s="8"/>
       <c r="B79" s="19" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K79" s="10">
         <v>2019</v>
@@ -7319,37 +7233,37 @@
         <v>99.983545087881197</v>
       </c>
       <c r="R79" s="23" t="s">
-        <v>294</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
       <c r="B80" s="19" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K80" s="10">
         <v>2019</v>
@@ -7373,37 +7287,37 @@
         <v>76.387568555656202</v>
       </c>
       <c r="R80" s="23" t="s">
-        <v>294</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A81" s="8"/>
       <c r="B81" s="19" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K81" s="10">
         <v>2019</v>
@@ -7427,37 +7341,37 @@
         <v>78.041046036393595</v>
       </c>
       <c r="R81" s="23" t="s">
-        <v>294</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A82" s="8"/>
       <c r="B82" s="19" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K82" s="10">
         <v>2019</v>
@@ -7481,37 +7395,37 @@
         <v>79.877820386624904</v>
       </c>
       <c r="R82" s="23" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" s="8"/>
       <c r="B83" s="19" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I83" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K83" s="10">
         <v>2019</v>
@@ -7535,37 +7449,37 @@
         <v>100</v>
       </c>
       <c r="R83" s="23" t="s">
-        <v>311</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="8"/>
       <c r="B84" s="19" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F84" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H84" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K84" s="10">
         <v>2019</v>
@@ -7589,37 +7503,37 @@
         <v>99.999779413752407</v>
       </c>
       <c r="R84" s="23" t="s">
-        <v>311</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="8"/>
       <c r="B85" s="19" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I85" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K85" s="10">
         <v>2019</v>
@@ -7643,37 +7557,37 @@
         <v>100</v>
       </c>
       <c r="R85" s="23" t="s">
-        <v>311</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A86" s="8"/>
       <c r="B86" s="19" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I86" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K86" s="10">
         <v>2019</v>
@@ -7697,37 +7611,37 @@
         <v>100</v>
       </c>
       <c r="R86" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="8"/>
       <c r="B87" s="19" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="K87" s="10">
         <v>2019</v>
@@ -7751,37 +7665,37 @@
         <v>99.999779413752407</v>
       </c>
       <c r="R87" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="8"/>
       <c r="B88" s="19" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K88" s="10">
         <v>2019</v>
@@ -7805,37 +7719,37 @@
         <v>99.999680336073197</v>
       </c>
       <c r="R88" s="23" t="s">
-        <v>311</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="8"/>
       <c r="B89" s="19" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F89" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="K89" s="10">
         <v>2020</v>
@@ -7859,37 +7773,37 @@
         <v>75.363512322516897</v>
       </c>
       <c r="R89" s="23" t="s">
-        <v>331</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="8"/>
       <c r="B90" s="19" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="F90" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H90" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I90" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="K90" s="10">
         <v>2018</v>
@@ -7913,40 +7827,40 @@
         <v>99.541343377807706</v>
       </c>
       <c r="R90" s="23" t="s">
-        <v>336</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A91" s="8"/>
       <c r="B91" s="19" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="F91" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L91" s="22">
         <v>20.370370370370399</v>
@@ -7967,40 +7881,40 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R91" s="23" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A92" s="8"/>
       <c r="B92" s="19" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F92" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I92" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L92" s="22">
         <v>20.370370370370399</v>
@@ -8021,40 +7935,40 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R92" s="23" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
       <c r="B93" s="19" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="F93" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I93" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L93" s="22">
         <v>20.370370370370399</v>
@@ -8075,40 +7989,40 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R93" s="23" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A94" s="8"/>
       <c r="B94" s="19" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="F94" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H94" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I94" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L94" s="22">
         <v>20.370370370370399</v>
@@ -8129,40 +8043,40 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R94" s="23" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A95" s="8"/>
       <c r="B95" s="19" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="F95" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L95" s="22">
         <v>20.370370370370399</v>
@@ -8183,40 +8097,40 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R95" s="23" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A96" s="8"/>
       <c r="B96" s="19" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F96" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H96" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I96" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L96" s="22">
         <v>20.370370370370399</v>
@@ -8237,40 +8151,40 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R96" s="23" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A97" s="8"/>
       <c r="B97" s="19" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="F97" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L97" s="22">
         <v>20.370370370370399</v>
@@ -8291,40 +8205,40 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R97" s="23" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A98" s="8"/>
       <c r="B98" s="19" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="F98" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H98" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H98" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I98" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L98" s="22">
         <v>20.370370370370399</v>
@@ -8345,22 +8259,22 @@
         <v>6.7376707625440302</v>
       </c>
       <c r="R98" s="23" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A99" s="8"/>
       <c r="B99" s="19" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>37</v>
@@ -8375,7 +8289,7 @@
         <v>25</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="K99" s="10">
         <v>2018</v>
@@ -8399,37 +8313,37 @@
         <v>96.225051968012707</v>
       </c>
       <c r="R99" s="23" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A100" s="8"/>
       <c r="B100" s="19" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="F100" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H100" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I100" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="K100" s="10">
         <v>2018</v>
@@ -8453,22 +8367,22 @@
         <v>96.225051968012707</v>
       </c>
       <c r="R100" s="23" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A101" s="8"/>
       <c r="B101" s="19" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>37</v>
@@ -8483,7 +8397,7 @@
         <v>25</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="K101" s="10">
         <v>2018</v>
@@ -8507,37 +8421,37 @@
         <v>98.692603060250605</v>
       </c>
       <c r="R101" s="23" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A102" s="8"/>
       <c r="B102" s="19" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F102" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H102" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I102" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="K102" s="10">
         <v>2018</v>
@@ -8561,37 +8475,37 @@
         <v>98.692603060250605</v>
       </c>
       <c r="R102" s="23" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A103" s="8"/>
       <c r="B103" s="19" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K103" s="10">
         <v>2019</v>
@@ -8615,31 +8529,31 @@
         <v>99.643150170309596</v>
       </c>
       <c r="R103" s="23" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A104" s="8"/>
       <c r="B104" s="19" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I104" s="10" t="s">
         <v>25</v>
@@ -8675,25 +8589,25 @@
     <row r="105" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A105" s="8"/>
       <c r="B105" s="19" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>25</v>
@@ -8729,25 +8643,25 @@
     <row r="106" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A106" s="8"/>
       <c r="B106" s="19" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>25</v>
@@ -8783,25 +8697,25 @@
     <row r="107" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A107" s="8"/>
       <c r="B107" s="19" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>25</v>
@@ -8837,25 +8751,25 @@
     <row r="108" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A108" s="8"/>
       <c r="B108" s="19" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I108" s="10" t="s">
         <v>25</v>
@@ -8891,25 +8805,25 @@
     <row r="109" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A109" s="8"/>
       <c r="B109" s="19" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="C109" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E109" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="D109" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>397</v>
-      </c>
       <c r="F109" s="10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I109" s="10" t="s">
         <v>25</v>
@@ -8945,25 +8859,25 @@
     <row r="110" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A110" s="8"/>
       <c r="B110" s="19" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I110" s="10" t="s">
         <v>25</v>
@@ -8999,31 +8913,31 @@
     <row r="111" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A111" s="8"/>
       <c r="B111" s="19" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I111" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K111" s="10">
         <v>2020</v>
@@ -9047,40 +8961,40 @@
         <v>54.004193368538203</v>
       </c>
       <c r="R111" s="23" t="s">
-        <v>403</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A112" s="8"/>
       <c r="B112" s="19" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I112" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="K112" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L112" s="22">
         <v>75.925925925925895</v>
@@ -9101,40 +9015,40 @@
         <v>99.645586682707602</v>
       </c>
       <c r="R112" s="23" t="s">
-        <v>408</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A113" s="8"/>
       <c r="B113" s="19" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I113" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L113" s="22">
         <v>75.925925925925895</v>
@@ -9155,40 +9069,40 @@
         <v>99.415673267689399</v>
       </c>
       <c r="R113" s="23" t="s">
-        <v>408</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A114" s="8"/>
       <c r="B114" s="19" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I114" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L114" s="22">
         <v>75.925925925925895</v>
@@ -9209,40 +9123,40 @@
         <v>99.415673267689399</v>
       </c>
       <c r="R114" s="23" t="s">
-        <v>408</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A115" s="8"/>
       <c r="B115" s="19" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I115" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L115" s="22">
         <v>75.925925925925895</v>
@@ -9263,40 +9177,40 @@
         <v>99.137521387025501</v>
       </c>
       <c r="R115" s="23" t="s">
-        <v>408</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A116" s="8"/>
       <c r="B116" s="19" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I116" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L116" s="22">
         <v>74.074074074074105</v>
@@ -9317,40 +9231,40 @@
         <v>99.415673267689399</v>
       </c>
       <c r="R116" s="23" t="s">
-        <v>408</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A117" s="8"/>
       <c r="B117" s="19" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I117" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L117" s="22">
         <v>75.925925925925895</v>
@@ -9371,37 +9285,37 @@
         <v>99.415673267689399</v>
       </c>
       <c r="R117" s="23" t="s">
-        <v>408</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A118" s="8"/>
       <c r="B118" s="19" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>428</v>
+        <v>27</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K118" s="10">
         <v>2018</v>
@@ -9425,37 +9339,37 @@
         <v>99.843418872396597</v>
       </c>
       <c r="R118" s="23" t="s">
-        <v>429</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A119" s="8"/>
       <c r="B119" s="19" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>428</v>
+        <v>27</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K119" s="10">
         <v>2018</v>
@@ -9479,37 +9393,37 @@
         <v>99.925349570151795</v>
       </c>
       <c r="R119" s="23" t="s">
-        <v>429</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A120" s="8"/>
       <c r="B120" s="19" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>428</v>
+        <v>27</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K120" s="10">
         <v>2018</v>
@@ -9533,37 +9447,37 @@
         <v>96.327547524363396</v>
       </c>
       <c r="R120" s="23" t="s">
-        <v>429</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A121" s="8"/>
       <c r="B121" s="19" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>428</v>
+        <v>27</v>
       </c>
       <c r="G121" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K121" s="10">
         <v>2018</v>
@@ -9587,37 +9501,37 @@
         <v>96.440512343593298</v>
       </c>
       <c r="R121" s="23" t="s">
-        <v>429</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
       <c r="B122" s="19" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>428</v>
+        <v>27</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K122" s="10">
         <v>2018</v>
@@ -9641,37 +9555,37 @@
         <v>99.151622093891802</v>
       </c>
       <c r="R122" s="23" t="s">
-        <v>429</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A123" s="8"/>
       <c r="B123" s="19" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>428</v>
+        <v>27</v>
       </c>
       <c r="G123" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K123" s="10">
         <v>2018</v>
@@ -9695,37 +9609,37 @@
         <v>99.151622093891802</v>
       </c>
       <c r="R123" s="23" t="s">
-        <v>429</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A124" s="8"/>
       <c r="B124" s="19" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>428</v>
+        <v>27</v>
       </c>
       <c r="G124" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K124" s="10">
         <v>2018</v>
@@ -9749,31 +9663,31 @@
         <v>99.926109551608704</v>
       </c>
       <c r="R124" s="23" t="s">
-        <v>429</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A125" s="8"/>
       <c r="B125" s="19" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="F125" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H125" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I125" s="10" t="s">
         <v>25</v>
@@ -9803,31 +9717,31 @@
         <v>100</v>
       </c>
       <c r="R125" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A126" s="8"/>
       <c r="B126" s="19" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="F126" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H126" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I126" s="10" t="s">
         <v>25</v>
@@ -9857,31 +9771,31 @@
         <v>91.469243322458695</v>
       </c>
       <c r="R126" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A127" s="8"/>
       <c r="B127" s="19" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="F127" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H127" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H127" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I127" s="10" t="s">
         <v>25</v>
@@ -9911,37 +9825,37 @@
         <v>89.386430290063501</v>
       </c>
       <c r="R127" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A128" s="8"/>
       <c r="B128" s="19" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="F128" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H128" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H128" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I128" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="K128" s="10">
         <v>2019</v>
@@ -9965,37 +9879,37 @@
         <v>13.201172704933001</v>
       </c>
       <c r="R128" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A129" s="8"/>
       <c r="B129" s="19" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="F129" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H129" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H129" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I129" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="K129" s="10">
         <v>2019</v>
@@ -10019,37 +9933,37 @@
         <v>65.8370533617653</v>
       </c>
       <c r="R129" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A130" s="8"/>
       <c r="B130" s="19" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="F130" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H130" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H130" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I130" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="K130" s="10">
         <v>2019</v>
@@ -10073,37 +9987,37 @@
         <v>63.290471579107297</v>
       </c>
       <c r="R130" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A131" s="8"/>
       <c r="B131" s="19" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="F131" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H131" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I131" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="K131" s="10">
         <v>2019</v>
@@ -10127,31 +10041,31 @@
         <v>63.6064353577354</v>
       </c>
       <c r="R131" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A132" s="8"/>
       <c r="B132" s="19" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="F132" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H132" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H132" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I132" s="10" t="s">
         <v>25</v>
@@ -10181,31 +10095,31 @@
         <v>100</v>
       </c>
       <c r="R132" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A133" s="8"/>
       <c r="B133" s="19" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="C133" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="D133" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="D133" s="21" t="s">
-        <v>472</v>
-      </c>
       <c r="E133" s="21" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="F133" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H133" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H133" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="I133" s="10" t="s">
         <v>25</v>
@@ -10235,37 +10149,37 @@
         <v>99.966926254698507</v>
       </c>
       <c r="R133" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A134" s="8"/>
       <c r="B134" s="19" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="F134" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H134" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="G134" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H134" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="I134" s="24" t="s">
         <v>25</v>
       </c>
       <c r="J134" s="24" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="K134" s="24">
         <v>2019</v>
@@ -10289,37 +10203,37 @@
         <v>58.572747383669999</v>
       </c>
       <c r="R134" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A135" s="8"/>
       <c r="B135" s="19" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="F135" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H135" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="G135" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H135" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="I135" s="24" t="s">
         <v>25</v>
       </c>
       <c r="J135" s="24" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="K135" s="24">
         <v>2019</v>
@@ -10343,22 +10257,22 @@
         <v>59.706237198836703</v>
       </c>
       <c r="R135" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A136" s="8"/>
       <c r="B136" s="19" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>37</v>
@@ -10373,7 +10287,7 @@
         <v>25</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K136" s="10">
         <v>2018</v>
@@ -10397,22 +10311,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R136" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A137" s="8"/>
       <c r="B137" s="19" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>37</v>
@@ -10427,7 +10341,7 @@
         <v>25</v>
       </c>
       <c r="J137" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K137" s="10">
         <v>2018</v>
@@ -10451,22 +10365,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R137" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A138" s="8"/>
       <c r="B138" s="19" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>37</v>
@@ -10481,7 +10395,7 @@
         <v>25</v>
       </c>
       <c r="J138" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K138" s="10">
         <v>2018</v>
@@ -10505,22 +10419,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R138" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A139" s="8"/>
       <c r="B139" s="19" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>37</v>
@@ -10535,7 +10449,7 @@
         <v>25</v>
       </c>
       <c r="J139" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K139" s="10">
         <v>2018</v>
@@ -10559,22 +10473,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R139" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A140" s="8"/>
       <c r="B140" s="19" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>37</v>
@@ -10589,7 +10503,7 @@
         <v>25</v>
       </c>
       <c r="J140" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K140" s="10">
         <v>2018</v>
@@ -10613,22 +10527,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R140" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A141" s="8"/>
       <c r="B141" s="19" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>37</v>
@@ -10643,7 +10557,7 @@
         <v>25</v>
       </c>
       <c r="J141" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K141" s="10">
         <v>2018</v>
@@ -10667,22 +10581,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R141" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A142" s="8"/>
       <c r="B142" s="19" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="F142" s="10" t="s">
         <v>37</v>
@@ -10697,7 +10611,7 @@
         <v>25</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K142" s="10">
         <v>2018</v>
@@ -10721,22 +10635,22 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R142" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A143" s="8"/>
       <c r="B143" s="19" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="C143" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="E143" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="D143" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="E143" s="21" t="s">
-        <v>503</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>37</v>
@@ -10751,7 +10665,7 @@
         <v>25</v>
       </c>
       <c r="J143" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K143" s="10">
         <v>2018</v>
@@ -10775,682 +10689,682 @@
         <v>99.939319660191202</v>
       </c>
       <c r="R143" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A144" s="8"/>
       <c r="B144" s="19" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J144" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K144" s="10">
         <v>2018</v>
       </c>
       <c r="L144" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="M144" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="N144" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="O144" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="P144" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q144" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="R144" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A145" s="8"/>
       <c r="B145" s="19" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J145" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K145" s="10">
         <v>2018</v>
       </c>
       <c r="L145" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="M145" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="N145" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="O145" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="P145" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q145" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="R145" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A146" s="8"/>
       <c r="B146" s="19" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J146" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K146" s="10">
         <v>2018</v>
       </c>
       <c r="L146" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="M146" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="N146" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="O146" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="P146" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q146" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="R146" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A147" s="8"/>
       <c r="B147" s="19" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="E147" s="21" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J147" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K147" s="10">
         <v>2018</v>
       </c>
       <c r="L147" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="M147" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="N147" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="O147" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="P147" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q147" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="R147" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A148" s="8"/>
       <c r="B148" s="19" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J148" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K148" s="10">
         <v>2018</v>
       </c>
       <c r="L148" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="M148" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="N148" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="O148" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="P148" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q148" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="R148" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A149" s="8"/>
       <c r="B149" s="19" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J149" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K149" s="10">
         <v>2018</v>
       </c>
       <c r="L149" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="M149" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="N149" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="O149" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="P149" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q149" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="R149" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A150" s="8"/>
       <c r="B150" s="19" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="E150" s="21" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J150" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K150" s="10">
         <v>2018</v>
       </c>
       <c r="L150" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="M150" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="N150" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="O150" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="P150" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q150" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="R150" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A151" s="8"/>
       <c r="B151" s="19" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J151" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K151" s="10">
         <v>2018</v>
       </c>
       <c r="L151" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="M151" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="N151" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="O151" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="P151" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q151" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="R151" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A152" s="8"/>
       <c r="B152" s="19" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="C152" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="E152" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="D152" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>529</v>
-      </c>
       <c r="F152" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J152" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K152" s="10">
         <v>2018</v>
       </c>
       <c r="L152" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="M152" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="N152" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="O152" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="P152" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q152" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="R152" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A153" s="8"/>
       <c r="B153" s="19" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C153" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="E153" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="D153" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="E153" s="21" t="s">
-        <v>529</v>
-      </c>
       <c r="F153" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J153" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K153" s="10">
         <v>2018</v>
       </c>
       <c r="L153" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="M153" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="N153" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="O153" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="P153" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q153" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="R153" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A154" s="8"/>
       <c r="B154" s="19" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H154" s="10" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J154" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K154" s="10">
         <v>2018</v>
       </c>
       <c r="L154" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="M154" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="N154" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="O154" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="P154" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q154" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="R154" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A155" s="8"/>
       <c r="B155" s="19" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H155" s="10" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J155" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K155" s="10">
         <v>2018</v>
       </c>
       <c r="L155" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="M155" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="N155" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="O155" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="P155" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q155" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="R155" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A156" s="8"/>
       <c r="B156" s="19" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="F156" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H156" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G156" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H156" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I156" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J156" s="10" t="s">
         <v>26</v>
@@ -11477,82 +11391,82 @@
         <v>99.998286867093896</v>
       </c>
       <c r="R156" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A157" s="8"/>
       <c r="B157" s="19" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="F157" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G157" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H157" s="24" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I157" s="24" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J157" s="24" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K157" s="24">
         <v>2018</v>
       </c>
       <c r="L157" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="M157" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="N157" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="O157" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="P157" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q157" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="R157" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A158" s="8"/>
       <c r="B158" s="19" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H158" s="10" t="s">
         <v>24</v>
@@ -11561,7 +11475,7 @@
         <v>25</v>
       </c>
       <c r="J158" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K158" s="10">
         <v>2018</v>
@@ -11585,28 +11499,28 @@
         <v>28.824739991375498</v>
       </c>
       <c r="R158" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A159" s="8"/>
       <c r="B159" s="19" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H159" s="10" t="s">
         <v>24</v>
@@ -11615,7 +11529,7 @@
         <v>25</v>
       </c>
       <c r="J159" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K159" s="10">
         <v>2018</v>
@@ -11630,37 +11544,37 @@
         <v>99.854977902943503</v>
       </c>
       <c r="O159" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="P159" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="Q159" s="22" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="R159" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A160" s="8"/>
       <c r="B160" s="19" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H160" s="10" t="s">
         <v>24</v>
@@ -11669,7 +11583,7 @@
         <v>25</v>
       </c>
       <c r="J160" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K160" s="10">
         <v>2018</v>
@@ -11693,28 +11607,28 @@
         <v>100</v>
       </c>
       <c r="R160" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A161" s="8"/>
       <c r="B161" s="19" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H161" s="10" t="s">
         <v>24</v>
@@ -11723,7 +11637,7 @@
         <v>25</v>
       </c>
       <c r="J161" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K161" s="10">
         <v>2018</v>
@@ -11747,28 +11661,28 @@
         <v>100</v>
       </c>
       <c r="R161" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A162" s="8"/>
       <c r="B162" s="19" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H162" s="10" t="s">
         <v>24</v>
@@ -11777,7 +11691,7 @@
         <v>25</v>
       </c>
       <c r="J162" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K162" s="10">
         <v>2018</v>
@@ -11801,28 +11715,28 @@
         <v>100</v>
       </c>
       <c r="R162" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A163" s="8"/>
       <c r="B163" s="19" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H163" s="10" t="s">
         <v>24</v>
@@ -11831,7 +11745,7 @@
         <v>25</v>
       </c>
       <c r="J163" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K163" s="10">
         <v>2018</v>
@@ -11855,22 +11769,22 @@
         <v>82.892978726599907</v>
       </c>
       <c r="R163" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A164" s="8"/>
       <c r="B164" s="19" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="F164" s="10" t="s">
         <v>37</v>
@@ -11885,7 +11799,7 @@
         <v>25</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K164" s="10">
         <v>2018</v>
@@ -11909,22 +11823,22 @@
         <v>98.101855024483996</v>
       </c>
       <c r="R164" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A165" s="8"/>
       <c r="B165" s="19" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="F165" s="10" t="s">
         <v>37</v>
@@ -11939,7 +11853,7 @@
         <v>25</v>
       </c>
       <c r="J165" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K165" s="10">
         <v>2018</v>
@@ -11963,22 +11877,22 @@
         <v>98.101855024483996</v>
       </c>
       <c r="R165" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166" spans="1:18" ht="42" x14ac:dyDescent="0.35">
       <c r="A166" s="8"/>
       <c r="B166" s="19" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="F166" s="10" t="s">
         <v>37</v>
@@ -11993,7 +11907,7 @@
         <v>25</v>
       </c>
       <c r="J166" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K166" s="10">
         <v>2018</v>
@@ -12017,37 +11931,37 @@
         <v>98.101855024483996</v>
       </c>
       <c r="R166" s="23" t="s">
-        <v>482</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167" spans="1:18" ht="126" x14ac:dyDescent="0.35">
       <c r="A167" s="8"/>
       <c r="B167" s="19" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="F167" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H167" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G167" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H167" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I167" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="K167" s="10">
         <v>2019</v>
@@ -12071,37 +11985,37 @@
         <v>99.908988005939605</v>
       </c>
       <c r="R167" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A168" s="8"/>
       <c r="B168" s="19" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="F168" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G168" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H168" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G168" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H168" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I168" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J168" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K168" s="10">
         <v>2019</v>
@@ -12125,37 +12039,37 @@
         <v>47.250899348413199</v>
       </c>
       <c r="R168" s="23" t="s">
-        <v>579</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A169" s="8"/>
       <c r="B169" s="19" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="F169" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H169" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G169" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H169" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I169" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J169" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K169" s="10">
         <v>2019</v>
@@ -12179,37 +12093,37 @@
         <v>99.9979269779178</v>
       </c>
       <c r="R169" s="23" t="s">
-        <v>583</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A170" s="8"/>
       <c r="B170" s="19" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="E170" s="21" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="F170" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G170" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H170" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G170" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H170" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I170" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J170" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K170" s="10">
         <v>2019</v>
@@ -12233,37 +12147,37 @@
         <v>99.360149288611197</v>
       </c>
       <c r="R170" s="23" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A171" s="8"/>
       <c r="B171" s="19" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="F171" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H171" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G171" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H171" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I171" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J171" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K171" s="10">
         <v>2019</v>
@@ -12287,37 +12201,37 @@
         <v>47.161247218243403</v>
       </c>
       <c r="R171" s="23" t="s">
-        <v>591</v>
+        <v>27</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A172" s="8"/>
       <c r="B172" s="19" t="s">
-        <v>592</v>
+        <v>564</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="F172" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G172" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H172" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G172" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H172" s="24" t="s">
-        <v>44</v>
-      </c>
       <c r="I172" s="24" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J172" s="24" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="K172" s="24">
         <v>2019</v>
@@ -12341,22 +12255,22 @@
         <v>79.761634309150594</v>
       </c>
       <c r="R172" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173" spans="1:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A173" s="8"/>
       <c r="B173" s="19" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>595</v>
+        <v>567</v>
       </c>
       <c r="E173" s="21" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="F173" s="10" t="s">
         <v>37</v>
@@ -12371,7 +12285,7 @@
         <v>25</v>
       </c>
       <c r="J173" s="10" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="K173" s="10">
         <v>2019</v>
@@ -12395,22 +12309,22 @@
         <v>99.908988005939605</v>
       </c>
       <c r="R173" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A174" s="8"/>
       <c r="B174" s="19" t="s">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="F174" s="10" t="s">
         <v>37</v>
@@ -12425,7 +12339,7 @@
         <v>25</v>
       </c>
       <c r="J174" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K174" s="10">
         <v>2019</v>
@@ -12449,22 +12363,22 @@
         <v>47.250899348413199</v>
       </c>
       <c r="R174" s="23" t="s">
-        <v>579</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175" spans="1:18" ht="105" x14ac:dyDescent="0.35">
       <c r="A175" s="8"/>
       <c r="B175" s="19" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="C175" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D175" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="D175" s="21" t="s">
-        <v>601</v>
-      </c>
       <c r="E175" s="21" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="F175" s="10" t="s">
         <v>37</v>
@@ -12479,7 +12393,7 @@
         <v>25</v>
       </c>
       <c r="J175" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K175" s="10">
         <v>2019</v>
@@ -12503,22 +12417,22 @@
         <v>99.9979269779178</v>
       </c>
       <c r="R175" s="23" t="s">
-        <v>583</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A176" s="8"/>
       <c r="B176" s="19" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="E176" s="21" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="F176" s="10" t="s">
         <v>37</v>
@@ -12533,7 +12447,7 @@
         <v>25</v>
       </c>
       <c r="J176" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K176" s="10">
         <v>2019</v>
@@ -12557,22 +12471,22 @@
         <v>99.360149288611197</v>
       </c>
       <c r="R176" s="23" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A177" s="8"/>
       <c r="B177" s="19" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="F177" s="10" t="s">
         <v>37</v>
@@ -12587,7 +12501,7 @@
         <v>25</v>
       </c>
       <c r="J177" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K177" s="10">
         <v>2019</v>
@@ -12611,22 +12525,22 @@
         <v>47.161247218243403</v>
       </c>
       <c r="R177" s="23" t="s">
-        <v>591</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A178" s="8"/>
       <c r="B178" s="19" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="E178" s="21" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="F178" s="24" t="s">
         <v>37</v>
@@ -12641,7 +12555,7 @@
         <v>25</v>
       </c>
       <c r="J178" s="24" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="K178" s="24">
         <v>2019</v>
@@ -12665,25 +12579,25 @@
         <v>79.761634309150594</v>
       </c>
       <c r="R178" s="23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="179" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A179" s="8"/>
       <c r="B179" s="19" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="E179" s="21" t="s">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="G179" s="10" t="s">
         <v>23</v>
@@ -12695,7 +12609,7 @@
         <v>25</v>
       </c>
       <c r="J179" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K179" s="10">
         <v>2018</v>
@@ -12719,25 +12633,25 @@
         <v>100</v>
       </c>
       <c r="R179" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="180" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A180" s="8"/>
       <c r="B180" s="19" t="s">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>615</v>
+        <v>586</v>
       </c>
       <c r="E180" s="21" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="G180" s="10" t="s">
         <v>23</v>
@@ -12749,7 +12663,7 @@
         <v>25</v>
       </c>
       <c r="J180" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K180" s="10">
         <v>2018</v>
@@ -12773,25 +12687,25 @@
         <v>100</v>
       </c>
       <c r="R180" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181" spans="1:18" ht="63" x14ac:dyDescent="0.35">
       <c r="A181" s="8"/>
       <c r="B181" s="19" t="s">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="E181" s="21" t="s">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="G181" s="10" t="s">
         <v>23</v>
@@ -12803,7 +12717,7 @@
         <v>25</v>
       </c>
       <c r="J181" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K181" s="10">
         <v>2018</v>
@@ -12827,25 +12741,25 @@
         <v>100</v>
       </c>
       <c r="R181" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A182" s="8"/>
       <c r="B182" s="19" t="s">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="E182" s="21" t="s">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="G182" s="10" t="s">
         <v>23</v>
@@ -12857,7 +12771,7 @@
         <v>25</v>
       </c>
       <c r="J182" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K182" s="10">
         <v>2018</v>
@@ -12881,25 +12795,25 @@
         <v>100</v>
       </c>
       <c r="R182" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A183" s="8"/>
       <c r="B183" s="19" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="E183" s="21" t="s">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="G183" s="10" t="s">
         <v>23</v>
@@ -12911,7 +12825,7 @@
         <v>25</v>
       </c>
       <c r="J183" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K183" s="10">
         <v>2018</v>
@@ -12935,22 +12849,22 @@
         <v>97.865542171591699</v>
       </c>
       <c r="R183" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A184" s="8"/>
       <c r="B184" s="19" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>628</v>
+        <v>599</v>
       </c>
       <c r="F184" s="10" t="s">
         <v>37</v>
@@ -12965,7 +12879,7 @@
         <v>25</v>
       </c>
       <c r="J184" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K184" s="10">
         <v>2018</v>
@@ -12989,22 +12903,22 @@
         <v>80.374784695925101</v>
       </c>
       <c r="R184" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="185" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A185" s="8"/>
       <c r="B185" s="19" t="s">
-        <v>629</v>
+        <v>600</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>631</v>
+        <v>602</v>
       </c>
       <c r="F185" s="10" t="s">
         <v>37</v>
@@ -13019,7 +12933,7 @@
         <v>25</v>
       </c>
       <c r="J185" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K185" s="10">
         <v>2018</v>
@@ -13043,22 +12957,22 @@
         <v>62.773000731942602</v>
       </c>
       <c r="R185" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A186" s="8"/>
       <c r="B186" s="19" t="s">
-        <v>632</v>
+        <v>603</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="E186" s="21" t="s">
-        <v>634</v>
+        <v>605</v>
       </c>
       <c r="F186" s="10" t="s">
         <v>37</v>
@@ -13073,7 +12987,7 @@
         <v>25</v>
       </c>
       <c r="J186" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K186" s="10">
         <v>2018</v>
@@ -13097,22 +13011,22 @@
         <v>80.374784695925101</v>
       </c>
       <c r="R186" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A187" s="8"/>
       <c r="B187" s="19" t="s">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D187" s="21" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="F187" s="10" t="s">
         <v>37</v>
@@ -13127,7 +13041,7 @@
         <v>25</v>
       </c>
       <c r="J187" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K187" s="10">
         <v>2018</v>
@@ -13151,21 +13065,21 @@
         <v>80.374784695925101</v>
       </c>
       <c r="R187" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="188" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B188" s="19" t="s">
-        <v>638</v>
+        <v>609</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>639</v>
+        <v>610</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="F188" s="10" t="s">
         <v>37</v>
@@ -13180,7 +13094,7 @@
         <v>25</v>
       </c>
       <c r="J188" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K188" s="10">
         <v>2018</v>
@@ -13204,21 +13118,21 @@
         <v>80.214758770103501</v>
       </c>
       <c r="R188" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="189" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B189" s="19" t="s">
-        <v>641</v>
+        <v>612</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>642</v>
+        <v>613</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
       <c r="F189" s="10" t="s">
         <v>37</v>
@@ -13233,7 +13147,7 @@
         <v>25</v>
       </c>
       <c r="J189" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K189" s="10">
         <v>2018</v>
@@ -13257,36 +13171,36 @@
         <v>62.4940774363385</v>
       </c>
       <c r="R189" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B190" s="19" t="s">
-        <v>644</v>
+        <v>615</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="E190" s="21" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>646</v>
+        <v>617</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="H190" s="10" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I190" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J190" s="10" t="s">
-        <v>647</v>
+        <v>618</v>
       </c>
       <c r="K190" s="10">
         <v>2017</v>
@@ -13310,27 +13224,27 @@
         <v>99.188230508835801</v>
       </c>
       <c r="R190" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="191" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="B191" s="19" t="s">
-        <v>648</v>
+        <v>619</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="E191" s="21" t="s">
-        <v>650</v>
+        <v>621</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>651</v>
+        <v>622</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H191" s="10" t="s">
         <v>24</v>
@@ -13339,7 +13253,7 @@
         <v>25</v>
       </c>
       <c r="J191" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K191" s="10">
         <v>2018</v>
@@ -13363,36 +13277,36 @@
         <v>99.853199946495096</v>
       </c>
       <c r="R191" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="192" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B192" s="19" t="s">
-        <v>652</v>
+        <v>623</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>653</v>
+        <v>624</v>
       </c>
       <c r="E192" s="21" t="s">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>655</v>
+        <v>626</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H192" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I192" s="10" t="s">
         <v>25</v>
       </c>
       <c r="J192" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K192" s="10">
         <v>2018</v>
@@ -13416,24 +13330,24 @@
         <v>97.763984930637804</v>
       </c>
       <c r="R192" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="193" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B193" s="19" t="s">
-        <v>656</v>
+        <v>627</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>657</v>
+        <v>628</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>651</v>
+        <v>622</v>
       </c>
       <c r="G193" s="10" t="s">
         <v>33</v>
@@ -13445,7 +13359,7 @@
         <v>25</v>
       </c>
       <c r="J193" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K193" s="10">
         <v>2018</v>
@@ -13469,27 +13383,27 @@
         <v>99.512887922378496</v>
       </c>
       <c r="R193" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="194" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="B194" s="19" t="s">
-        <v>659</v>
+        <v>630</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>660</v>
+        <v>631</v>
       </c>
       <c r="E194" s="21" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="G194" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H194" s="10" t="s">
         <v>24</v>
@@ -13498,7 +13412,7 @@
         <v>25</v>
       </c>
       <c r="J194" s="10" t="s">
-        <v>663</v>
+        <v>634</v>
       </c>
       <c r="K194" s="10">
         <v>2017</v>
@@ -13522,7 +13436,7 @@
         <v>100</v>
       </c>
       <c r="R194" s="23" t="s">
-        <v>613</v>
+        <v>27</v>
       </c>
     </row>
     <row r="195" spans="2:18" x14ac:dyDescent="0.35">
@@ -13564,7 +13478,7 @@
     </row>
     <row r="197" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B197" s="25" t="s">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="C197" s="20"/>
       <c r="D197" s="21"/>
@@ -13603,7 +13517,7 @@
     </row>
     <row r="199" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B199" s="26" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="C199"/>
       <c r="E199"/>
@@ -13616,12 +13530,12 @@
     </row>
     <row r="200" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B200" s="26" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
     </row>
     <row r="201" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B201" s="26" t="s">
-        <v>667</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
